--- a/input/DOE21E/120/Std140_CE_b_Output.xlsx
+++ b/input/DOE21E/120/Std140_CE_b_Output.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\JasonGlazer--ashrae-140-automation\input\DOE21E\120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCA48BE2-BA86-437E-9626-4591CBF68F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931CD997-107E-4371-8B52-71CB1B0AFBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16605" yWindow="2970" windowWidth="30675" windowHeight="17970" xr2:uid="{6C5182BB-48B8-4F6B-8426-D0FB240A2181}"/>
+    <workbookView xWindow="2625" yWindow="3870" windowWidth="40575" windowHeight="15465" xr2:uid="{6C5182BB-48B8-4F6B-8426-D0FB240A2181}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
   </definedNames>
@@ -1050,15 +1047,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1183,6 +1171,20 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,11 +1193,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,116 +1209,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Read Me"/>
-      <sheetName val="Adding Results"/>
-      <sheetName val="YourData"/>
-      <sheetName val="Title Page"/>
-      <sheetName val="Program List"/>
-      <sheetName val="Tables List"/>
-      <sheetName val="Figures List"/>
-      <sheetName val="Table-Q"/>
-      <sheetName val="Table-R"/>
-      <sheetName val="Table-S"/>
-      <sheetName val="Table-T"/>
-      <sheetName val="Fig B16.5.2-1 Qtot"/>
-      <sheetName val="Fig B16.5.2-2 dQtot"/>
-      <sheetName val="Fig B16.5.2-3 Ptot"/>
-      <sheetName val="Fig B16.5.2-4 dPtot"/>
-      <sheetName val="Fig B16.5.2-5 Qcomp"/>
-      <sheetName val="Fig B16.5.2-6 dQcomp"/>
-      <sheetName val="Fig B16.5.2-7 Qidfan"/>
-      <sheetName val="Fig B16.5.2-8 dQidfan"/>
-      <sheetName val="Fig B16.5.2-9 Qodfan"/>
-      <sheetName val="Fig B16.5.2-10 dQodfan"/>
-      <sheetName val="Fig B16.5.2-11 QCtot"/>
-      <sheetName val="Fig B16.5.2-12 PCtot"/>
-      <sheetName val="Fig B16.5.2-13 dPCtot"/>
-      <sheetName val="Fig B16.5.2-14 QCSens"/>
-      <sheetName val="Fig B16.5.2-15 dQCsens"/>
-      <sheetName val="Fig B16.5.2-16 PCSens"/>
-      <sheetName val="Fig B16.5.2-17 QClat"/>
-      <sheetName val="Fig B16.5.2-18 dQClat"/>
-      <sheetName val="Fig B16.5.2-19 PClat"/>
-      <sheetName val="Fig B16.5.2-20 dPClat"/>
-      <sheetName val="Fig B16.5.2-21 COP2"/>
-      <sheetName val="Fig B16.5.2-22 dCOP2"/>
-      <sheetName val="Fig B16.5.2-23 MxCOP2"/>
-      <sheetName val="Fig B16.5.2-24 dMxCOP2"/>
-      <sheetName val="Fig B16.5.2-25 MnCOP2"/>
-      <sheetName val="Fig B16.5.2-26 dMnCOP2"/>
-      <sheetName val="Fig B16.5.2-27 IDB"/>
-      <sheetName val="Fig B16.5.2-28 dIDB"/>
-      <sheetName val="Fig B16.5.2-29 MxIDB"/>
-      <sheetName val="Fig B16.5.2-30 dMxIDB"/>
-      <sheetName val="Fig B16.5.2-31 MnIDB"/>
-      <sheetName val="Fig B16.5.2-32 Humrat"/>
-      <sheetName val="Fig B16.5.2-33 dHumrat"/>
-      <sheetName val="Fig B16.5.2-34 MxHum"/>
-      <sheetName val="Fig B16.5.2-35 dMxHumrat"/>
-      <sheetName val="Fig B16.5.2-36 MnHum"/>
-      <sheetName val="Fig B16.5.2-37 RelHum"/>
-      <sheetName val="Fig B16.5.2-38 dRelHum"/>
-      <sheetName val="Fig B16.5.2-39 MxRelHum"/>
-      <sheetName val="Fig B16.5.2-40 dMxRelHum"/>
-      <sheetName val="Fig B16.5.2-41 MnRelHum"/>
-      <sheetName val="Fig B16.5.2-42 Qf(ODB)"/>
-      <sheetName val="Fig B16.5.2-43 QCf(ODB)"/>
-      <sheetName val="Fig B16.5.2-44 COP2f(ODB)"/>
-      <sheetName val="Fig B16.5.2-45 Humratf(ODB)"/>
-      <sheetName val="Fig B16.5.2-46 HrQ"/>
-      <sheetName val="Fig B16.5.2-47 HrQC"/>
-      <sheetName val="Fig B16.5.2-48 HrCOP2"/>
-      <sheetName val="Fig B16.5.2-49 HrHum"/>
-      <sheetName val="Fig B16.5.2-50 HrEDB,EWB"/>
-      <sheetName val="Fig B16.5.2-51 HrODB"/>
-      <sheetName val="Fig B16.5.2-52 HrOHR"/>
-      <sheetName val="A"/>
-      <sheetName val="Qdata"/>
-      <sheetName val="Rdata"/>
-      <sheetName val="Sdata"/>
-      <sheetName val="Tdata"/>
-      <sheetName val="TRNSYS-TUD"/>
-      <sheetName val="DOE22"/>
-      <sheetName val="DOE21E"/>
-      <sheetName val="EnergyPlus1.0"/>
-      <sheetName val="CodyRun"/>
-      <sheetName val="HOT3000"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1646,8 +1533,8 @@
   </sheetPr>
   <dimension ref="A1:AO214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="I81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W79" sqref="W79:Y81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4087,18 +3974,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="W79" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X79" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y79" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="W79" s="23"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="22"/>
       <c r="Z79" s="23">
         <f t="shared" si="11"/>
         <v>19575</v>
@@ -4184,18 +4062,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="W80" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X80" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y80" s="22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="W80" s="23"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="22"/>
       <c r="Z80" s="23">
         <f t="shared" si="11"/>
         <v>19766</v>
@@ -4281,18 +4150,9 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="W81" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X81" s="38">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y81" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="W81" s="23"/>
+      <c r="X81" s="38"/>
+      <c r="Y81" s="39"/>
       <c r="Z81" s="23">
         <f t="shared" si="11"/>
         <v>19474</v>
@@ -6648,42 +6508,15 @@
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="AF101" s="53" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG101" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH101" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AI101" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ101" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AK101" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AL101" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM101" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AN101" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="AF101" s="53"/>
+      <c r="AG101" s="30"/>
+      <c r="AH101" s="24"/>
+      <c r="AI101" s="59"/>
+      <c r="AJ101" s="30"/>
+      <c r="AK101" s="24"/>
+      <c r="AL101" s="59"/>
+      <c r="AM101" s="30"/>
+      <c r="AN101" s="24"/>
     </row>
     <row r="102" spans="1:40" ht="15.75">
       <c r="A102" s="10" t="s">
@@ -6803,42 +6636,15 @@
         <f t="shared" si="24"/>
         <v>15</v>
       </c>
-      <c r="AF102" s="53" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG102" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH102" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AI102" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ102" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AK102" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AL102" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM102" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AN102" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="AF102" s="53"/>
+      <c r="AG102" s="30"/>
+      <c r="AH102" s="24"/>
+      <c r="AI102" s="59"/>
+      <c r="AJ102" s="30"/>
+      <c r="AK102" s="24"/>
+      <c r="AL102" s="59"/>
+      <c r="AM102" s="30"/>
+      <c r="AN102" s="24"/>
     </row>
     <row r="103" spans="1:40" ht="15.75">
       <c r="A103" s="10" t="s">
@@ -6958,42 +6764,15 @@
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="AF103" s="53" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG103" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH103" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AI103" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ103" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AK103" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AL103" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM103" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AN103" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="AF103" s="53"/>
+      <c r="AG103" s="30"/>
+      <c r="AH103" s="24"/>
+      <c r="AI103" s="59"/>
+      <c r="AJ103" s="30"/>
+      <c r="AK103" s="24"/>
+      <c r="AL103" s="59"/>
+      <c r="AM103" s="30"/>
+      <c r="AN103" s="24"/>
     </row>
     <row r="104" spans="1:40" ht="15.75">
       <c r="A104" s="10" t="s">
@@ -7113,42 +6892,15 @@
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="AF104" s="53" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG104" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH104" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AI104" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ104" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AK104" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AL104" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM104" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AN104" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="AF104" s="53"/>
+      <c r="AG104" s="30"/>
+      <c r="AH104" s="24"/>
+      <c r="AI104" s="59"/>
+      <c r="AJ104" s="30"/>
+      <c r="AK104" s="24"/>
+      <c r="AL104" s="59"/>
+      <c r="AM104" s="30"/>
+      <c r="AN104" s="24"/>
     </row>
     <row r="105" spans="1:40" ht="15.75">
       <c r="A105" s="10" t="s">
@@ -7268,42 +7020,15 @@
         <f t="shared" si="24"/>
         <v>15</v>
       </c>
-      <c r="AF105" s="53" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG105" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH105" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AI105" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ105" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AK105" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AL105" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM105" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AN105" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="AF105" s="53"/>
+      <c r="AG105" s="30"/>
+      <c r="AH105" s="24"/>
+      <c r="AI105" s="59"/>
+      <c r="AJ105" s="30"/>
+      <c r="AK105" s="24"/>
+      <c r="AL105" s="59"/>
+      <c r="AM105" s="30"/>
+      <c r="AN105" s="24"/>
     </row>
     <row r="106" spans="1:40" ht="15.75">
       <c r="A106" s="10" t="s">
@@ -7423,42 +7148,15 @@
         <f t="shared" si="24"/>
         <v>15</v>
       </c>
-      <c r="AF106" s="53" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG106" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH106" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AI106" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ106" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AK106" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AL106" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM106" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AN106" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="AF106" s="53"/>
+      <c r="AG106" s="30"/>
+      <c r="AH106" s="24"/>
+      <c r="AI106" s="59"/>
+      <c r="AJ106" s="30"/>
+      <c r="AK106" s="24"/>
+      <c r="AL106" s="59"/>
+      <c r="AM106" s="30"/>
+      <c r="AN106" s="24"/>
     </row>
     <row r="107" spans="1:40" ht="15.75">
       <c r="A107" s="10" t="s">
@@ -7578,42 +7276,15 @@
         <f t="shared" si="24"/>
         <v>8</v>
       </c>
-      <c r="AF107" s="53" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG107" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH107" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AI107" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ107" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AK107" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AL107" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM107" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AN107" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="AF107" s="53"/>
+      <c r="AG107" s="30"/>
+      <c r="AH107" s="24"/>
+      <c r="AI107" s="59"/>
+      <c r="AJ107" s="30"/>
+      <c r="AK107" s="24"/>
+      <c r="AL107" s="59"/>
+      <c r="AM107" s="30"/>
+      <c r="AN107" s="24"/>
     </row>
     <row r="108" spans="1:40" ht="15.75">
       <c r="A108" s="10" t="s">
@@ -7733,42 +7404,15 @@
         <f t="shared" si="24"/>
         <v>15</v>
       </c>
-      <c r="AF108" s="61" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AG108" s="38">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AH108" s="43">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AI108" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AJ108" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AK108" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AL108" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>system off gives 0.000</v>
-      </c>
-      <c r="AM108" s="30">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AN108" s="24">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="AF108" s="61"/>
+      <c r="AG108" s="38"/>
+      <c r="AH108" s="43"/>
+      <c r="AI108" s="59"/>
+      <c r="AJ108" s="30"/>
+      <c r="AK108" s="24"/>
+      <c r="AL108" s="59"/>
+      <c r="AM108" s="30"/>
+      <c r="AN108" s="24"/>
     </row>
     <row r="109" spans="1:40" ht="15.75">
       <c r="A109" s="10" t="s">
@@ -8026,12 +7670,12 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="10"/>
-      <c r="B117" s="64" t="s">
+      <c r="B117" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="C117" s="65"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="66"/>
+      <c r="C117" s="136"/>
+      <c r="D117" s="136"/>
+      <c r="E117" s="137"/>
       <c r="F117" s="10" t="s">
         <v>172</v>
       </c>
@@ -8115,7 +7759,7 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.75">
-      <c r="A120" s="67" t="s">
+      <c r="A120" s="64" t="s">
         <v>175</v>
       </c>
       <c r="B120" s="23">
@@ -8130,7 +7774,7 @@
         <f>D204/24</f>
         <v>389.08333333333331</v>
       </c>
-      <c r="E120" s="68">
+      <c r="E120" s="65">
         <f>E204/24</f>
         <v>466.41666666666669</v>
       </c>
@@ -8154,17 +7798,17 @@
         <f>J204</f>
         <v>3.9139030708941935</v>
       </c>
-      <c r="K120" s="69">
+      <c r="K120" s="66">
         <f>(K204-32)/180*100</f>
         <v>16.833333333333332</v>
       </c>
-      <c r="L120" s="70">
+      <c r="L120" s="67">
         <f>(L204-32)/180*100</f>
         <v>24.944444444444446</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.75">
-      <c r="A121" s="71" t="s">
+      <c r="A121" s="68" t="s">
         <v>176</v>
       </c>
       <c r="B121" s="42">
@@ -8179,7 +7823,7 @@
         <f>D205/24</f>
         <v>426.33333333333331</v>
       </c>
-      <c r="E121" s="72">
+      <c r="E121" s="69">
         <f>E205/24</f>
         <v>514.33333333333337</v>
       </c>
@@ -8203,11 +7847,11 @@
         <f>J205</f>
         <v>2.9505592702169627</v>
       </c>
-      <c r="K121" s="73">
+      <c r="K121" s="70">
         <f>(K205-32)/180*100</f>
         <v>29.5</v>
       </c>
-      <c r="L121" s="74">
+      <c r="L121" s="71">
         <f>(L205-32)/180*100</f>
         <v>25</v>
       </c>
@@ -8244,12 +7888,12 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="10"/>
-      <c r="B126" s="64" t="s">
+      <c r="B126" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="C126" s="65"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="66"/>
+      <c r="C126" s="136"/>
+      <c r="D126" s="136"/>
+      <c r="E126" s="137"/>
       <c r="F126" s="10" t="s">
         <v>172</v>
       </c>
@@ -8333,7 +7977,7 @@
       </c>
     </row>
     <row r="129" spans="1:40" ht="15.75">
-      <c r="A129" s="67" t="s">
+      <c r="A129" s="64" t="s">
         <v>175</v>
       </c>
       <c r="B129" s="23">
@@ -8348,7 +7992,7 @@
         <f>D213/24</f>
         <v>311.125</v>
       </c>
-      <c r="E129" s="68">
+      <c r="E129" s="65">
         <f>E213/24</f>
         <v>360.75</v>
       </c>
@@ -8372,17 +8016,17 @@
         <f>J213</f>
         <v>3.5991278364828387</v>
       </c>
-      <c r="K129" s="69">
+      <c r="K129" s="66">
         <f>(K213-32)/180*100</f>
         <v>16.833333333333332</v>
       </c>
-      <c r="L129" s="70">
+      <c r="L129" s="67">
         <f>(L213-32)/180*100</f>
         <v>24.666666666666671</v>
       </c>
     </row>
     <row r="130" spans="1:40" ht="15.75">
-      <c r="A130" s="71" t="s">
+      <c r="A130" s="68" t="s">
         <v>176</v>
       </c>
       <c r="B130" s="42">
@@ -8397,7 +8041,7 @@
         <f>D214/24</f>
         <v>339.625</v>
       </c>
-      <c r="E130" s="72">
+      <c r="E130" s="69">
         <f>E214/24</f>
         <v>395.5</v>
       </c>
@@ -8421,11 +8065,11 @@
         <f>J214</f>
         <v>2.7244848665999863</v>
       </c>
-      <c r="K130" s="73">
+      <c r="K130" s="70">
         <f>(K214-32)/180*100</f>
         <v>29.5</v>
       </c>
-      <c r="L130" s="74">
+      <c r="L130" s="71">
         <f>(L214-32)/180*100</f>
         <v>24.944444444444446</v>
       </c>
@@ -8446,303 +8090,303 @@
       </c>
     </row>
     <row r="140" spans="1:40" ht="15.75">
-      <c r="A140" s="75"/>
-      <c r="B140" s="75"/>
-      <c r="C140" s="76"/>
-      <c r="D140" s="76" t="s">
+      <c r="A140" s="72"/>
+      <c r="B140" s="72"/>
+      <c r="C140" s="73"/>
+      <c r="D140" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="E140" s="76"/>
-      <c r="F140" s="76"/>
-      <c r="G140" s="76"/>
-      <c r="H140" s="76"/>
-      <c r="I140" s="75" t="s">
+      <c r="E140" s="73"/>
+      <c r="F140" s="73"/>
+      <c r="G140" s="73"/>
+      <c r="H140" s="73"/>
+      <c r="I140" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="J140" s="76"/>
-      <c r="K140" s="76"/>
-      <c r="L140" s="76"/>
-      <c r="M140" s="75" t="s">
+      <c r="J140" s="73"/>
+      <c r="K140" s="73"/>
+      <c r="L140" s="73"/>
+      <c r="M140" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="N140" s="77"/>
-      <c r="O140" s="78"/>
-      <c r="P140" s="75"/>
-      <c r="Q140" s="79" t="s">
+      <c r="N140" s="74"/>
+      <c r="O140" s="75"/>
+      <c r="P140" s="72"/>
+      <c r="Q140" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="R140" s="80"/>
-      <c r="S140" s="80"/>
-      <c r="T140" s="80"/>
-      <c r="U140" s="80"/>
-      <c r="V140" s="80"/>
-      <c r="W140" s="76"/>
-      <c r="X140" s="76"/>
-      <c r="Y140" s="76"/>
-      <c r="Z140" s="76"/>
-      <c r="AA140" s="76"/>
-      <c r="AB140" s="77"/>
-      <c r="AC140" s="75"/>
-      <c r="AD140" s="76" t="s">
+      <c r="R140" s="77"/>
+      <c r="S140" s="77"/>
+      <c r="T140" s="77"/>
+      <c r="U140" s="77"/>
+      <c r="V140" s="77"/>
+      <c r="W140" s="73"/>
+      <c r="X140" s="73"/>
+      <c r="Y140" s="73"/>
+      <c r="Z140" s="73"/>
+      <c r="AA140" s="73"/>
+      <c r="AB140" s="74"/>
+      <c r="AC140" s="72"/>
+      <c r="AD140" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="AE140" s="76"/>
-      <c r="AF140" s="76"/>
-      <c r="AG140" s="76"/>
-      <c r="AH140" s="77"/>
-      <c r="AI140" s="81"/>
-      <c r="AJ140" s="81"/>
-      <c r="AK140" s="81"/>
-      <c r="AL140" s="81"/>
-      <c r="AM140" s="81"/>
-      <c r="AN140" s="81"/>
+      <c r="AE140" s="73"/>
+      <c r="AF140" s="73"/>
+      <c r="AG140" s="73"/>
+      <c r="AH140" s="74"/>
+      <c r="AI140" s="78"/>
+      <c r="AJ140" s="78"/>
+      <c r="AK140" s="78"/>
+      <c r="AL140" s="78"/>
+      <c r="AM140" s="78"/>
+      <c r="AN140" s="78"/>
     </row>
     <row r="141" spans="1:40" ht="15.75">
-      <c r="A141" s="82"/>
-      <c r="B141" s="83"/>
-      <c r="C141" s="84"/>
-      <c r="D141" s="84"/>
-      <c r="E141" s="84"/>
-      <c r="F141" s="84"/>
-      <c r="G141" s="84"/>
-      <c r="H141" s="84"/>
-      <c r="I141" s="83"/>
-      <c r="J141" s="84"/>
-      <c r="K141" s="84"/>
-      <c r="L141" s="84"/>
-      <c r="M141" s="83" t="s">
+      <c r="A141" s="79"/>
+      <c r="B141" s="80"/>
+      <c r="C141" s="81"/>
+      <c r="D141" s="81"/>
+      <c r="E141" s="81"/>
+      <c r="F141" s="81"/>
+      <c r="G141" s="81"/>
+      <c r="H141" s="81"/>
+      <c r="I141" s="80"/>
+      <c r="J141" s="81"/>
+      <c r="K141" s="81"/>
+      <c r="L141" s="81"/>
+      <c r="M141" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="N141" s="85"/>
+      <c r="N141" s="82"/>
       <c r="O141" s="1"/>
-      <c r="P141" s="82"/>
-      <c r="Q141" s="83"/>
-      <c r="R141" s="84"/>
-      <c r="S141" s="84"/>
-      <c r="T141" s="84"/>
-      <c r="U141" s="84"/>
-      <c r="V141" s="84"/>
-      <c r="W141" s="84"/>
-      <c r="X141" s="84"/>
-      <c r="Y141" s="84"/>
-      <c r="Z141" s="84"/>
-      <c r="AA141" s="84"/>
-      <c r="AB141" s="85"/>
-      <c r="AC141" s="83"/>
-      <c r="AD141" s="84"/>
-      <c r="AE141" s="84"/>
-      <c r="AF141" s="84"/>
-      <c r="AG141" s="84"/>
-      <c r="AH141" s="85"/>
-      <c r="AI141" s="81"/>
-      <c r="AJ141" s="81"/>
-      <c r="AK141" s="81"/>
-      <c r="AL141" s="81"/>
-      <c r="AM141" s="81"/>
-      <c r="AN141" s="81"/>
+      <c r="P141" s="79"/>
+      <c r="Q141" s="80"/>
+      <c r="R141" s="81"/>
+      <c r="S141" s="81"/>
+      <c r="T141" s="81"/>
+      <c r="U141" s="81"/>
+      <c r="V141" s="81"/>
+      <c r="W141" s="81"/>
+      <c r="X141" s="81"/>
+      <c r="Y141" s="81"/>
+      <c r="Z141" s="81"/>
+      <c r="AA141" s="81"/>
+      <c r="AB141" s="82"/>
+      <c r="AC141" s="80"/>
+      <c r="AD141" s="81"/>
+      <c r="AE141" s="81"/>
+      <c r="AF141" s="81"/>
+      <c r="AG141" s="81"/>
+      <c r="AH141" s="82"/>
+      <c r="AI141" s="78"/>
+      <c r="AJ141" s="78"/>
+      <c r="AK141" s="78"/>
+      <c r="AL141" s="78"/>
+      <c r="AM141" s="78"/>
+      <c r="AN141" s="78"/>
     </row>
     <row r="142" spans="1:40" ht="15.75">
-      <c r="A142" s="82"/>
-      <c r="B142" s="82"/>
-      <c r="C142" s="81"/>
-      <c r="D142" s="81"/>
-      <c r="E142" s="81"/>
-      <c r="F142" s="81"/>
-      <c r="G142" s="81"/>
-      <c r="H142" s="81"/>
-      <c r="I142" s="82"/>
-      <c r="J142" s="81"/>
-      <c r="K142" s="86" t="s">
+      <c r="A142" s="79"/>
+      <c r="B142" s="79"/>
+      <c r="C142" s="78"/>
+      <c r="D142" s="78"/>
+      <c r="E142" s="78"/>
+      <c r="F142" s="78"/>
+      <c r="G142" s="78"/>
+      <c r="H142" s="78"/>
+      <c r="I142" s="79"/>
+      <c r="J142" s="78"/>
+      <c r="K142" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="L142" s="86" t="s">
+      <c r="L142" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="M142" s="82"/>
-      <c r="N142" s="87" t="s">
+      <c r="M142" s="79"/>
+      <c r="N142" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="O142" s="88"/>
-      <c r="P142" s="82"/>
-      <c r="Q142" s="75"/>
-      <c r="R142" s="76"/>
-      <c r="S142" s="77"/>
-      <c r="T142" s="81"/>
-      <c r="U142" s="81"/>
-      <c r="V142" s="81"/>
-      <c r="W142" s="81"/>
-      <c r="X142" s="81"/>
-      <c r="Y142" s="81"/>
-      <c r="Z142" s="81"/>
-      <c r="AA142" s="81"/>
-      <c r="AB142" s="89"/>
-      <c r="AC142" s="81"/>
-      <c r="AD142" s="81" t="s">
+      <c r="O142" s="85"/>
+      <c r="P142" s="79"/>
+      <c r="Q142" s="72"/>
+      <c r="R142" s="73"/>
+      <c r="S142" s="74"/>
+      <c r="T142" s="78"/>
+      <c r="U142" s="78"/>
+      <c r="V142" s="78"/>
+      <c r="W142" s="78"/>
+      <c r="X142" s="78"/>
+      <c r="Y142" s="78"/>
+      <c r="Z142" s="78"/>
+      <c r="AA142" s="78"/>
+      <c r="AB142" s="86"/>
+      <c r="AC142" s="78"/>
+      <c r="AD142" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="AE142" s="81"/>
-      <c r="AF142" s="81"/>
-      <c r="AG142" s="81"/>
-      <c r="AH142" s="77"/>
-      <c r="AI142" s="81"/>
-      <c r="AJ142" s="81"/>
-      <c r="AK142" s="81"/>
-      <c r="AL142" s="81"/>
-      <c r="AM142" s="81"/>
-      <c r="AN142" s="81"/>
+      <c r="AE142" s="78"/>
+      <c r="AF142" s="78"/>
+      <c r="AG142" s="78"/>
+      <c r="AH142" s="74"/>
+      <c r="AI142" s="78"/>
+      <c r="AJ142" s="78"/>
+      <c r="AK142" s="78"/>
+      <c r="AL142" s="78"/>
+      <c r="AM142" s="78"/>
+      <c r="AN142" s="78"/>
     </row>
     <row r="143" spans="1:40" ht="15.75">
-      <c r="A143" s="82"/>
-      <c r="B143" s="82" t="s">
+      <c r="A143" s="79"/>
+      <c r="B143" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C143" s="81"/>
-      <c r="D143" s="81"/>
-      <c r="E143" s="81"/>
-      <c r="F143" s="82" t="s">
+      <c r="C143" s="78"/>
+      <c r="D143" s="78"/>
+      <c r="E143" s="78"/>
+      <c r="F143" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="G143" s="81"/>
-      <c r="H143" s="81"/>
-      <c r="I143" s="82"/>
-      <c r="J143" s="81"/>
-      <c r="K143" s="86" t="s">
+      <c r="G143" s="78"/>
+      <c r="H143" s="78"/>
+      <c r="I143" s="79"/>
+      <c r="J143" s="78"/>
+      <c r="K143" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="L143" s="86" t="s">
+      <c r="L143" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="M143" s="82"/>
-      <c r="N143" s="87" t="s">
+      <c r="M143" s="79"/>
+      <c r="N143" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="O143" s="88"/>
-      <c r="P143" s="82"/>
-      <c r="Q143" s="90" t="s">
+      <c r="O143" s="85"/>
+      <c r="P143" s="79"/>
+      <c r="Q143" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="R143" s="81"/>
-      <c r="S143" s="89"/>
-      <c r="T143" s="81"/>
-      <c r="U143" s="81"/>
-      <c r="V143" s="81" t="s">
+      <c r="R143" s="78"/>
+      <c r="S143" s="86"/>
+      <c r="T143" s="78"/>
+      <c r="U143" s="78"/>
+      <c r="V143" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="W143" s="81"/>
-      <c r="X143" s="81"/>
-      <c r="Y143" s="81"/>
-      <c r="Z143" s="81"/>
-      <c r="AA143" s="81"/>
-      <c r="AB143" s="89"/>
-      <c r="AC143" s="81"/>
-      <c r="AD143" s="81"/>
-      <c r="AE143" s="89"/>
-      <c r="AF143" s="81"/>
-      <c r="AG143" s="81"/>
-      <c r="AH143" s="89"/>
-      <c r="AI143" s="81"/>
-      <c r="AJ143" s="81"/>
-      <c r="AK143" s="81"/>
-      <c r="AL143" s="81"/>
-      <c r="AM143" s="81"/>
-      <c r="AN143" s="81"/>
+      <c r="W143" s="78"/>
+      <c r="X143" s="78"/>
+      <c r="Y143" s="78"/>
+      <c r="Z143" s="78"/>
+      <c r="AA143" s="78"/>
+      <c r="AB143" s="86"/>
+      <c r="AC143" s="78"/>
+      <c r="AD143" s="78"/>
+      <c r="AE143" s="86"/>
+      <c r="AF143" s="78"/>
+      <c r="AG143" s="78"/>
+      <c r="AH143" s="86"/>
+      <c r="AI143" s="78"/>
+      <c r="AJ143" s="78"/>
+      <c r="AK143" s="78"/>
+      <c r="AL143" s="78"/>
+      <c r="AM143" s="78"/>
+      <c r="AN143" s="78"/>
     </row>
     <row r="144" spans="1:40" ht="15.75">
-      <c r="A144" s="82" t="s">
+      <c r="A144" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B144" s="91" t="s">
+      <c r="B144" s="88" t="s">
         <v>77</v>
       </c>
       <c r="C144" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D144" s="86" t="s">
+      <c r="D144" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="E144" s="86" t="s">
+      <c r="E144" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="F144" s="91" t="s">
+      <c r="F144" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="G144" s="86" t="s">
+      <c r="G144" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="H144" s="86" t="s">
+      <c r="H144" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="I144" s="91" t="s">
+      <c r="I144" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="J144" s="86" t="s">
+      <c r="J144" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="K144" s="86" t="s">
+      <c r="K144" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="L144" s="86" t="s">
+      <c r="L144" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="M144" s="91" t="s">
+      <c r="M144" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="N144" s="87" t="s">
+      <c r="N144" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="O144" s="88"/>
-      <c r="P144" s="82" t="s">
+      <c r="O144" s="85"/>
+      <c r="P144" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="Q144" s="82" t="s">
+      <c r="Q144" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="R144" s="81"/>
-      <c r="S144" s="81"/>
-      <c r="T144" s="82"/>
-      <c r="U144" s="86" t="s">
+      <c r="R144" s="78"/>
+      <c r="S144" s="78"/>
+      <c r="T144" s="79"/>
+      <c r="U144" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="V144" s="81"/>
-      <c r="W144" s="82"/>
-      <c r="X144" s="86" t="s">
+      <c r="V144" s="78"/>
+      <c r="W144" s="79"/>
+      <c r="X144" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="Y144" s="81"/>
-      <c r="Z144" s="82" t="s">
+      <c r="Y144" s="78"/>
+      <c r="Z144" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="AA144" s="81"/>
-      <c r="AB144" s="89"/>
-      <c r="AC144" s="81"/>
-      <c r="AD144" s="81" t="s">
+      <c r="AA144" s="78"/>
+      <c r="AB144" s="86"/>
+      <c r="AC144" s="78"/>
+      <c r="AD144" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="AE144" s="89"/>
-      <c r="AF144" s="81" t="s">
+      <c r="AE144" s="86"/>
+      <c r="AF144" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="AG144" s="81"/>
-      <c r="AH144" s="89"/>
-      <c r="AI144" s="81"/>
-      <c r="AJ144" s="81"/>
-      <c r="AK144" s="81"/>
-      <c r="AL144" s="81"/>
-      <c r="AM144" s="81"/>
-      <c r="AN144" s="81"/>
+      <c r="AG144" s="78"/>
+      <c r="AH144" s="86"/>
+      <c r="AI144" s="78"/>
+      <c r="AJ144" s="78"/>
+      <c r="AK144" s="78"/>
+      <c r="AL144" s="78"/>
+      <c r="AM144" s="78"/>
+      <c r="AN144" s="78"/>
     </row>
     <row r="145" spans="1:40" ht="15.75">
-      <c r="A145" s="83"/>
-      <c r="B145" s="92" t="s">
+      <c r="A145" s="80"/>
+      <c r="B145" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="93" t="s">
+      <c r="C145" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="D145" s="93" t="s">
+      <c r="D145" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="E145" s="93" t="s">
+      <c r="E145" s="90" t="s">
         <v>91</v>
       </c>
       <c r="F145" s="18" t="s">
@@ -8754,91 +8398,91 @@
       <c r="H145" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="I145" s="83"/>
-      <c r="J145" s="93" t="s">
+      <c r="I145" s="80"/>
+      <c r="J145" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="K145" s="93" t="s">
+      <c r="K145" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="L145" s="93" t="s">
+      <c r="L145" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="M145" s="92" t="s">
+      <c r="M145" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="N145" s="94" t="s">
+      <c r="N145" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="O145" s="95"/>
-      <c r="P145" s="83"/>
-      <c r="Q145" s="92" t="s">
+      <c r="O145" s="92"/>
+      <c r="P145" s="80"/>
+      <c r="Q145" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="R145" s="93" t="s">
+      <c r="R145" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="S145" s="93" t="s">
+      <c r="S145" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="T145" s="96" t="s">
+      <c r="T145" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="U145" s="93" t="s">
+      <c r="U145" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="V145" s="93" t="s">
+      <c r="V145" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="W145" s="96" t="s">
+      <c r="W145" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="X145" s="93" t="s">
+      <c r="X145" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="Y145" s="93" t="s">
+      <c r="Y145" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="Z145" s="96" t="s">
+      <c r="Z145" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="AA145" s="93" t="s">
+      <c r="AA145" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AB145" s="94" t="s">
+      <c r="AB145" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="AC145" s="92" t="s">
+      <c r="AC145" s="89" t="s">
         <v>185</v>
       </c>
-      <c r="AD145" s="93" t="s">
+      <c r="AD145" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AE145" s="94" t="s">
+      <c r="AE145" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="AF145" s="93" t="s">
+      <c r="AF145" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="AG145" s="93" t="s">
+      <c r="AG145" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AH145" s="94" t="s">
+      <c r="AH145" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="AI145" s="81"/>
-      <c r="AJ145" s="81"/>
-      <c r="AK145" s="81"/>
-      <c r="AL145" s="81"/>
-      <c r="AM145" s="81"/>
-      <c r="AN145" s="81"/>
+      <c r="AI145" s="78"/>
+      <c r="AJ145" s="78"/>
+      <c r="AK145" s="78"/>
+      <c r="AL145" s="78"/>
+      <c r="AM145" s="78"/>
+      <c r="AN145" s="78"/>
     </row>
     <row r="146" spans="1:40" ht="15.75">
-      <c r="A146" s="82" t="s">
+      <c r="A146" s="79" t="s">
         <v>98</v>
       </c>
       <c r="B146" s="21"/>
-      <c r="C146" s="97">
+      <c r="C146" s="94">
         <v>23875</v>
       </c>
       <c r="D146" s="22">
@@ -8850,7 +8494,7 @@
       <c r="F146" s="23">
         <v>263705</v>
       </c>
-      <c r="G146" s="81"/>
+      <c r="G146" s="78"/>
       <c r="H146" s="24">
         <v>73310</v>
       </c>
@@ -8858,7 +8502,7 @@
         <f>(F146)*0.2931/(C146)</f>
         <v>3.2373585549738224</v>
       </c>
-      <c r="J146" s="98">
+      <c r="J146" s="95">
         <v>75.3</v>
       </c>
       <c r="K146" s="22">
@@ -8867,14 +8511,14 @@
       <c r="L146" s="26">
         <v>48.28</v>
       </c>
-      <c r="M146" s="99">
+      <c r="M146" s="96">
         <v>67.8</v>
       </c>
       <c r="N146" s="34">
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="O146" s="22"/>
-      <c r="P146" s="82" t="s">
+      <c r="P146" s="79" t="s">
         <v>98</v>
       </c>
       <c r="Q146" s="23">
@@ -8913,33 +8557,33 @@
       <c r="AB146" s="37">
         <v>15</v>
       </c>
-      <c r="AC146" s="100">
+      <c r="AC146" s="97">
         <v>95</v>
       </c>
-      <c r="AD146" s="101">
+      <c r="AD146" s="98">
         <v>37457</v>
       </c>
-      <c r="AE146" s="102">
+      <c r="AE146" s="99">
         <v>15</v>
       </c>
-      <c r="AF146" s="103">
+      <c r="AF146" s="100">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="AG146" s="101">
+      <c r="AG146" s="98">
         <v>37531</v>
       </c>
-      <c r="AH146" s="102">
+      <c r="AH146" s="99">
         <v>9</v>
       </c>
-      <c r="AI146" s="81"/>
-      <c r="AJ146" s="81"/>
-      <c r="AK146" s="81"/>
-      <c r="AL146" s="81"/>
-      <c r="AM146" s="81"/>
-      <c r="AN146" s="81"/>
+      <c r="AI146" s="78"/>
+      <c r="AJ146" s="78"/>
+      <c r="AK146" s="78"/>
+      <c r="AL146" s="78"/>
+      <c r="AM146" s="78"/>
+      <c r="AN146" s="78"/>
     </row>
     <row r="147" spans="1:40" ht="15.75">
-      <c r="A147" s="82" t="s">
+      <c r="A147" s="79" t="s">
         <v>99</v>
       </c>
       <c r="B147" s="21"/>
@@ -8955,7 +8599,7 @@
       <c r="F147" s="21">
         <v>332351</v>
       </c>
-      <c r="G147" s="81"/>
+      <c r="G147" s="78"/>
       <c r="H147" s="22">
         <v>140223</v>
       </c>
@@ -8963,7 +8607,7 @@
         <f t="shared" ref="I147:I166" si="27">(F147)*0.2931/(C147)</f>
         <v>3.4174880051922543</v>
       </c>
-      <c r="J147" s="98">
+      <c r="J147" s="95">
         <v>75.3</v>
       </c>
       <c r="K147" s="22">
@@ -8975,7 +8619,7 @@
       <c r="M147" s="21"/>
       <c r="N147" s="22"/>
       <c r="O147" s="22"/>
-      <c r="P147" s="82" t="s">
+      <c r="P147" s="79" t="s">
         <v>99</v>
       </c>
       <c r="Q147" s="21">
@@ -9020,16 +8664,16 @@
       <c r="AF147" t="s">
         <v>102</v>
       </c>
-      <c r="AH147" s="81"/>
-      <c r="AI147" s="81"/>
-      <c r="AJ147" s="81"/>
-      <c r="AK147" s="81"/>
-      <c r="AL147" s="81"/>
-      <c r="AM147" s="81"/>
-      <c r="AN147" s="81"/>
+      <c r="AH147" s="78"/>
+      <c r="AI147" s="78"/>
+      <c r="AJ147" s="78"/>
+      <c r="AK147" s="78"/>
+      <c r="AL147" s="78"/>
+      <c r="AM147" s="78"/>
+      <c r="AN147" s="78"/>
     </row>
     <row r="148" spans="1:40" ht="15.75">
-      <c r="A148" s="82" t="s">
+      <c r="A148" s="79" t="s">
         <v>103</v>
       </c>
       <c r="B148" s="21"/>
@@ -9045,7 +8689,7 @@
       <c r="F148" s="21">
         <v>329216</v>
       </c>
-      <c r="G148" s="81"/>
+      <c r="G148" s="78"/>
       <c r="H148" s="22">
         <v>115136</v>
       </c>
@@ -9053,7 +8697,7 @@
         <f t="shared" si="27"/>
         <v>3.4570510748065351</v>
       </c>
-      <c r="J148" s="98">
+      <c r="J148" s="95">
         <v>75.900000000000006</v>
       </c>
       <c r="K148" s="22">
@@ -9065,7 +8709,7 @@
       <c r="M148" s="21"/>
       <c r="N148" s="22"/>
       <c r="O148" s="22"/>
-      <c r="P148" s="82" t="s">
+      <c r="P148" s="79" t="s">
         <v>103</v>
       </c>
       <c r="Q148" s="23">
@@ -9104,21 +8748,21 @@
       <c r="AB148" s="37">
         <v>9</v>
       </c>
-      <c r="AC148" s="81"/>
-      <c r="AD148" s="81"/>
-      <c r="AE148" s="81"/>
-      <c r="AF148" s="81"/>
-      <c r="AG148" s="81"/>
-      <c r="AH148" s="81"/>
-      <c r="AI148" s="81"/>
-      <c r="AJ148" s="81"/>
-      <c r="AK148" s="81"/>
-      <c r="AL148" s="81"/>
-      <c r="AM148" s="81"/>
-      <c r="AN148" s="81"/>
+      <c r="AC148" s="78"/>
+      <c r="AD148" s="78"/>
+      <c r="AE148" s="78"/>
+      <c r="AF148" s="78"/>
+      <c r="AG148" s="78"/>
+      <c r="AH148" s="78"/>
+      <c r="AI148" s="78"/>
+      <c r="AJ148" s="78"/>
+      <c r="AK148" s="78"/>
+      <c r="AL148" s="78"/>
+      <c r="AM148" s="78"/>
+      <c r="AN148" s="78"/>
     </row>
     <row r="149" spans="1:40" ht="15.75">
-      <c r="A149" s="82" t="s">
+      <c r="A149" s="79" t="s">
         <v>104</v>
       </c>
       <c r="B149" s="21"/>
@@ -9134,7 +8778,7 @@
       <c r="F149" s="21">
         <v>344570</v>
       </c>
-      <c r="G149" s="81"/>
+      <c r="G149" s="78"/>
       <c r="H149" s="22">
         <v>128508</v>
       </c>
@@ -9142,7 +8786,7 @@
         <f t="shared" si="27"/>
         <v>3.5364334687303032</v>
       </c>
-      <c r="J149" s="98">
+      <c r="J149" s="95">
         <v>75.7</v>
       </c>
       <c r="K149" s="22">
@@ -9154,7 +8798,7 @@
       <c r="M149" s="21"/>
       <c r="N149" s="22"/>
       <c r="O149" s="22"/>
-      <c r="P149" s="82" t="s">
+      <c r="P149" s="79" t="s">
         <v>104</v>
       </c>
       <c r="Q149" s="23">
@@ -9193,21 +8837,21 @@
       <c r="AB149" s="37">
         <v>9</v>
       </c>
-      <c r="AC149" s="81"/>
-      <c r="AD149" s="81"/>
-      <c r="AE149" s="81"/>
-      <c r="AF149" s="81"/>
-      <c r="AG149" s="81"/>
-      <c r="AH149" s="81"/>
-      <c r="AI149" s="81"/>
-      <c r="AJ149" s="81"/>
-      <c r="AK149" s="81"/>
-      <c r="AL149" s="81"/>
-      <c r="AM149" s="81"/>
-      <c r="AN149" s="81"/>
+      <c r="AC149" s="78"/>
+      <c r="AD149" s="78"/>
+      <c r="AE149" s="78"/>
+      <c r="AF149" s="78"/>
+      <c r="AG149" s="78"/>
+      <c r="AH149" s="78"/>
+      <c r="AI149" s="78"/>
+      <c r="AJ149" s="78"/>
+      <c r="AK149" s="78"/>
+      <c r="AL149" s="78"/>
+      <c r="AM149" s="78"/>
+      <c r="AN149" s="78"/>
     </row>
     <row r="150" spans="1:40" ht="15.75">
-      <c r="A150" s="82" t="s">
+      <c r="A150" s="79" t="s">
         <v>105</v>
       </c>
       <c r="B150" s="21"/>
@@ -9223,7 +8867,7 @@
       <c r="F150" s="22">
         <v>338530</v>
       </c>
-      <c r="G150" s="81"/>
+      <c r="G150" s="78"/>
       <c r="H150" s="22">
         <v>123209</v>
       </c>
@@ -9243,7 +8887,7 @@
       <c r="M150" s="21"/>
       <c r="N150" s="22"/>
       <c r="O150" s="22"/>
-      <c r="P150" s="82" t="s">
+      <c r="P150" s="79" t="s">
         <v>105</v>
       </c>
       <c r="Q150" s="23">
@@ -9282,21 +8926,21 @@
       <c r="AB150" s="37">
         <v>9</v>
       </c>
-      <c r="AC150" s="81"/>
-      <c r="AD150" s="81"/>
-      <c r="AE150" s="81"/>
-      <c r="AF150" s="81"/>
-      <c r="AG150" s="81"/>
-      <c r="AH150" s="81"/>
-      <c r="AI150" s="81"/>
-      <c r="AJ150" s="81"/>
-      <c r="AK150" s="81"/>
-      <c r="AL150" s="81"/>
-      <c r="AM150" s="81"/>
-      <c r="AN150" s="81"/>
+      <c r="AC150" s="78"/>
+      <c r="AD150" s="78"/>
+      <c r="AE150" s="78"/>
+      <c r="AF150" s="78"/>
+      <c r="AG150" s="78"/>
+      <c r="AH150" s="78"/>
+      <c r="AI150" s="78"/>
+      <c r="AJ150" s="78"/>
+      <c r="AK150" s="78"/>
+      <c r="AL150" s="78"/>
+      <c r="AM150" s="78"/>
+      <c r="AN150" s="78"/>
     </row>
     <row r="151" spans="1:40" ht="15.75">
-      <c r="A151" s="82" t="s">
+      <c r="A151" s="79" t="s">
         <v>106</v>
       </c>
       <c r="B151" s="21"/>
@@ -9312,7 +8956,7 @@
       <c r="F151" s="21">
         <v>217109</v>
       </c>
-      <c r="G151" s="81"/>
+      <c r="G151" s="78"/>
       <c r="H151" s="22">
         <v>54446</v>
       </c>
@@ -9320,7 +8964,7 @@
         <f t="shared" si="27"/>
         <v>3.235440710799268</v>
       </c>
-      <c r="J151" s="98">
+      <c r="J151" s="95">
         <v>79.099999999999994</v>
       </c>
       <c r="K151" s="27">
@@ -9332,7 +8976,7 @@
       <c r="M151" s="21"/>
       <c r="N151" s="22"/>
       <c r="O151" s="22"/>
-      <c r="P151" s="82" t="s">
+      <c r="P151" s="79" t="s">
         <v>106</v>
       </c>
       <c r="Q151" s="23">
@@ -9371,21 +9015,21 @@
       <c r="AB151" s="37">
         <v>15</v>
       </c>
-      <c r="AC151" s="81"/>
-      <c r="AD151" s="81"/>
-      <c r="AE151" s="81"/>
-      <c r="AF151" s="81"/>
-      <c r="AG151" s="81"/>
-      <c r="AH151" s="81"/>
-      <c r="AI151" s="81"/>
-      <c r="AJ151" s="81"/>
-      <c r="AK151" s="81"/>
-      <c r="AL151" s="81"/>
-      <c r="AM151" s="81"/>
-      <c r="AN151" s="81"/>
+      <c r="AC151" s="78"/>
+      <c r="AD151" s="78"/>
+      <c r="AE151" s="78"/>
+      <c r="AF151" s="78"/>
+      <c r="AG151" s="78"/>
+      <c r="AH151" s="78"/>
+      <c r="AI151" s="78"/>
+      <c r="AJ151" s="78"/>
+      <c r="AK151" s="78"/>
+      <c r="AL151" s="78"/>
+      <c r="AM151" s="78"/>
+      <c r="AN151" s="78"/>
     </row>
     <row r="152" spans="1:40" ht="15.75">
-      <c r="A152" s="82" t="s">
+      <c r="A152" s="79" t="s">
         <v>107</v>
       </c>
       <c r="B152" s="21"/>
@@ -9401,7 +9045,7 @@
       <c r="F152" s="21">
         <v>545390</v>
       </c>
-      <c r="G152" s="81"/>
+      <c r="G152" s="78"/>
       <c r="H152" s="22">
         <v>85002</v>
       </c>
@@ -9409,7 +9053,7 @@
         <f t="shared" si="27"/>
         <v>3.705809741283383</v>
       </c>
-      <c r="J152" s="98">
+      <c r="J152" s="95">
         <v>78</v>
       </c>
       <c r="K152" s="27">
@@ -9421,7 +9065,7 @@
       <c r="M152" s="21"/>
       <c r="N152" s="22"/>
       <c r="O152" s="22"/>
-      <c r="P152" s="82" t="s">
+      <c r="P152" s="79" t="s">
         <v>107</v>
       </c>
       <c r="Q152" s="23">
@@ -9460,21 +9104,21 @@
       <c r="AB152" s="37">
         <v>9</v>
       </c>
-      <c r="AC152" s="81"/>
-      <c r="AD152" s="81"/>
-      <c r="AE152" s="81"/>
-      <c r="AF152" s="81"/>
-      <c r="AG152" s="81"/>
-      <c r="AH152" s="81"/>
-      <c r="AI152" s="81"/>
-      <c r="AJ152" s="81"/>
-      <c r="AK152" s="81"/>
-      <c r="AL152" s="81"/>
-      <c r="AM152" s="81"/>
-      <c r="AN152" s="81"/>
+      <c r="AC152" s="78"/>
+      <c r="AD152" s="78"/>
+      <c r="AE152" s="78"/>
+      <c r="AF152" s="78"/>
+      <c r="AG152" s="78"/>
+      <c r="AH152" s="78"/>
+      <c r="AI152" s="78"/>
+      <c r="AJ152" s="78"/>
+      <c r="AK152" s="78"/>
+      <c r="AL152" s="78"/>
+      <c r="AM152" s="78"/>
+      <c r="AN152" s="78"/>
     </row>
     <row r="153" spans="1:40" ht="15.75">
-      <c r="A153" s="82" t="s">
+      <c r="A153" s="79" t="s">
         <v>108</v>
       </c>
       <c r="B153" s="21"/>
@@ -9490,7 +9134,7 @@
       <c r="F153" s="21">
         <v>221853</v>
       </c>
-      <c r="G153" s="81"/>
+      <c r="G153" s="78"/>
       <c r="H153" s="22">
         <v>80478</v>
       </c>
@@ -9498,7 +9142,7 @@
         <f t="shared" si="27"/>
         <v>3.2519060962192441</v>
       </c>
-      <c r="J153" s="98">
+      <c r="J153" s="95">
         <v>75.3</v>
       </c>
       <c r="K153" s="27">
@@ -9510,7 +9154,7 @@
       <c r="M153" s="21"/>
       <c r="N153" s="22"/>
       <c r="O153" s="22"/>
-      <c r="P153" s="82" t="s">
+      <c r="P153" s="79" t="s">
         <v>108</v>
       </c>
       <c r="Q153" s="23">
@@ -9546,24 +9190,24 @@
       <c r="AA153" s="30">
         <v>37882</v>
       </c>
-      <c r="AB153" s="104">
+      <c r="AB153" s="101">
         <v>15</v>
       </c>
-      <c r="AC153" s="81"/>
-      <c r="AD153" s="81"/>
-      <c r="AE153" s="81"/>
-      <c r="AF153" s="81"/>
-      <c r="AG153" s="81"/>
-      <c r="AH153" s="81"/>
-      <c r="AI153" s="81"/>
-      <c r="AJ153" s="81"/>
-      <c r="AK153" s="81"/>
-      <c r="AL153" s="81"/>
-      <c r="AM153" s="81"/>
-      <c r="AN153" s="81"/>
+      <c r="AC153" s="78"/>
+      <c r="AD153" s="78"/>
+      <c r="AE153" s="78"/>
+      <c r="AF153" s="78"/>
+      <c r="AG153" s="78"/>
+      <c r="AH153" s="78"/>
+      <c r="AI153" s="78"/>
+      <c r="AJ153" s="78"/>
+      <c r="AK153" s="78"/>
+      <c r="AL153" s="78"/>
+      <c r="AM153" s="78"/>
+      <c r="AN153" s="78"/>
     </row>
     <row r="154" spans="1:40" ht="15.75">
-      <c r="A154" s="82" t="s">
+      <c r="A154" s="79" t="s">
         <v>109</v>
       </c>
       <c r="B154" s="21"/>
@@ -9579,7 +9223,7 @@
       <c r="F154" s="21">
         <v>228057</v>
       </c>
-      <c r="G154" s="81"/>
+      <c r="G154" s="78"/>
       <c r="H154" s="22">
         <v>65451</v>
       </c>
@@ -9587,7 +9231,7 @@
         <f>(F154)*0.2931/(C154)</f>
         <v>3.2106972813295553</v>
       </c>
-      <c r="J154" s="98">
+      <c r="J154" s="95">
         <v>75.3</v>
       </c>
       <c r="K154" s="27">
@@ -9599,7 +9243,7 @@
       <c r="M154" s="21"/>
       <c r="N154" s="22"/>
       <c r="O154" s="22"/>
-      <c r="P154" s="82" t="s">
+      <c r="P154" s="79" t="s">
         <v>109</v>
       </c>
       <c r="Q154" s="23">
@@ -9638,21 +9282,21 @@
       <c r="AB154" s="37">
         <v>15</v>
       </c>
-      <c r="AC154" s="81"/>
-      <c r="AD154" s="81"/>
-      <c r="AE154" s="81"/>
-      <c r="AF154" s="81"/>
-      <c r="AG154" s="81"/>
-      <c r="AH154" s="81"/>
-      <c r="AI154" s="81"/>
-      <c r="AJ154" s="81"/>
-      <c r="AK154" s="81"/>
-      <c r="AL154" s="81"/>
-      <c r="AM154" s="81"/>
-      <c r="AN154" s="81"/>
+      <c r="AC154" s="78"/>
+      <c r="AD154" s="78"/>
+      <c r="AE154" s="78"/>
+      <c r="AF154" s="78"/>
+      <c r="AG154" s="78"/>
+      <c r="AH154" s="78"/>
+      <c r="AI154" s="78"/>
+      <c r="AJ154" s="78"/>
+      <c r="AK154" s="78"/>
+      <c r="AL154" s="78"/>
+      <c r="AM154" s="78"/>
+      <c r="AN154" s="78"/>
     </row>
     <row r="155" spans="1:40" ht="15.75">
-      <c r="A155" s="82" t="s">
+      <c r="A155" s="79" t="s">
         <v>110</v>
       </c>
       <c r="B155" s="21"/>
@@ -9668,7 +9312,7 @@
       <c r="F155" s="21">
         <v>241836</v>
       </c>
-      <c r="G155" s="81"/>
+      <c r="G155" s="78"/>
       <c r="H155" s="22">
         <v>69157</v>
       </c>
@@ -9676,7 +9320,7 @@
         <f t="shared" si="27"/>
         <v>3.2175275351793013</v>
       </c>
-      <c r="J155" s="98">
+      <c r="J155" s="95">
         <v>75.3</v>
       </c>
       <c r="K155" s="27">
@@ -9688,7 +9332,7 @@
       <c r="M155" s="21"/>
       <c r="N155" s="22"/>
       <c r="O155" s="22"/>
-      <c r="P155" s="82" t="s">
+      <c r="P155" s="79" t="s">
         <v>110</v>
       </c>
       <c r="Q155" s="23">
@@ -9727,21 +9371,21 @@
       <c r="AB155" s="37">
         <v>15</v>
       </c>
-      <c r="AC155" s="81"/>
-      <c r="AD155" s="81"/>
-      <c r="AE155" s="81"/>
-      <c r="AF155" s="81"/>
-      <c r="AG155" s="81"/>
-      <c r="AH155" s="81"/>
-      <c r="AI155" s="81"/>
-      <c r="AJ155" s="81"/>
-      <c r="AK155" s="81"/>
-      <c r="AL155" s="81"/>
-      <c r="AM155" s="81"/>
-      <c r="AN155" s="81"/>
+      <c r="AC155" s="78"/>
+      <c r="AD155" s="78"/>
+      <c r="AE155" s="78"/>
+      <c r="AF155" s="78"/>
+      <c r="AG155" s="78"/>
+      <c r="AH155" s="78"/>
+      <c r="AI155" s="78"/>
+      <c r="AJ155" s="78"/>
+      <c r="AK155" s="78"/>
+      <c r="AL155" s="78"/>
+      <c r="AM155" s="78"/>
+      <c r="AN155" s="78"/>
     </row>
     <row r="156" spans="1:40" ht="15.75">
-      <c r="A156" s="82" t="s">
+      <c r="A156" s="79" t="s">
         <v>111</v>
       </c>
       <c r="B156" s="21"/>
@@ -9757,7 +9401,7 @@
       <c r="F156" s="21">
         <v>229339</v>
       </c>
-      <c r="G156" s="81"/>
+      <c r="G156" s="78"/>
       <c r="H156" s="22">
         <v>67435</v>
       </c>
@@ -9765,7 +9409,7 @@
         <f t="shared" si="27"/>
         <v>3.2114691557976212</v>
       </c>
-      <c r="J156" s="98">
+      <c r="J156" s="95">
         <v>75.3</v>
       </c>
       <c r="K156" s="27">
@@ -9777,7 +9421,7 @@
       <c r="M156" s="21"/>
       <c r="N156" s="22"/>
       <c r="O156" s="22"/>
-      <c r="P156" s="82" t="s">
+      <c r="P156" s="79" t="s">
         <v>111</v>
       </c>
       <c r="Q156" s="23">
@@ -9816,21 +9460,21 @@
       <c r="AB156" s="37">
         <v>15</v>
       </c>
-      <c r="AC156" s="81"/>
-      <c r="AD156" s="81"/>
-      <c r="AE156" s="81"/>
-      <c r="AF156" s="81"/>
-      <c r="AG156" s="81"/>
-      <c r="AH156" s="81"/>
-      <c r="AI156" s="81"/>
-      <c r="AJ156" s="81"/>
-      <c r="AK156" s="81"/>
-      <c r="AL156" s="81"/>
-      <c r="AM156" s="81"/>
-      <c r="AN156" s="81"/>
+      <c r="AC156" s="78"/>
+      <c r="AD156" s="78"/>
+      <c r="AE156" s="78"/>
+      <c r="AF156" s="78"/>
+      <c r="AG156" s="78"/>
+      <c r="AH156" s="78"/>
+      <c r="AI156" s="78"/>
+      <c r="AJ156" s="78"/>
+      <c r="AK156" s="78"/>
+      <c r="AL156" s="78"/>
+      <c r="AM156" s="78"/>
+      <c r="AN156" s="78"/>
     </row>
     <row r="157" spans="1:40" ht="15.75">
-      <c r="A157" s="82" t="s">
+      <c r="A157" s="79" t="s">
         <v>112</v>
       </c>
       <c r="B157" s="21"/>
@@ -9846,7 +9490,7 @@
       <c r="F157" s="21">
         <v>242856</v>
       </c>
-      <c r="G157" s="81"/>
+      <c r="G157" s="78"/>
       <c r="H157" s="22">
         <v>70587</v>
       </c>
@@ -9854,7 +9498,7 @@
         <f>(F157)*0.2931/(C157)</f>
         <v>3.2218844701941793</v>
       </c>
-      <c r="J157" s="98">
+      <c r="J157" s="95">
         <v>75.3</v>
       </c>
       <c r="K157" s="27">
@@ -9866,7 +9510,7 @@
       <c r="M157" s="21"/>
       <c r="N157" s="22"/>
       <c r="O157" s="22"/>
-      <c r="P157" s="82" t="s">
+      <c r="P157" s="79" t="s">
         <v>112</v>
       </c>
       <c r="Q157" s="23">
@@ -9905,21 +9549,21 @@
       <c r="AB157" s="37">
         <v>15</v>
       </c>
-      <c r="AC157" s="81"/>
-      <c r="AD157" s="81"/>
-      <c r="AE157" s="81"/>
-      <c r="AF157" s="81"/>
-      <c r="AG157" s="81"/>
-      <c r="AH157" s="81"/>
-      <c r="AI157" s="81"/>
-      <c r="AJ157" s="81"/>
-      <c r="AK157" s="81"/>
-      <c r="AL157" s="81"/>
-      <c r="AM157" s="81"/>
-      <c r="AN157" s="81"/>
+      <c r="AC157" s="78"/>
+      <c r="AD157" s="78"/>
+      <c r="AE157" s="78"/>
+      <c r="AF157" s="78"/>
+      <c r="AG157" s="78"/>
+      <c r="AH157" s="78"/>
+      <c r="AI157" s="78"/>
+      <c r="AJ157" s="78"/>
+      <c r="AK157" s="78"/>
+      <c r="AL157" s="78"/>
+      <c r="AM157" s="78"/>
+      <c r="AN157" s="78"/>
     </row>
     <row r="158" spans="1:40" ht="15.75">
-      <c r="A158" s="82" t="s">
+      <c r="A158" s="79" t="s">
         <v>113</v>
       </c>
       <c r="B158" s="21"/>
@@ -9935,7 +9579,7 @@
       <c r="F158" s="21">
         <v>225153</v>
       </c>
-      <c r="G158" s="81"/>
+      <c r="G158" s="78"/>
       <c r="H158" s="22">
         <v>62594</v>
       </c>
@@ -9943,15 +9587,15 @@
         <f t="shared" si="27"/>
         <v>3.2265361707329006</v>
       </c>
-      <c r="J158" s="98">
+      <c r="J158" s="95">
         <v>69</v>
       </c>
-      <c r="K158" s="105"/>
-      <c r="L158" s="106"/>
+      <c r="K158" s="102"/>
+      <c r="L158" s="103"/>
       <c r="M158" s="21"/>
       <c r="N158" s="22"/>
       <c r="O158" s="22"/>
-      <c r="P158" s="82" t="s">
+      <c r="P158" s="79" t="s">
         <v>114</v>
       </c>
       <c r="Q158" s="23">
@@ -9987,24 +9631,24 @@
       <c r="AA158" s="30">
         <v>37119</v>
       </c>
-      <c r="AB158" s="104">
+      <c r="AB158" s="101">
         <v>16</v>
       </c>
-      <c r="AC158" s="81"/>
-      <c r="AD158" s="81"/>
-      <c r="AE158" s="81"/>
-      <c r="AF158" s="81"/>
-      <c r="AG158" s="81"/>
-      <c r="AH158" s="81"/>
-      <c r="AI158" s="81"/>
-      <c r="AJ158" s="81"/>
-      <c r="AK158" s="81"/>
-      <c r="AL158" s="81"/>
-      <c r="AM158" s="81"/>
-      <c r="AN158" s="81"/>
+      <c r="AC158" s="78"/>
+      <c r="AD158" s="78"/>
+      <c r="AE158" s="78"/>
+      <c r="AF158" s="78"/>
+      <c r="AG158" s="78"/>
+      <c r="AH158" s="78"/>
+      <c r="AI158" s="78"/>
+      <c r="AJ158" s="78"/>
+      <c r="AK158" s="78"/>
+      <c r="AL158" s="78"/>
+      <c r="AM158" s="78"/>
+      <c r="AN158" s="78"/>
     </row>
     <row r="159" spans="1:40" ht="15.75">
-      <c r="A159" s="82" t="s">
+      <c r="A159" s="79" t="s">
         <v>115</v>
       </c>
       <c r="B159" s="21"/>
@@ -10020,7 +9664,7 @@
       <c r="F159" s="21">
         <v>172946</v>
       </c>
-      <c r="G159" s="81"/>
+      <c r="G159" s="78"/>
       <c r="H159" s="22">
         <v>48097</v>
       </c>
@@ -10028,7 +9672,7 @@
         <f>(F159)*0.2931/(C159)</f>
         <v>3.1616336680596273</v>
       </c>
-      <c r="J159" s="98">
+      <c r="J159" s="95">
         <v>77</v>
       </c>
       <c r="K159" s="22">
@@ -10037,10 +9681,10 @@
       <c r="L159" s="26">
         <v>57.47</v>
       </c>
-      <c r="M159" s="107"/>
-      <c r="N159" s="108"/>
-      <c r="O159" s="108"/>
-      <c r="P159" s="82" t="s">
+      <c r="M159" s="104"/>
+      <c r="N159" s="105"/>
+      <c r="O159" s="105"/>
+      <c r="P159" s="79" t="s">
         <v>116</v>
       </c>
       <c r="Q159" s="23">
@@ -10076,24 +9720,24 @@
       <c r="AA159" s="30">
         <v>37092</v>
       </c>
-      <c r="AB159" s="104">
+      <c r="AB159" s="101">
         <v>15</v>
       </c>
-      <c r="AC159" s="81"/>
-      <c r="AD159" s="81"/>
-      <c r="AE159" s="81"/>
-      <c r="AF159" s="81"/>
-      <c r="AG159" s="81"/>
-      <c r="AH159" s="81"/>
-      <c r="AI159" s="81"/>
-      <c r="AJ159" s="81"/>
-      <c r="AK159" s="81"/>
-      <c r="AL159" s="81"/>
-      <c r="AM159" s="81"/>
-      <c r="AN159" s="81"/>
+      <c r="AC159" s="78"/>
+      <c r="AD159" s="78"/>
+      <c r="AE159" s="78"/>
+      <c r="AF159" s="78"/>
+      <c r="AG159" s="78"/>
+      <c r="AH159" s="78"/>
+      <c r="AI159" s="78"/>
+      <c r="AJ159" s="78"/>
+      <c r="AK159" s="78"/>
+      <c r="AL159" s="78"/>
+      <c r="AM159" s="78"/>
+      <c r="AN159" s="78"/>
     </row>
     <row r="160" spans="1:40" ht="15.75">
-      <c r="A160" s="82" t="s">
+      <c r="A160" s="79" t="s">
         <v>117</v>
       </c>
       <c r="B160" s="21"/>
@@ -10109,7 +9753,7 @@
       <c r="F160" s="21">
         <v>388998</v>
       </c>
-      <c r="G160" s="81"/>
+      <c r="G160" s="78"/>
       <c r="H160" s="22">
         <v>108196</v>
       </c>
@@ -10117,7 +9761,7 @@
         <f t="shared" si="27"/>
         <v>3.5773999497976217</v>
       </c>
-      <c r="J160" s="98">
+      <c r="J160" s="95">
         <v>77.2</v>
       </c>
       <c r="K160" s="22">
@@ -10126,10 +9770,10 @@
       <c r="L160" s="26">
         <v>57.36</v>
       </c>
-      <c r="M160" s="107"/>
-      <c r="N160" s="108"/>
-      <c r="O160" s="108"/>
-      <c r="P160" s="82" t="s">
+      <c r="M160" s="104"/>
+      <c r="N160" s="105"/>
+      <c r="O160" s="105"/>
+      <c r="P160" s="79" t="s">
         <v>118</v>
       </c>
       <c r="Q160" s="23">
@@ -10168,21 +9812,21 @@
       <c r="AB160" s="37">
         <v>16</v>
       </c>
-      <c r="AC160" s="81"/>
-      <c r="AD160" s="81"/>
-      <c r="AE160" s="81"/>
-      <c r="AF160" s="81"/>
-      <c r="AG160" s="81"/>
-      <c r="AH160" s="81"/>
-      <c r="AI160" s="81"/>
-      <c r="AJ160" s="81"/>
-      <c r="AK160" s="81"/>
-      <c r="AL160" s="81"/>
-      <c r="AM160" s="81"/>
-      <c r="AN160" s="81"/>
+      <c r="AC160" s="78"/>
+      <c r="AD160" s="78"/>
+      <c r="AE160" s="78"/>
+      <c r="AF160" s="78"/>
+      <c r="AG160" s="78"/>
+      <c r="AH160" s="78"/>
+      <c r="AI160" s="78"/>
+      <c r="AJ160" s="78"/>
+      <c r="AK160" s="78"/>
+      <c r="AL160" s="78"/>
+      <c r="AM160" s="78"/>
+      <c r="AN160" s="78"/>
     </row>
     <row r="161" spans="1:41" ht="15.75">
-      <c r="A161" s="82" t="s">
+      <c r="A161" s="79" t="s">
         <v>118</v>
       </c>
       <c r="B161" s="21"/>
@@ -10198,7 +9842,7 @@
       <c r="F161" s="21">
         <v>227108</v>
       </c>
-      <c r="G161" s="81"/>
+      <c r="G161" s="78"/>
       <c r="H161" s="22">
         <v>63015</v>
       </c>
@@ -10206,15 +9850,15 @@
         <f>(F161)*0.2931/(C161)</f>
         <v>2.9559640658999067</v>
       </c>
-      <c r="J161" s="98">
+      <c r="J161" s="95">
         <v>56.7</v>
       </c>
-      <c r="K161" s="108"/>
-      <c r="L161" s="106"/>
-      <c r="M161" s="107"/>
-      <c r="N161" s="108"/>
-      <c r="O161" s="108"/>
-      <c r="P161" s="82" t="s">
+      <c r="K161" s="105"/>
+      <c r="L161" s="103"/>
+      <c r="M161" s="104"/>
+      <c r="N161" s="105"/>
+      <c r="O161" s="105"/>
+      <c r="P161" s="79" t="s">
         <v>119</v>
       </c>
       <c r="Q161" s="23">
@@ -10253,21 +9897,21 @@
       <c r="AB161" s="37">
         <v>16</v>
       </c>
-      <c r="AC161" s="81"/>
-      <c r="AD161" s="81"/>
-      <c r="AE161" s="81"/>
-      <c r="AF161" s="81"/>
-      <c r="AG161" s="81"/>
-      <c r="AH161" s="81"/>
-      <c r="AI161" s="81"/>
-      <c r="AJ161" s="81"/>
-      <c r="AK161" s="81"/>
-      <c r="AL161" s="81"/>
-      <c r="AM161" s="81"/>
-      <c r="AN161" s="81"/>
+      <c r="AC161" s="78"/>
+      <c r="AD161" s="78"/>
+      <c r="AE161" s="78"/>
+      <c r="AF161" s="78"/>
+      <c r="AG161" s="78"/>
+      <c r="AH161" s="78"/>
+      <c r="AI161" s="78"/>
+      <c r="AJ161" s="78"/>
+      <c r="AK161" s="78"/>
+      <c r="AL161" s="78"/>
+      <c r="AM161" s="78"/>
+      <c r="AN161" s="78"/>
     </row>
     <row r="162" spans="1:41" ht="15.75">
-      <c r="A162" s="82" t="s">
+      <c r="A162" s="79" t="s">
         <v>119</v>
       </c>
       <c r="B162" s="21"/>
@@ -10283,7 +9927,7 @@
       <c r="F162" s="21">
         <v>226448</v>
       </c>
-      <c r="G162" s="81"/>
+      <c r="G162" s="78"/>
       <c r="H162" s="22">
         <v>62813</v>
       </c>
@@ -10291,15 +9935,15 @@
         <f t="shared" si="27"/>
         <v>3.072773555555556</v>
       </c>
-      <c r="J162" s="98">
+      <c r="J162" s="95">
         <v>63</v>
       </c>
-      <c r="K162" s="108"/>
-      <c r="L162" s="106"/>
-      <c r="M162" s="107"/>
-      <c r="N162" s="108"/>
-      <c r="O162" s="108"/>
-      <c r="P162" s="82" t="s">
+      <c r="K162" s="105"/>
+      <c r="L162" s="103"/>
+      <c r="M162" s="104"/>
+      <c r="N162" s="105"/>
+      <c r="O162" s="105"/>
+      <c r="P162" s="79" t="s">
         <v>120</v>
       </c>
       <c r="Q162" s="23">
@@ -10338,21 +9982,21 @@
       <c r="AB162" s="37">
         <v>16</v>
       </c>
-      <c r="AC162" s="81"/>
-      <c r="AD162" s="81"/>
-      <c r="AE162" s="81"/>
-      <c r="AF162" s="81"/>
-      <c r="AG162" s="81"/>
-      <c r="AH162" s="81"/>
-      <c r="AI162" s="81"/>
-      <c r="AJ162" s="81"/>
-      <c r="AK162" s="81"/>
-      <c r="AL162" s="81"/>
-      <c r="AM162" s="81"/>
-      <c r="AN162" s="81"/>
+      <c r="AC162" s="78"/>
+      <c r="AD162" s="78"/>
+      <c r="AE162" s="78"/>
+      <c r="AF162" s="78"/>
+      <c r="AG162" s="78"/>
+      <c r="AH162" s="78"/>
+      <c r="AI162" s="78"/>
+      <c r="AJ162" s="78"/>
+      <c r="AK162" s="78"/>
+      <c r="AL162" s="78"/>
+      <c r="AM162" s="78"/>
+      <c r="AN162" s="78"/>
     </row>
     <row r="163" spans="1:41" ht="15.75">
-      <c r="A163" s="82" t="s">
+      <c r="A163" s="79" t="s">
         <v>120</v>
       </c>
       <c r="B163" s="21"/>
@@ -10368,7 +10012,7 @@
       <c r="F163" s="21">
         <v>223115</v>
       </c>
-      <c r="G163" s="81"/>
+      <c r="G163" s="78"/>
       <c r="H163" s="22">
         <v>62032</v>
       </c>
@@ -10376,15 +10020,15 @@
         <f t="shared" si="27"/>
         <v>3.5279999190763922</v>
       </c>
-      <c r="J163" s="98">
+      <c r="J163" s="95">
         <v>81.099999999999994</v>
       </c>
-      <c r="K163" s="108"/>
-      <c r="L163" s="106"/>
-      <c r="M163" s="107"/>
-      <c r="N163" s="108"/>
-      <c r="O163" s="108"/>
-      <c r="P163" s="82" t="s">
+      <c r="K163" s="105"/>
+      <c r="L163" s="103"/>
+      <c r="M163" s="104"/>
+      <c r="N163" s="105"/>
+      <c r="O163" s="105"/>
+      <c r="P163" s="79" t="s">
         <v>121</v>
       </c>
       <c r="Q163" s="23">
@@ -10419,21 +10063,21 @@
       <c r="AB163" s="22">
         <v>16</v>
       </c>
-      <c r="AC163" s="81"/>
-      <c r="AD163" s="81"/>
-      <c r="AE163" s="81"/>
-      <c r="AF163" s="81"/>
-      <c r="AG163" s="81"/>
-      <c r="AH163" s="81"/>
-      <c r="AI163" s="81"/>
-      <c r="AJ163" s="81"/>
-      <c r="AK163" s="81"/>
-      <c r="AL163" s="81"/>
-      <c r="AM163" s="81"/>
-      <c r="AN163" s="81"/>
+      <c r="AC163" s="78"/>
+      <c r="AD163" s="78"/>
+      <c r="AE163" s="78"/>
+      <c r="AF163" s="78"/>
+      <c r="AG163" s="78"/>
+      <c r="AH163" s="78"/>
+      <c r="AI163" s="78"/>
+      <c r="AJ163" s="78"/>
+      <c r="AK163" s="78"/>
+      <c r="AL163" s="78"/>
+      <c r="AM163" s="78"/>
+      <c r="AN163" s="78"/>
     </row>
     <row r="164" spans="1:41" ht="15.75">
-      <c r="A164" s="82" t="s">
+      <c r="A164" s="79" t="s">
         <v>121</v>
       </c>
       <c r="B164" s="21"/>
@@ -10449,7 +10093,7 @@
       <c r="F164" s="21">
         <v>159095</v>
       </c>
-      <c r="G164" s="81"/>
+      <c r="G164" s="78"/>
       <c r="H164" s="22">
         <v>207</v>
       </c>
@@ -10457,15 +10101,15 @@
         <f t="shared" si="27"/>
         <v>2.969354591186959</v>
       </c>
-      <c r="J164" s="98">
+      <c r="J164" s="95">
         <v>69</v>
       </c>
-      <c r="K164" s="108"/>
-      <c r="L164" s="106"/>
-      <c r="M164" s="107"/>
-      <c r="N164" s="108"/>
-      <c r="O164" s="108"/>
-      <c r="P164" s="82" t="s">
+      <c r="K164" s="105"/>
+      <c r="L164" s="103"/>
+      <c r="M164" s="104"/>
+      <c r="N164" s="105"/>
+      <c r="O164" s="105"/>
+      <c r="P164" s="79" t="s">
         <v>122</v>
       </c>
       <c r="Q164" s="23">
@@ -10500,21 +10144,21 @@
       <c r="AB164" s="22">
         <v>16</v>
       </c>
-      <c r="AC164" s="81"/>
-      <c r="AD164" s="81"/>
-      <c r="AE164" s="81"/>
-      <c r="AF164" s="81"/>
-      <c r="AG164" s="81"/>
-      <c r="AH164" s="81"/>
-      <c r="AI164" s="81"/>
-      <c r="AJ164" s="81"/>
-      <c r="AK164" s="81"/>
-      <c r="AL164" s="81"/>
-      <c r="AM164" s="81"/>
-      <c r="AN164" s="81"/>
+      <c r="AC164" s="78"/>
+      <c r="AD164" s="78"/>
+      <c r="AE164" s="78"/>
+      <c r="AF164" s="78"/>
+      <c r="AG164" s="78"/>
+      <c r="AH164" s="78"/>
+      <c r="AI164" s="78"/>
+      <c r="AJ164" s="78"/>
+      <c r="AK164" s="78"/>
+      <c r="AL164" s="78"/>
+      <c r="AM164" s="78"/>
+      <c r="AN164" s="78"/>
     </row>
     <row r="165" spans="1:41" ht="15.75">
-      <c r="A165" s="82" t="s">
+      <c r="A165" s="79" t="s">
         <v>122</v>
       </c>
       <c r="B165" s="21"/>
@@ -10530,7 +10174,7 @@
       <c r="F165" s="21">
         <v>160785</v>
       </c>
-      <c r="G165" s="81"/>
+      <c r="G165" s="78"/>
       <c r="H165" s="22">
         <v>365</v>
       </c>
@@ -10538,15 +10182,15 @@
         <f t="shared" si="27"/>
         <v>2.6751863930517716</v>
       </c>
-      <c r="J165" s="98">
+      <c r="J165" s="95">
         <v>56.7</v>
       </c>
-      <c r="K165" s="108"/>
-      <c r="L165" s="106"/>
-      <c r="M165" s="107"/>
-      <c r="N165" s="108"/>
-      <c r="O165" s="108"/>
-      <c r="P165" s="83" t="s">
+      <c r="K165" s="105"/>
+      <c r="L165" s="103"/>
+      <c r="M165" s="104"/>
+      <c r="N165" s="105"/>
+      <c r="O165" s="105"/>
+      <c r="P165" s="80" t="s">
         <v>123</v>
       </c>
       <c r="Q165" s="42">
@@ -10581,21 +10225,21 @@
       <c r="AB165" s="40">
         <v>16</v>
       </c>
-      <c r="AC165" s="81"/>
-      <c r="AD165" s="81"/>
-      <c r="AE165" s="81"/>
-      <c r="AF165" s="81"/>
-      <c r="AG165" s="81"/>
-      <c r="AH165" s="81"/>
-      <c r="AI165" s="81"/>
-      <c r="AJ165" s="81"/>
-      <c r="AK165" s="81"/>
-      <c r="AL165" s="81"/>
-      <c r="AM165" s="81"/>
-      <c r="AN165" s="81"/>
+      <c r="AC165" s="78"/>
+      <c r="AD165" s="78"/>
+      <c r="AE165" s="78"/>
+      <c r="AF165" s="78"/>
+      <c r="AG165" s="78"/>
+      <c r="AH165" s="78"/>
+      <c r="AI165" s="78"/>
+      <c r="AJ165" s="78"/>
+      <c r="AK165" s="78"/>
+      <c r="AL165" s="78"/>
+      <c r="AM165" s="78"/>
+      <c r="AN165" s="78"/>
     </row>
     <row r="166" spans="1:41" ht="15.75">
-      <c r="A166" s="83" t="s">
+      <c r="A166" s="80" t="s">
         <v>123</v>
       </c>
       <c r="B166" s="41"/>
@@ -10611,7 +10255,7 @@
       <c r="F166" s="41">
         <v>157748</v>
       </c>
-      <c r="G166" s="81"/>
+      <c r="G166" s="78"/>
       <c r="H166" s="39">
         <v>87</v>
       </c>
@@ -10619,326 +10263,326 @@
         <f t="shared" si="27"/>
         <v>3.2355450524842548</v>
       </c>
-      <c r="J166" s="109">
+      <c r="J166" s="106">
         <v>81.099999999999994</v>
       </c>
-      <c r="K166" s="110"/>
-      <c r="L166" s="111"/>
-      <c r="M166" s="107"/>
-      <c r="N166" s="108"/>
-      <c r="O166" s="108"/>
-      <c r="P166" s="81"/>
-      <c r="Q166" s="81"/>
-      <c r="R166" s="81"/>
-      <c r="S166" s="81"/>
-      <c r="T166" s="81"/>
-      <c r="U166" s="81"/>
-      <c r="V166" s="81"/>
-      <c r="W166" s="81"/>
-      <c r="X166" s="81"/>
-      <c r="Y166" s="81"/>
-      <c r="Z166" s="81"/>
-      <c r="AA166" s="81"/>
-      <c r="AB166" s="81"/>
-      <c r="AC166" s="81"/>
-      <c r="AD166" s="81"/>
-      <c r="AE166" s="81"/>
-      <c r="AF166" s="81"/>
-      <c r="AG166" s="81"/>
-      <c r="AH166" s="81"/>
-      <c r="AI166" s="81"/>
-      <c r="AJ166" s="81"/>
-      <c r="AK166" s="81"/>
-      <c r="AL166" s="81"/>
-      <c r="AM166" s="81"/>
-      <c r="AN166" s="81"/>
+      <c r="K166" s="107"/>
+      <c r="L166" s="108"/>
+      <c r="M166" s="104"/>
+      <c r="N166" s="105"/>
+      <c r="O166" s="105"/>
+      <c r="P166" s="78"/>
+      <c r="Q166" s="78"/>
+      <c r="R166" s="78"/>
+      <c r="S166" s="78"/>
+      <c r="T166" s="78"/>
+      <c r="U166" s="78"/>
+      <c r="V166" s="78"/>
+      <c r="W166" s="78"/>
+      <c r="X166" s="78"/>
+      <c r="Y166" s="78"/>
+      <c r="Z166" s="78"/>
+      <c r="AA166" s="78"/>
+      <c r="AB166" s="78"/>
+      <c r="AC166" s="78"/>
+      <c r="AD166" s="78"/>
+      <c r="AE166" s="78"/>
+      <c r="AF166" s="78"/>
+      <c r="AG166" s="78"/>
+      <c r="AH166" s="78"/>
+      <c r="AI166" s="78"/>
+      <c r="AJ166" s="78"/>
+      <c r="AK166" s="78"/>
+      <c r="AL166" s="78"/>
+      <c r="AM166" s="78"/>
+      <c r="AN166" s="78"/>
     </row>
     <row r="167" spans="1:41" ht="15.75">
-      <c r="A167" s="81"/>
-      <c r="B167" s="81"/>
-      <c r="C167" s="81"/>
-      <c r="D167" s="81"/>
-      <c r="E167" s="81"/>
-      <c r="F167" s="81"/>
-      <c r="G167" s="81"/>
-      <c r="H167" s="81"/>
-      <c r="I167" s="81"/>
-      <c r="J167" s="81"/>
-      <c r="K167" s="81"/>
-      <c r="L167" s="81"/>
+      <c r="A167" s="78"/>
+      <c r="B167" s="78"/>
+      <c r="C167" s="78"/>
+      <c r="D167" s="78"/>
+      <c r="E167" s="78"/>
+      <c r="F167" s="78"/>
+      <c r="G167" s="78"/>
+      <c r="H167" s="78"/>
+      <c r="I167" s="78"/>
+      <c r="J167" s="78"/>
+      <c r="K167" s="78"/>
+      <c r="L167" s="78"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
-      <c r="P167" s="81"/>
-      <c r="Q167" s="81"/>
-      <c r="R167" s="81"/>
-      <c r="S167" s="81"/>
-      <c r="T167" s="81"/>
-      <c r="U167" s="81"/>
-      <c r="V167" s="81"/>
-      <c r="W167" s="81"/>
-      <c r="X167" s="81"/>
-      <c r="Y167" s="81"/>
-      <c r="Z167" s="81"/>
-      <c r="AA167" s="81"/>
-      <c r="AB167" s="81"/>
-      <c r="AC167" s="81"/>
-      <c r="AD167" s="81"/>
-      <c r="AE167" s="81"/>
-      <c r="AF167" s="81"/>
-      <c r="AG167" s="81"/>
-      <c r="AH167" s="81"/>
-      <c r="AI167" s="81"/>
-      <c r="AJ167" s="81"/>
-      <c r="AK167" s="81"/>
-      <c r="AL167" s="81"/>
-      <c r="AM167" s="81"/>
-      <c r="AN167" s="81"/>
+      <c r="P167" s="78"/>
+      <c r="Q167" s="78"/>
+      <c r="R167" s="78"/>
+      <c r="S167" s="78"/>
+      <c r="T167" s="78"/>
+      <c r="U167" s="78"/>
+      <c r="V167" s="78"/>
+      <c r="W167" s="78"/>
+      <c r="X167" s="78"/>
+      <c r="Y167" s="78"/>
+      <c r="Z167" s="78"/>
+      <c r="AA167" s="78"/>
+      <c r="AB167" s="78"/>
+      <c r="AC167" s="78"/>
+      <c r="AD167" s="78"/>
+      <c r="AE167" s="78"/>
+      <c r="AF167" s="78"/>
+      <c r="AG167" s="78"/>
+      <c r="AH167" s="78"/>
+      <c r="AI167" s="78"/>
+      <c r="AJ167" s="78"/>
+      <c r="AK167" s="78"/>
+      <c r="AL167" s="78"/>
+      <c r="AM167" s="78"/>
+      <c r="AN167" s="78"/>
     </row>
     <row r="168" spans="1:41" ht="15.75">
-      <c r="A168" s="75"/>
-      <c r="B168" s="75"/>
-      <c r="C168" s="76"/>
-      <c r="D168" s="76"/>
-      <c r="E168" s="76" t="s">
+      <c r="A168" s="72"/>
+      <c r="B168" s="72"/>
+      <c r="C168" s="73"/>
+      <c r="D168" s="73"/>
+      <c r="E168" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="F168" s="76"/>
-      <c r="G168" s="76"/>
-      <c r="H168" s="76"/>
-      <c r="I168" s="76"/>
-      <c r="J168" s="76"/>
-      <c r="K168" s="76"/>
-      <c r="L168" s="77"/>
+      <c r="F168" s="73"/>
+      <c r="G168" s="73"/>
+      <c r="H168" s="73"/>
+      <c r="I168" s="73"/>
+      <c r="J168" s="73"/>
+      <c r="K168" s="73"/>
+      <c r="L168" s="74"/>
       <c r="M168" s="35" t="s">
         <v>125</v>
       </c>
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
-      <c r="P168" s="75"/>
-      <c r="Q168" s="75"/>
-      <c r="R168" s="76"/>
-      <c r="S168" s="76"/>
-      <c r="T168" s="76" t="s">
+      <c r="P168" s="72"/>
+      <c r="Q168" s="72"/>
+      <c r="R168" s="73"/>
+      <c r="S168" s="73"/>
+      <c r="T168" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="U168" s="76"/>
-      <c r="V168" s="76"/>
-      <c r="W168" s="76"/>
-      <c r="X168" s="76"/>
-      <c r="Y168" s="76"/>
-      <c r="Z168" s="76"/>
-      <c r="AA168" s="76"/>
-      <c r="AB168" s="76"/>
-      <c r="AC168" s="76"/>
-      <c r="AD168" s="76"/>
-      <c r="AE168" s="76"/>
-      <c r="AF168" s="76"/>
-      <c r="AG168" s="76"/>
-      <c r="AH168" s="76"/>
-      <c r="AI168" s="76"/>
-      <c r="AJ168" s="76"/>
-      <c r="AK168" s="76"/>
-      <c r="AL168" s="76"/>
-      <c r="AM168" s="76"/>
-      <c r="AN168" s="77"/>
+      <c r="U168" s="73"/>
+      <c r="V168" s="73"/>
+      <c r="W168" s="73"/>
+      <c r="X168" s="73"/>
+      <c r="Y168" s="73"/>
+      <c r="Z168" s="73"/>
+      <c r="AA168" s="73"/>
+      <c r="AB168" s="73"/>
+      <c r="AC168" s="73"/>
+      <c r="AD168" s="73"/>
+      <c r="AE168" s="73"/>
+      <c r="AF168" s="73"/>
+      <c r="AG168" s="73"/>
+      <c r="AH168" s="73"/>
+      <c r="AI168" s="73"/>
+      <c r="AJ168" s="73"/>
+      <c r="AK168" s="73"/>
+      <c r="AL168" s="73"/>
+      <c r="AM168" s="73"/>
+      <c r="AN168" s="74"/>
     </row>
     <row r="169" spans="1:41" ht="15.75">
-      <c r="A169" s="82"/>
-      <c r="B169" s="83"/>
-      <c r="C169" s="84"/>
-      <c r="D169" s="84"/>
-      <c r="E169" s="84"/>
-      <c r="F169" s="84"/>
-      <c r="G169" s="84"/>
-      <c r="H169" s="84"/>
-      <c r="I169" s="84"/>
-      <c r="J169" s="84"/>
-      <c r="K169" s="84"/>
-      <c r="L169" s="85"/>
+      <c r="A169" s="79"/>
+      <c r="B169" s="80"/>
+      <c r="C169" s="81"/>
+      <c r="D169" s="81"/>
+      <c r="E169" s="81"/>
+      <c r="F169" s="81"/>
+      <c r="G169" s="81"/>
+      <c r="H169" s="81"/>
+      <c r="I169" s="81"/>
+      <c r="J169" s="81"/>
+      <c r="K169" s="81"/>
+      <c r="L169" s="82"/>
       <c r="M169" s="35" t="s">
         <v>128</v>
       </c>
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
-      <c r="P169" s="82"/>
-      <c r="Q169" s="83"/>
-      <c r="R169" s="84"/>
-      <c r="S169" s="84"/>
-      <c r="T169" s="84"/>
-      <c r="U169" s="84"/>
-      <c r="V169" s="84"/>
-      <c r="W169" s="84"/>
-      <c r="X169" s="84"/>
-      <c r="Y169" s="84"/>
-      <c r="Z169" s="84"/>
-      <c r="AA169" s="84"/>
-      <c r="AB169" s="84"/>
-      <c r="AC169" s="84"/>
-      <c r="AD169" s="84"/>
-      <c r="AE169" s="84"/>
-      <c r="AF169" s="84"/>
-      <c r="AG169" s="84"/>
-      <c r="AH169" s="84"/>
-      <c r="AI169" s="84"/>
-      <c r="AJ169" s="84"/>
-      <c r="AK169" s="84"/>
-      <c r="AL169" s="84"/>
-      <c r="AM169" s="84"/>
-      <c r="AN169" s="85"/>
+      <c r="P169" s="79"/>
+      <c r="Q169" s="80"/>
+      <c r="R169" s="81"/>
+      <c r="S169" s="81"/>
+      <c r="T169" s="81"/>
+      <c r="U169" s="81"/>
+      <c r="V169" s="81"/>
+      <c r="W169" s="81"/>
+      <c r="X169" s="81"/>
+      <c r="Y169" s="81"/>
+      <c r="Z169" s="81"/>
+      <c r="AA169" s="81"/>
+      <c r="AB169" s="81"/>
+      <c r="AC169" s="81"/>
+      <c r="AD169" s="81"/>
+      <c r="AE169" s="81"/>
+      <c r="AF169" s="81"/>
+      <c r="AG169" s="81"/>
+      <c r="AH169" s="81"/>
+      <c r="AI169" s="81"/>
+      <c r="AJ169" s="81"/>
+      <c r="AK169" s="81"/>
+      <c r="AL169" s="81"/>
+      <c r="AM169" s="81"/>
+      <c r="AN169" s="82"/>
     </row>
     <row r="170" spans="1:41" ht="15.75">
-      <c r="A170" s="82"/>
-      <c r="B170" s="82" t="s">
+      <c r="A170" s="79"/>
+      <c r="B170" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="C170" s="81"/>
-      <c r="D170" s="75" t="s">
+      <c r="C170" s="78"/>
+      <c r="D170" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="E170" s="81"/>
-      <c r="F170" s="81"/>
-      <c r="G170" s="91" t="s">
+      <c r="E170" s="78"/>
+      <c r="F170" s="78"/>
+      <c r="G170" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="H170" s="112"/>
-      <c r="I170" s="81"/>
-      <c r="J170" s="81"/>
-      <c r="K170" s="77"/>
-      <c r="L170" s="113" t="s">
+      <c r="H170" s="109"/>
+      <c r="I170" s="78"/>
+      <c r="J170" s="78"/>
+      <c r="K170" s="74"/>
+      <c r="L170" s="110" t="s">
         <v>131</v>
       </c>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
-      <c r="P170" s="82"/>
-      <c r="Q170" s="82"/>
-      <c r="R170" s="81"/>
-      <c r="S170" s="81" t="s">
+      <c r="P170" s="79"/>
+      <c r="Q170" s="79"/>
+      <c r="R170" s="78"/>
+      <c r="S170" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="T170" s="81"/>
-      <c r="U170" s="81"/>
-      <c r="V170" s="81"/>
-      <c r="W170" s="82"/>
-      <c r="X170" s="81" t="s">
+      <c r="T170" s="78"/>
+      <c r="U170" s="78"/>
+      <c r="V170" s="78"/>
+      <c r="W170" s="79"/>
+      <c r="X170" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="Y170" s="81"/>
-      <c r="Z170" s="81"/>
-      <c r="AA170" s="81"/>
-      <c r="AB170" s="81"/>
-      <c r="AC170" s="82"/>
-      <c r="AD170" s="81" t="s">
+      <c r="Y170" s="78"/>
+      <c r="Z170" s="78"/>
+      <c r="AA170" s="78"/>
+      <c r="AB170" s="78"/>
+      <c r="AC170" s="79"/>
+      <c r="AD170" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="AE170" s="81"/>
-      <c r="AF170" s="81"/>
-      <c r="AG170" s="81"/>
-      <c r="AH170" s="81"/>
-      <c r="AI170" s="82"/>
-      <c r="AJ170" s="81" t="s">
+      <c r="AE170" s="78"/>
+      <c r="AF170" s="78"/>
+      <c r="AG170" s="78"/>
+      <c r="AH170" s="78"/>
+      <c r="AI170" s="79"/>
+      <c r="AJ170" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="AK170" s="81"/>
-      <c r="AL170" s="81"/>
-      <c r="AM170" s="81"/>
-      <c r="AN170" s="89"/>
+      <c r="AK170" s="78"/>
+      <c r="AL170" s="78"/>
+      <c r="AM170" s="78"/>
+      <c r="AN170" s="86"/>
     </row>
     <row r="171" spans="1:41" ht="15.75">
-      <c r="A171" s="82" t="s">
+      <c r="A171" s="79" t="s">
         <v>59</v>
       </c>
       <c r="B171" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C171" s="86" t="s">
+      <c r="C171" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="D171" s="91" t="s">
+      <c r="D171" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="E171" s="86" t="s">
+      <c r="E171" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="F171" s="86" t="s">
+      <c r="F171" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="G171" s="91" t="s">
+      <c r="G171" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="H171" s="114" t="s">
+      <c r="H171" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="I171" s="86" t="s">
+      <c r="I171" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="J171" s="86" t="s">
+      <c r="J171" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="K171" s="87" t="s">
+      <c r="K171" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="L171" s="87" t="s">
+      <c r="L171" s="84" t="s">
         <v>136</v>
       </c>
       <c r="M171" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N171" s="86" t="s">
+      <c r="N171" s="83" t="s">
         <v>141</v>
       </c>
       <c r="O171" s="1"/>
-      <c r="P171" s="82" t="s">
+      <c r="P171" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="Q171" s="82"/>
-      <c r="R171" s="81" t="s">
+      <c r="Q171" s="79"/>
+      <c r="R171" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="S171" s="81"/>
-      <c r="T171" s="82"/>
-      <c r="U171" s="81" t="s">
+      <c r="S171" s="78"/>
+      <c r="T171" s="79"/>
+      <c r="U171" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="V171" s="81"/>
-      <c r="W171" s="82"/>
-      <c r="X171" s="81" t="s">
+      <c r="V171" s="78"/>
+      <c r="W171" s="79"/>
+      <c r="X171" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="Y171" s="81"/>
-      <c r="Z171" s="82"/>
-      <c r="AA171" s="81" t="s">
+      <c r="Y171" s="78"/>
+      <c r="Z171" s="79"/>
+      <c r="AA171" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="AB171" s="81"/>
-      <c r="AC171" s="82"/>
-      <c r="AD171" s="81" t="s">
+      <c r="AB171" s="78"/>
+      <c r="AC171" s="79"/>
+      <c r="AD171" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="AE171" s="81"/>
-      <c r="AF171" s="82"/>
-      <c r="AG171" s="81" t="s">
+      <c r="AE171" s="78"/>
+      <c r="AF171" s="79"/>
+      <c r="AG171" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="AH171" s="81"/>
-      <c r="AI171" s="82"/>
-      <c r="AJ171" s="81" t="s">
+      <c r="AH171" s="78"/>
+      <c r="AI171" s="79"/>
+      <c r="AJ171" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="AK171" s="81"/>
-      <c r="AL171" s="82"/>
-      <c r="AM171" s="81" t="s">
+      <c r="AK171" s="78"/>
+      <c r="AL171" s="79"/>
+      <c r="AM171" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="AN171" s="89"/>
+      <c r="AN171" s="86"/>
     </row>
     <row r="172" spans="1:41" ht="15.75">
-      <c r="A172" s="83"/>
-      <c r="B172" s="92" t="s">
+      <c r="A172" s="80"/>
+      <c r="B172" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="C172" s="93" t="s">
+      <c r="C172" s="90" t="s">
         <v>144</v>
       </c>
       <c r="D172" s="18" t="s">
@@ -10950,10 +10594,10 @@
       <c r="F172" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="G172" s="92" t="s">
+      <c r="G172" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="H172" s="115"/>
+      <c r="H172" s="112"/>
       <c r="I172" s="19" t="s">
         <v>183</v>
       </c>
@@ -10963,92 +10607,92 @@
       <c r="K172" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="L172" s="94" t="s">
+      <c r="L172" s="91" t="s">
         <v>93</v>
       </c>
       <c r="M172" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="N172" s="86" t="s">
+      <c r="N172" s="83" t="s">
         <v>187</v>
       </c>
       <c r="O172" s="1"/>
-      <c r="P172" s="83"/>
-      <c r="Q172" s="92" t="s">
+      <c r="P172" s="80"/>
+      <c r="Q172" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="R172" s="93" t="s">
+      <c r="R172" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="S172" s="93" t="s">
+      <c r="S172" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="T172" s="92" t="s">
+      <c r="T172" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="U172" s="93" t="s">
+      <c r="U172" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="V172" s="93" t="s">
+      <c r="V172" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="W172" s="96" t="s">
+      <c r="W172" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="X172" s="93" t="s">
+      <c r="X172" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="Y172" s="93" t="s">
+      <c r="Y172" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="Z172" s="96" t="s">
+      <c r="Z172" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="AA172" s="93" t="s">
+      <c r="AA172" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AB172" s="93" t="s">
+      <c r="AB172" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="AC172" s="92" t="s">
+      <c r="AC172" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="AD172" s="93" t="s">
+      <c r="AD172" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AE172" s="93" t="s">
+      <c r="AE172" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="AF172" s="92" t="s">
+      <c r="AF172" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="AG172" s="93" t="s">
+      <c r="AG172" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AH172" s="93" t="s">
+      <c r="AH172" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="AI172" s="92" t="s">
+      <c r="AI172" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="AJ172" s="93" t="s">
+      <c r="AJ172" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AK172" s="93" t="s">
+      <c r="AK172" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="AL172" s="92" t="s">
+      <c r="AL172" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="AM172" s="93" t="s">
+      <c r="AM172" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="AN172" s="94" t="s">
+      <c r="AN172" s="91" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:41" ht="15.75">
-      <c r="A173" s="82" t="s">
+      <c r="A173" s="79" t="s">
         <v>148</v>
       </c>
       <c r="B173" s="21">
@@ -11060,7 +10704,7 @@
       <c r="D173" s="21">
         <v>25742</v>
       </c>
-      <c r="E173" s="81"/>
+      <c r="E173" s="78"/>
       <c r="F173" s="22">
         <v>5657</v>
       </c>
@@ -11071,13 +10715,13 @@
         <f>D173*0.2931/B173</f>
         <v>3.5405819802909435</v>
       </c>
-      <c r="I173" s="98">
+      <c r="I173" s="95">
         <v>64</v>
       </c>
-      <c r="J173" s="98">
+      <c r="J173" s="95">
         <v>74.900000000000006</v>
       </c>
-      <c r="K173" s="116">
+      <c r="K173" s="113">
         <f>K89/100*180+32</f>
         <v>63.212000000000003</v>
       </c>
@@ -11087,11 +10731,11 @@
       <c r="M173" s="56">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="N173" s="117">
+      <c r="N173" s="114">
         <v>29.9</v>
       </c>
-      <c r="O173" s="81"/>
-      <c r="P173" s="82" t="s">
+      <c r="O173" s="78"/>
+      <c r="P173" s="79" t="s">
         <v>98</v>
       </c>
       <c r="Q173" s="25">
@@ -11163,15 +10807,15 @@
       <c r="AM173" s="30">
         <v>37566</v>
       </c>
-      <c r="AN173" s="118">
+      <c r="AN173" s="115">
         <v>4</v>
       </c>
-      <c r="AO173" s="82" t="s">
+      <c r="AO173" s="79" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="174" spans="1:41" ht="15.75">
-      <c r="A174" s="82" t="s">
+      <c r="A174" s="79" t="s">
         <v>149</v>
       </c>
       <c r="B174" s="21">
@@ -11183,7 +10827,7 @@
       <c r="D174" s="21">
         <v>26022</v>
       </c>
-      <c r="E174" s="81"/>
+      <c r="E174" s="78"/>
       <c r="F174" s="22">
         <v>5322</v>
       </c>
@@ -11194,13 +10838,13 @@
         <f t="shared" ref="H174:H196" si="28">D174*0.2931/B174</f>
         <v>3.4954391384051333</v>
       </c>
-      <c r="I174" s="98">
+      <c r="I174" s="95">
         <v>65</v>
       </c>
-      <c r="J174" s="98">
+      <c r="J174" s="95">
         <v>75.099999999999994</v>
       </c>
-      <c r="K174" s="119" t="s">
+      <c r="K174" s="116" t="s">
         <v>188</v>
       </c>
       <c r="L174" s="60">
@@ -11209,11 +10853,11 @@
       <c r="M174" s="60">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N174" s="117">
+      <c r="N174" s="114">
         <v>29.9</v>
       </c>
-      <c r="O174" s="81"/>
-      <c r="P174" s="82" t="s">
+      <c r="O174" s="78"/>
+      <c r="P174" s="79" t="s">
         <v>99</v>
       </c>
       <c r="Q174" s="25">
@@ -11285,15 +10929,15 @@
       <c r="AM174" s="30">
         <v>37566</v>
       </c>
-      <c r="AN174" s="118">
+      <c r="AN174" s="115">
         <v>4</v>
       </c>
-      <c r="AO174" s="82" t="s">
+      <c r="AO174" s="79" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="175" spans="1:41" ht="15.75">
-      <c r="A175" s="82" t="s">
+      <c r="A175" s="79" t="s">
         <v>150</v>
       </c>
       <c r="B175" s="21">
@@ -11305,7 +10949,7 @@
       <c r="D175" s="21">
         <v>25746</v>
       </c>
-      <c r="E175" s="81"/>
+      <c r="E175" s="78"/>
       <c r="F175" s="22">
         <v>5691</v>
       </c>
@@ -11316,13 +10960,13 @@
         <f t="shared" si="28"/>
         <v>3.541132144533083</v>
       </c>
-      <c r="I175" s="98">
+      <c r="I175" s="95">
         <v>64</v>
       </c>
-      <c r="J175" s="98">
+      <c r="J175" s="95">
         <v>74.900000000000006</v>
       </c>
-      <c r="K175" s="119" t="s">
+      <c r="K175" s="116" t="s">
         <v>189</v>
       </c>
       <c r="L175" s="60">
@@ -11331,11 +10975,11 @@
       <c r="M175" s="60">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="N175" s="117">
+      <c r="N175" s="114">
         <v>30</v>
       </c>
-      <c r="O175" s="81"/>
-      <c r="P175" s="82" t="s">
+      <c r="O175" s="78"/>
+      <c r="P175" s="79" t="s">
         <v>103</v>
       </c>
       <c r="Q175" s="25">
@@ -11398,7 +11042,7 @@
       <c r="AJ175" s="30">
         <v>37733</v>
       </c>
-      <c r="AK175" s="118">
+      <c r="AK175" s="115">
         <v>18</v>
       </c>
       <c r="AL175" s="59">
@@ -11407,15 +11051,15 @@
       <c r="AM175" s="30">
         <v>37566</v>
       </c>
-      <c r="AN175" s="118">
+      <c r="AN175" s="115">
         <v>4</v>
       </c>
-      <c r="AO175" s="82" t="s">
+      <c r="AO175" s="79" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:41" ht="15.75">
-      <c r="A176" s="82" t="s">
+      <c r="A176" s="79" t="s">
         <v>151</v>
       </c>
       <c r="B176" s="21">
@@ -11427,7 +11071,7 @@
       <c r="D176" s="21">
         <v>25685</v>
       </c>
-      <c r="E176" s="81"/>
+      <c r="E176" s="78"/>
       <c r="F176" s="22">
         <v>5646</v>
       </c>
@@ -11438,24 +11082,24 @@
         <f t="shared" si="28"/>
         <v>3.5410505644402641</v>
       </c>
-      <c r="I176" s="98">
+      <c r="I176" s="95">
         <v>64</v>
       </c>
-      <c r="J176" s="98">
+      <c r="J176" s="95">
         <v>74.900000000000006</v>
       </c>
-      <c r="K176" s="120"/>
+      <c r="K176" s="117"/>
       <c r="L176" s="60">
         <v>1.14E-2</v>
       </c>
       <c r="M176" s="60">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="N176" s="117">
+      <c r="N176" s="114">
         <v>30</v>
       </c>
-      <c r="O176" s="81"/>
-      <c r="P176" s="82" t="s">
+      <c r="O176" s="78"/>
+      <c r="P176" s="79" t="s">
         <v>104</v>
       </c>
       <c r="Q176" s="25">
@@ -11527,15 +11171,15 @@
       <c r="AM176" s="30">
         <v>37566</v>
       </c>
-      <c r="AN176" s="118">
+      <c r="AN176" s="115">
         <v>4</v>
       </c>
-      <c r="AO176" s="82" t="s">
+      <c r="AO176" s="79" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="177" spans="1:41" ht="15.75">
-      <c r="A177" s="82" t="s">
+      <c r="A177" s="79" t="s">
         <v>152</v>
       </c>
       <c r="B177" s="21">
@@ -11547,7 +11191,7 @@
       <c r="D177" s="21">
         <v>23040</v>
       </c>
-      <c r="E177" s="81"/>
+      <c r="E177" s="78"/>
       <c r="F177" s="22">
         <v>3689</v>
       </c>
@@ -11558,24 +11202,24 @@
         <f t="shared" si="28"/>
         <v>3.5374667365112624</v>
       </c>
-      <c r="I177" s="98">
+      <c r="I177" s="95">
         <v>63</v>
       </c>
-      <c r="J177" s="98">
+      <c r="J177" s="95">
         <v>74.8</v>
       </c>
-      <c r="K177" s="120"/>
+      <c r="K177" s="117"/>
       <c r="L177" s="60">
         <v>1.03E-2</v>
       </c>
       <c r="M177" s="60">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="N177" s="117">
+      <c r="N177" s="114">
         <v>30</v>
       </c>
-      <c r="O177" s="81"/>
-      <c r="P177" s="82" t="s">
+      <c r="O177" s="78"/>
+      <c r="P177" s="79" t="s">
         <v>105</v>
       </c>
       <c r="Q177" s="25">
@@ -11638,7 +11282,7 @@
       <c r="AJ177" s="30">
         <v>37733</v>
       </c>
-      <c r="AK177" s="118">
+      <c r="AK177" s="115">
         <v>18</v>
       </c>
       <c r="AL177" s="59">
@@ -11647,15 +11291,15 @@
       <c r="AM177" s="30">
         <v>37566</v>
       </c>
-      <c r="AN177" s="118">
+      <c r="AN177" s="115">
         <v>4</v>
       </c>
-      <c r="AO177" s="82" t="s">
+      <c r="AO177" s="79" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="178" spans="1:41" ht="15.75">
-      <c r="A178" s="82" t="s">
+      <c r="A178" s="79" t="s">
         <v>153</v>
       </c>
       <c r="B178" s="21">
@@ -11667,7 +11311,7 @@
       <c r="D178" s="21">
         <v>27926</v>
       </c>
-      <c r="E178" s="81"/>
+      <c r="E178" s="78"/>
       <c r="F178" s="22">
         <v>5959</v>
       </c>
@@ -11678,24 +11322,24 @@
         <f t="shared" si="28"/>
         <v>3.4218689799331106</v>
       </c>
-      <c r="I178" s="98">
+      <c r="I178" s="95">
         <v>67</v>
       </c>
-      <c r="J178" s="98">
+      <c r="J178" s="95">
         <v>75.400000000000006</v>
       </c>
-      <c r="K178" s="120"/>
+      <c r="K178" s="117"/>
       <c r="L178" s="60">
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="M178" s="60">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="N178" s="117">
+      <c r="N178" s="114">
         <v>30</v>
       </c>
-      <c r="O178" s="81"/>
-      <c r="P178" s="82" t="s">
+      <c r="O178" s="78"/>
+      <c r="P178" s="79" t="s">
         <v>106</v>
       </c>
       <c r="Q178" s="25">
@@ -11767,15 +11411,15 @@
       <c r="AM178" s="30">
         <v>37566</v>
       </c>
-      <c r="AN178" s="118">
+      <c r="AN178" s="115">
         <v>4</v>
       </c>
-      <c r="AO178" s="82" t="s">
+      <c r="AO178" s="79" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="179" spans="1:41" ht="15.75">
-      <c r="A179" s="82" t="s">
+      <c r="A179" s="79" t="s">
         <v>154</v>
       </c>
       <c r="B179" s="21">
@@ -11787,7 +11431,7 @@
       <c r="D179" s="21">
         <v>38324</v>
       </c>
-      <c r="E179" s="81"/>
+      <c r="E179" s="78"/>
       <c r="F179" s="22">
         <v>9843</v>
       </c>
@@ -11798,24 +11442,24 @@
         <f t="shared" si="28"/>
         <v>3.1411533557046987</v>
       </c>
-      <c r="I179" s="98">
+      <c r="I179" s="95">
         <v>77</v>
       </c>
-      <c r="J179" s="98">
+      <c r="J179" s="95">
         <v>76.900000000000006</v>
       </c>
-      <c r="K179" s="120"/>
+      <c r="K179" s="117"/>
       <c r="L179" s="60">
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="M179" s="60">
         <v>1.03E-2</v>
       </c>
-      <c r="N179" s="117">
+      <c r="N179" s="114">
         <v>30</v>
       </c>
-      <c r="O179" s="81"/>
-      <c r="P179" s="82" t="s">
+      <c r="O179" s="78"/>
+      <c r="P179" s="79" t="s">
         <v>107</v>
       </c>
       <c r="Q179" s="25">
@@ -11887,15 +11531,15 @@
       <c r="AM179" s="30">
         <v>37566</v>
       </c>
-      <c r="AN179" s="118">
+      <c r="AN179" s="115">
         <v>4</v>
       </c>
-      <c r="AO179" s="82" t="s">
+      <c r="AO179" s="79" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="180" spans="1:41" ht="15.75">
-      <c r="A180" s="82" t="s">
+      <c r="A180" s="79" t="s">
         <v>155</v>
       </c>
       <c r="B180" s="21">
@@ -11907,7 +11551,7 @@
       <c r="D180" s="21">
         <v>35045</v>
       </c>
-      <c r="E180" s="81"/>
+      <c r="E180" s="78"/>
       <c r="F180" s="22">
         <v>4103</v>
       </c>
@@ -11918,24 +11562,24 @@
         <f t="shared" si="28"/>
         <v>2.9516349137931037</v>
       </c>
-      <c r="I180" s="98">
+      <c r="I180" s="95">
         <v>81</v>
       </c>
-      <c r="J180" s="98">
+      <c r="J180" s="95">
         <v>77.5</v>
       </c>
-      <c r="K180" s="120"/>
+      <c r="K180" s="117"/>
       <c r="L180" s="60">
         <v>1.09E-2</v>
       </c>
       <c r="M180" s="60">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N180" s="117">
+      <c r="N180" s="114">
         <v>30</v>
       </c>
-      <c r="O180" s="81"/>
-      <c r="P180" s="82" t="s">
+      <c r="O180" s="78"/>
+      <c r="P180" s="79" t="s">
         <v>108</v>
       </c>
       <c r="Q180" s="25">
@@ -12007,15 +11651,15 @@
       <c r="AM180" s="30">
         <v>37566</v>
       </c>
-      <c r="AN180" s="118">
+      <c r="AN180" s="115">
         <v>4</v>
       </c>
-      <c r="AO180" s="82" t="s">
+      <c r="AO180" s="79" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="181" spans="1:41" ht="15.75">
-      <c r="A181" s="82" t="s">
+      <c r="A181" s="79" t="s">
         <v>156</v>
       </c>
       <c r="B181" s="21">
@@ -12027,7 +11671,7 @@
       <c r="D181" s="21">
         <v>50645</v>
       </c>
-      <c r="E181" s="81"/>
+      <c r="E181" s="78"/>
       <c r="F181" s="22">
         <v>10129</v>
       </c>
@@ -12038,24 +11682,24 @@
         <f t="shared" si="28"/>
         <v>2.9729720608852395</v>
       </c>
-      <c r="I181" s="98">
+      <c r="I181" s="95">
         <v>84</v>
       </c>
-      <c r="J181" s="98">
+      <c r="J181" s="95">
         <v>78</v>
       </c>
-      <c r="K181" s="120"/>
+      <c r="K181" s="117"/>
       <c r="L181" s="60">
         <v>1.17E-2</v>
       </c>
       <c r="M181" s="60">
         <v>1.01E-2</v>
       </c>
-      <c r="N181" s="117">
+      <c r="N181" s="114">
         <v>30</v>
       </c>
-      <c r="O181" s="81"/>
-      <c r="P181" s="82" t="s">
+      <c r="O181" s="78"/>
+      <c r="P181" s="79" t="s">
         <v>109</v>
       </c>
       <c r="Q181" s="25">
@@ -12127,15 +11771,15 @@
       <c r="AM181" s="30">
         <v>37566</v>
       </c>
-      <c r="AN181" s="118">
+      <c r="AN181" s="115">
         <v>4</v>
       </c>
-      <c r="AO181" s="82" t="s">
+      <c r="AO181" s="79" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="182" spans="1:41" ht="15.75">
-      <c r="A182" s="82" t="s">
+      <c r="A182" s="79" t="s">
         <v>157</v>
       </c>
       <c r="B182" s="21">
@@ -12147,7 +11791,7 @@
       <c r="D182" s="21">
         <v>52517</v>
       </c>
-      <c r="E182" s="81"/>
+      <c r="E182" s="78"/>
       <c r="F182" s="22">
         <v>11435</v>
       </c>
@@ -12158,24 +11802,24 @@
         <f t="shared" si="28"/>
         <v>2.9987790181180602</v>
       </c>
-      <c r="I182" s="98">
+      <c r="I182" s="95">
         <v>84</v>
       </c>
-      <c r="J182" s="98">
+      <c r="J182" s="95">
         <v>78</v>
       </c>
-      <c r="K182" s="120"/>
+      <c r="K182" s="117"/>
       <c r="L182" s="60">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="M182" s="60">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="N182" s="117">
+      <c r="N182" s="114">
         <v>30</v>
       </c>
-      <c r="O182" s="81"/>
-      <c r="P182" s="82" t="s">
+      <c r="O182" s="78"/>
+      <c r="P182" s="79" t="s">
         <v>110</v>
       </c>
       <c r="Q182" s="25">
@@ -12247,15 +11891,15 @@
       <c r="AM182" s="30">
         <v>37566</v>
       </c>
-      <c r="AN182" s="118">
+      <c r="AN182" s="115">
         <v>4</v>
       </c>
-      <c r="AO182" s="82" t="s">
+      <c r="AO182" s="79" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="183" spans="1:41" ht="15.75">
-      <c r="A183" s="82" t="s">
+      <c r="A183" s="79" t="s">
         <v>158</v>
       </c>
       <c r="B183" s="21">
@@ -12267,7 +11911,7 @@
       <c r="D183" s="21">
         <v>60065</v>
       </c>
-      <c r="E183" s="81"/>
+      <c r="E183" s="78"/>
       <c r="F183" s="22">
         <v>16334</v>
       </c>
@@ -12278,24 +11922,24 @@
         <f t="shared" si="28"/>
         <v>2.9380927069425904</v>
       </c>
-      <c r="I183" s="98">
+      <c r="I183" s="95">
         <v>88</v>
       </c>
-      <c r="J183" s="98">
+      <c r="J183" s="95">
         <v>78.599999999999994</v>
       </c>
-      <c r="K183" s="120"/>
+      <c r="K183" s="117"/>
       <c r="L183" s="60">
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="M183" s="60">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="N183" s="117">
+      <c r="N183" s="114">
         <v>30</v>
       </c>
-      <c r="O183" s="81"/>
-      <c r="P183" s="82" t="s">
+      <c r="O183" s="78"/>
+      <c r="P183" s="79" t="s">
         <v>111</v>
       </c>
       <c r="Q183" s="25">
@@ -12367,15 +12011,15 @@
       <c r="AM183" s="30">
         <v>37566</v>
       </c>
-      <c r="AN183" s="118">
+      <c r="AN183" s="115">
         <v>4</v>
       </c>
-      <c r="AO183" s="82" t="s">
+      <c r="AO183" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="184" spans="1:41" ht="15.75">
-      <c r="A184" s="82" t="s">
+      <c r="A184" s="79" t="s">
         <v>159</v>
       </c>
       <c r="B184" s="21">
@@ -12387,7 +12031,7 @@
       <c r="D184" s="21">
         <v>55229</v>
       </c>
-      <c r="E184" s="81"/>
+      <c r="E184" s="78"/>
       <c r="F184" s="22">
         <v>12203</v>
       </c>
@@ -12398,24 +12042,24 @@
         <f t="shared" si="28"/>
         <v>2.9362633593324872</v>
       </c>
-      <c r="I184" s="98">
+      <c r="I184" s="95">
         <v>87</v>
       </c>
-      <c r="J184" s="98">
+      <c r="J184" s="95">
         <v>78.5</v>
       </c>
-      <c r="K184" s="120"/>
+      <c r="K184" s="117"/>
       <c r="L184" s="60">
         <v>1.34E-2</v>
       </c>
       <c r="M184" s="60">
         <v>1.12E-2</v>
       </c>
-      <c r="N184" s="117">
+      <c r="N184" s="114">
         <v>30</v>
       </c>
-      <c r="O184" s="81"/>
-      <c r="P184" s="82" t="s">
+      <c r="O184" s="78"/>
+      <c r="P184" s="79" t="s">
         <v>112</v>
       </c>
       <c r="Q184" s="44">
@@ -12472,7 +12116,7 @@
       <c r="AH184" s="22">
         <v>24</v>
       </c>
-      <c r="AI184" s="121">
+      <c r="AI184" s="118">
         <v>68.849999999999994</v>
       </c>
       <c r="AJ184" s="38">
@@ -12481,21 +12125,21 @@
       <c r="AK184" s="43">
         <v>16</v>
       </c>
-      <c r="AL184" s="121">
+      <c r="AL184" s="118">
         <v>11.97</v>
       </c>
       <c r="AM184" s="38">
         <v>37566</v>
       </c>
-      <c r="AN184" s="122">
+      <c r="AN184" s="119">
         <v>4</v>
       </c>
-      <c r="AO184" s="82" t="s">
+      <c r="AO184" s="79" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="185" spans="1:41" ht="15.75">
-      <c r="A185" s="82" t="s">
+      <c r="A185" s="79" t="s">
         <v>160</v>
       </c>
       <c r="B185" s="21">
@@ -12507,7 +12151,7 @@
       <c r="D185" s="21">
         <v>66943</v>
       </c>
-      <c r="E185" s="81"/>
+      <c r="E185" s="78"/>
       <c r="F185" s="22">
         <v>8481</v>
       </c>
@@ -12518,24 +12162,24 @@
         <f t="shared" si="28"/>
         <v>2.9567500452079569</v>
       </c>
-      <c r="I185" s="98">
+      <c r="I185" s="95">
         <v>88</v>
       </c>
-      <c r="J185" s="98">
+      <c r="J185" s="95">
         <v>78.7</v>
       </c>
-      <c r="K185" s="120"/>
+      <c r="K185" s="117"/>
       <c r="L185" s="60">
         <v>1.15E-2</v>
       </c>
       <c r="M185" s="60">
         <v>1.04E-2</v>
       </c>
-      <c r="N185" s="117">
+      <c r="N185" s="114">
         <v>30</v>
       </c>
-      <c r="O185" s="81"/>
-      <c r="P185" s="82" t="s">
+      <c r="O185" s="78"/>
+      <c r="P185" s="79" t="s">
         <v>114</v>
       </c>
       <c r="Q185" s="25">
@@ -12592,7 +12236,7 @@
         <v>190</v>
       </c>
       <c r="AJ185" s="30"/>
-      <c r="AK185" s="118"/>
+      <c r="AK185" s="115"/>
       <c r="AL185" s="21" t="s">
         <v>190</v>
       </c>
@@ -12600,16 +12244,16 @@
         <f t="shared" ref="AM185:AN192" si="29">AM269</f>
         <v>0</v>
       </c>
-      <c r="AN185" s="118">
+      <c r="AN185" s="115">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AO185" s="82" t="s">
+      <c r="AO185" s="79" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="186" spans="1:41" ht="15.75">
-      <c r="A186" s="82" t="s">
+      <c r="A186" s="79" t="s">
         <v>161</v>
       </c>
       <c r="B186" s="21">
@@ -12621,7 +12265,7 @@
       <c r="D186" s="21">
         <v>71031</v>
       </c>
-      <c r="E186" s="81"/>
+      <c r="E186" s="78"/>
       <c r="F186" s="22">
         <v>10850</v>
       </c>
@@ -12632,24 +12276,24 @@
         <f t="shared" si="28"/>
         <v>2.9472234003397513</v>
       </c>
-      <c r="I186" s="98">
+      <c r="I186" s="95">
         <v>89</v>
       </c>
-      <c r="J186" s="98">
+      <c r="J186" s="95">
         <v>78.900000000000006</v>
       </c>
-      <c r="K186" s="120"/>
+      <c r="K186" s="117"/>
       <c r="L186" s="60">
         <v>1.21E-2</v>
       </c>
       <c r="M186" s="60">
         <v>1.03E-2</v>
       </c>
-      <c r="N186" s="117">
+      <c r="N186" s="114">
         <v>30</v>
       </c>
-      <c r="O186" s="81"/>
-      <c r="P186" s="82" t="s">
+      <c r="O186" s="78"/>
+      <c r="P186" s="79" t="s">
         <v>116</v>
       </c>
       <c r="Q186" s="25">
@@ -12706,7 +12350,7 @@
         <v>190</v>
       </c>
       <c r="AJ186" s="30"/>
-      <c r="AK186" s="118"/>
+      <c r="AK186" s="115"/>
       <c r="AL186" s="21" t="s">
         <v>190</v>
       </c>
@@ -12714,16 +12358,16 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AN186" s="118">
+      <c r="AN186" s="115">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AO186" s="82" t="s">
+      <c r="AO186" s="79" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="187" spans="1:41" ht="15.75">
-      <c r="A187" s="82" t="s">
+      <c r="A187" s="79" t="s">
         <v>60</v>
       </c>
       <c r="B187" s="21">
@@ -12735,7 +12379,7 @@
       <c r="D187" s="21">
         <v>86635</v>
       </c>
-      <c r="E187" s="81"/>
+      <c r="E187" s="78"/>
       <c r="F187" s="22">
         <v>10904</v>
       </c>
@@ -12746,24 +12390,24 @@
         <f t="shared" si="28"/>
         <v>3.0096857295247128</v>
       </c>
-      <c r="I187" s="98">
+      <c r="I187" s="95">
         <v>90</v>
       </c>
-      <c r="J187" s="98">
+      <c r="J187" s="95">
         <v>79</v>
       </c>
-      <c r="K187" s="123"/>
+      <c r="K187" s="120"/>
       <c r="L187" s="60">
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="M187" s="60">
         <v>1.01E-2</v>
       </c>
-      <c r="N187" s="117">
+      <c r="N187" s="114">
         <v>30</v>
       </c>
-      <c r="O187" s="81"/>
-      <c r="P187" s="82" t="s">
+      <c r="O187" s="78"/>
+      <c r="P187" s="79" t="s">
         <v>118</v>
       </c>
       <c r="Q187" s="25">
@@ -12820,7 +12464,7 @@
         <v>190</v>
       </c>
       <c r="AJ187" s="30"/>
-      <c r="AK187" s="118"/>
+      <c r="AK187" s="115"/>
       <c r="AL187" s="21" t="s">
         <v>190</v>
       </c>
@@ -12828,16 +12472,16 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AN187" s="118">
+      <c r="AN187" s="115">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AO187" s="82" t="s">
+      <c r="AO187" s="79" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="188" spans="1:41" ht="15.75">
-      <c r="A188" s="82" t="s">
+      <c r="A188" s="79" t="s">
         <v>162</v>
       </c>
       <c r="B188" s="21">
@@ -12849,7 +12493,7 @@
       <c r="D188" s="21">
         <v>94579</v>
       </c>
-      <c r="E188" s="81"/>
+      <c r="E188" s="78"/>
       <c r="F188" s="22">
         <v>17700</v>
       </c>
@@ -12860,24 +12504,24 @@
         <f t="shared" si="28"/>
         <v>3.0715905706371194</v>
       </c>
-      <c r="I188" s="98">
+      <c r="I188" s="95">
         <v>90</v>
       </c>
-      <c r="J188" s="98">
+      <c r="J188" s="95">
         <v>79.099999999999994</v>
       </c>
-      <c r="K188" s="123"/>
+      <c r="K188" s="120"/>
       <c r="L188" s="60">
         <v>1.44E-2</v>
       </c>
       <c r="M188" s="60">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="N188" s="117">
+      <c r="N188" s="114">
         <v>29.9</v>
       </c>
-      <c r="O188" s="81"/>
-      <c r="P188" s="82" t="s">
+      <c r="O188" s="78"/>
+      <c r="P188" s="79" t="s">
         <v>119</v>
       </c>
       <c r="Q188" s="25">
@@ -12934,7 +12578,7 @@
         <v>190</v>
       </c>
       <c r="AJ188" s="30"/>
-      <c r="AK188" s="118"/>
+      <c r="AK188" s="115"/>
       <c r="AL188" s="21" t="s">
         <v>190</v>
       </c>
@@ -12942,16 +12586,16 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AN188" s="118">
+      <c r="AN188" s="115">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AO188" s="82" t="s">
+      <c r="AO188" s="79" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="189" spans="1:41" ht="15.75">
-      <c r="A189" s="82" t="s">
+      <c r="A189" s="79" t="s">
         <v>163</v>
       </c>
       <c r="B189" s="21">
@@ -12963,7 +12607,7 @@
       <c r="D189" s="21">
         <v>62247</v>
       </c>
-      <c r="E189" s="81"/>
+      <c r="E189" s="78"/>
       <c r="F189" s="22">
         <v>15846</v>
       </c>
@@ -12974,24 +12618,24 @@
         <f t="shared" si="28"/>
         <v>2.9182014875239926</v>
       </c>
-      <c r="I189" s="98">
+      <c r="I189" s="95">
         <v>89</v>
       </c>
-      <c r="J189" s="98">
+      <c r="J189" s="95">
         <v>78.900000000000006</v>
       </c>
-      <c r="K189" s="123"/>
+      <c r="K189" s="120"/>
       <c r="L189" s="60">
         <v>1.46E-2</v>
       </c>
       <c r="M189" s="60">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="N189" s="117">
+      <c r="N189" s="114">
         <v>29.9</v>
       </c>
-      <c r="O189" s="81"/>
-      <c r="P189" s="82" t="s">
+      <c r="O189" s="78"/>
+      <c r="P189" s="79" t="s">
         <v>120</v>
       </c>
       <c r="Q189" s="25">
@@ -13048,7 +12692,7 @@
         <v>190</v>
       </c>
       <c r="AJ189" s="30"/>
-      <c r="AK189" s="118"/>
+      <c r="AK189" s="115"/>
       <c r="AL189" s="21" t="s">
         <v>190</v>
       </c>
@@ -13056,16 +12700,16 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AN189" s="118">
+      <c r="AN189" s="115">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AO189" s="82" t="s">
+      <c r="AO189" s="79" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="190" spans="1:41" ht="15.75">
-      <c r="A190" s="82" t="s">
+      <c r="A190" s="79" t="s">
         <v>164</v>
       </c>
       <c r="B190" s="21">
@@ -13077,7 +12721,7 @@
       <c r="D190" s="21">
         <v>61337</v>
       </c>
-      <c r="E190" s="81"/>
+      <c r="E190" s="78"/>
       <c r="F190" s="22">
         <v>17558</v>
       </c>
@@ -13088,24 +12732,24 @@
         <f t="shared" si="28"/>
         <v>2.9607830533596839</v>
       </c>
-      <c r="I190" s="98">
+      <c r="I190" s="95">
         <v>88</v>
       </c>
-      <c r="J190" s="98">
+      <c r="J190" s="95">
         <v>78.7</v>
       </c>
-      <c r="K190" s="123"/>
+      <c r="K190" s="120"/>
       <c r="L190" s="60">
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="M190" s="60">
         <v>1.18E-2</v>
       </c>
-      <c r="N190" s="117">
+      <c r="N190" s="114">
         <v>29.9</v>
       </c>
-      <c r="O190" s="81"/>
-      <c r="P190" s="82" t="s">
+      <c r="O190" s="78"/>
+      <c r="P190" s="79" t="s">
         <v>121</v>
       </c>
       <c r="Q190" s="25">
@@ -13126,7 +12770,7 @@
       <c r="V190" s="24">
         <v>12</v>
       </c>
-      <c r="W190" s="124">
+      <c r="W190" s="121">
         <v>25.06</v>
       </c>
       <c r="X190" s="30">
@@ -13144,7 +12788,7 @@
       <c r="AB190" s="22">
         <v>11</v>
       </c>
-      <c r="AC190" s="125">
+      <c r="AC190" s="122">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="AD190" s="30">
@@ -13156,13 +12800,13 @@
       <c r="AF190" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="AG190" s="81"/>
-      <c r="AH190" s="81"/>
+      <c r="AG190" s="78"/>
+      <c r="AH190" s="78"/>
       <c r="AI190" s="21" t="s">
         <v>190</v>
       </c>
       <c r="AJ190" s="30"/>
-      <c r="AK190" s="118"/>
+      <c r="AK190" s="115"/>
       <c r="AL190" s="21" t="s">
         <v>190</v>
       </c>
@@ -13170,16 +12814,16 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AN190" s="118">
+      <c r="AN190" s="115">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AO190" s="82" t="s">
+      <c r="AO190" s="79" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="191" spans="1:41" ht="15.75">
-      <c r="A191" s="82" t="s">
+      <c r="A191" s="79" t="s">
         <v>165</v>
       </c>
       <c r="B191" s="21">
@@ -13191,7 +12835,7 @@
       <c r="D191" s="21">
         <v>54297</v>
       </c>
-      <c r="E191" s="81"/>
+      <c r="E191" s="78"/>
       <c r="F191" s="22">
         <v>13795</v>
       </c>
@@ -13202,24 +12846,24 @@
         <f t="shared" si="28"/>
         <v>3.0794215750773994</v>
       </c>
-      <c r="I191" s="98">
+      <c r="I191" s="95">
         <v>83</v>
       </c>
-      <c r="J191" s="98">
+      <c r="J191" s="95">
         <v>77.900000000000006</v>
       </c>
-      <c r="K191" s="120"/>
+      <c r="K191" s="117"/>
       <c r="L191" s="60">
         <v>1.43E-2</v>
       </c>
       <c r="M191" s="60">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="N191" s="117">
+      <c r="N191" s="114">
         <v>29.9</v>
       </c>
-      <c r="O191" s="81"/>
-      <c r="P191" s="82" t="s">
+      <c r="O191" s="78"/>
+      <c r="P191" s="79" t="s">
         <v>122</v>
       </c>
       <c r="Q191" s="25">
@@ -13237,10 +12881,10 @@
       <c r="U191" s="30">
         <v>41120</v>
       </c>
-      <c r="V191" s="126">
+      <c r="V191" s="123">
         <v>12</v>
       </c>
-      <c r="W191" s="124">
+      <c r="W191" s="121">
         <v>15.11</v>
       </c>
       <c r="X191" s="30">
@@ -13258,7 +12902,7 @@
       <c r="AB191" s="22">
         <v>12</v>
       </c>
-      <c r="AC191" s="125">
+      <c r="AC191" s="122">
         <v>6.3E-3</v>
       </c>
       <c r="AD191" s="30">
@@ -13270,13 +12914,13 @@
       <c r="AF191" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="AG191" s="81"/>
-      <c r="AH191" s="81"/>
+      <c r="AG191" s="78"/>
+      <c r="AH191" s="78"/>
       <c r="AI191" s="21" t="s">
         <v>190</v>
       </c>
       <c r="AJ191" s="30"/>
-      <c r="AK191" s="118"/>
+      <c r="AK191" s="115"/>
       <c r="AL191" s="21" t="s">
         <v>190</v>
       </c>
@@ -13284,16 +12928,16 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AN191" s="118">
+      <c r="AN191" s="115">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AO191" s="82" t="s">
+      <c r="AO191" s="79" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="192" spans="1:41" ht="15.75">
-      <c r="A192" s="82" t="s">
+      <c r="A192" s="79" t="s">
         <v>166</v>
       </c>
       <c r="B192" s="21">
@@ -13305,7 +12949,7 @@
       <c r="D192" s="21">
         <v>58411</v>
       </c>
-      <c r="E192" s="81"/>
+      <c r="E192" s="78"/>
       <c r="F192" s="22">
         <v>19059</v>
       </c>
@@ -13316,24 +12960,24 @@
         <f t="shared" si="28"/>
         <v>3.1952713885778277</v>
       </c>
-      <c r="I192" s="98">
+      <c r="I192" s="95">
         <v>81</v>
       </c>
-      <c r="J192" s="98">
+      <c r="J192" s="95">
         <v>77.599999999999994</v>
       </c>
-      <c r="K192" s="120"/>
+      <c r="K192" s="117"/>
       <c r="L192" s="60">
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="M192" s="60">
         <v>1.21E-2</v>
       </c>
-      <c r="N192" s="117">
+      <c r="N192" s="114">
         <v>30</v>
       </c>
-      <c r="O192" s="81"/>
-      <c r="P192" s="83" t="s">
+      <c r="O192" s="78"/>
+      <c r="P192" s="80" t="s">
         <v>123</v>
       </c>
       <c r="Q192" s="44">
@@ -13354,13 +12998,13 @@
       <c r="V192" s="43">
         <v>12</v>
       </c>
-      <c r="W192" s="127">
+      <c r="W192" s="124">
         <v>35</v>
       </c>
-      <c r="X192" s="128">
+      <c r="X192" s="125">
         <v>38098</v>
       </c>
-      <c r="Y192" s="129">
+      <c r="Y192" s="126">
         <v>15</v>
       </c>
       <c r="Z192" s="59">
@@ -13372,25 +13016,25 @@
       <c r="AB192" s="22">
         <v>12</v>
       </c>
-      <c r="AC192" s="130">
+      <c r="AC192" s="127">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="AD192" s="128">
+      <c r="AD192" s="125">
         <v>38188</v>
       </c>
-      <c r="AE192" s="129">
+      <c r="AE192" s="126">
         <v>15</v>
       </c>
       <c r="AF192" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="AG192" s="131"/>
-      <c r="AH192" s="131"/>
+      <c r="AG192" s="128"/>
+      <c r="AH192" s="128"/>
       <c r="AI192" s="41" t="s">
         <v>190</v>
       </c>
       <c r="AJ192" s="38"/>
-      <c r="AK192" s="122"/>
+      <c r="AK192" s="119"/>
       <c r="AL192" s="41" t="s">
         <v>190</v>
       </c>
@@ -13398,16 +13042,16 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AN192" s="122">
+      <c r="AN192" s="119">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AO192" s="83" t="s">
+      <c r="AO192" s="80" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="193" spans="1:40" ht="15.75">
-      <c r="A193" s="82" t="s">
+      <c r="A193" s="79" t="s">
         <v>167</v>
       </c>
       <c r="B193" s="21">
@@ -13419,7 +13063,7 @@
       <c r="D193" s="21">
         <v>45872</v>
       </c>
-      <c r="E193" s="81"/>
+      <c r="E193" s="78"/>
       <c r="F193" s="22">
         <v>14133</v>
       </c>
@@ -13430,23 +13074,23 @@
         <f t="shared" si="28"/>
         <v>3.1094086956521743</v>
       </c>
-      <c r="I193" s="98">
+      <c r="I193" s="95">
         <v>81</v>
       </c>
-      <c r="J193" s="98">
+      <c r="J193" s="95">
         <v>77.599999999999994</v>
       </c>
-      <c r="K193" s="120"/>
+      <c r="K193" s="117"/>
       <c r="L193" s="60">
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="M193" s="60">
         <v>1.21E-2</v>
       </c>
-      <c r="N193" s="117">
+      <c r="N193" s="114">
         <v>30</v>
       </c>
-      <c r="O193" s="81"/>
+      <c r="O193" s="78"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
@@ -13476,7 +13120,7 @@
       <c r="AN193" s="1"/>
     </row>
     <row r="194" spans="1:40" ht="15.75">
-      <c r="A194" s="82" t="s">
+      <c r="A194" s="79" t="s">
         <v>168</v>
       </c>
       <c r="B194" s="21">
@@ -13488,7 +13132,7 @@
       <c r="D194" s="21">
         <v>45326</v>
       </c>
-      <c r="E194" s="81"/>
+      <c r="E194" s="78"/>
       <c r="F194" s="22">
         <v>14709</v>
       </c>
@@ -13499,23 +13143,23 @@
         <f t="shared" si="28"/>
         <v>3.1466249644718145</v>
       </c>
-      <c r="I194" s="98">
+      <c r="I194" s="95">
         <v>80</v>
       </c>
-      <c r="J194" s="98">
+      <c r="J194" s="95">
         <v>77.400000000000006</v>
       </c>
-      <c r="K194" s="120"/>
+      <c r="K194" s="117"/>
       <c r="L194" s="60">
         <v>1.67E-2</v>
       </c>
       <c r="M194" s="60">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="N194" s="117">
+      <c r="N194" s="114">
         <v>30</v>
       </c>
-      <c r="O194" s="81"/>
+      <c r="O194" s="78"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
@@ -13543,7 +13187,7 @@
       <c r="AN194" s="1"/>
     </row>
     <row r="195" spans="1:40" ht="15.75">
-      <c r="A195" s="82" t="s">
+      <c r="A195" s="79" t="s">
         <v>169</v>
       </c>
       <c r="B195" s="21">
@@ -13555,7 +13199,7 @@
       <c r="D195" s="21">
         <v>45009</v>
       </c>
-      <c r="E195" s="81"/>
+      <c r="E195" s="78"/>
       <c r="F195" s="22">
         <v>15028</v>
       </c>
@@ -13566,23 +13210,23 @@
         <f t="shared" si="28"/>
         <v>3.1849681071945923</v>
       </c>
-      <c r="I195" s="98">
+      <c r="I195" s="95">
         <v>79</v>
       </c>
-      <c r="J195" s="98">
+      <c r="J195" s="95">
         <v>77.2</v>
       </c>
-      <c r="K195" s="120"/>
+      <c r="K195" s="117"/>
       <c r="L195" s="60">
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="M195" s="60">
         <v>1.23E-2</v>
       </c>
-      <c r="N195" s="117">
+      <c r="N195" s="114">
         <v>30</v>
       </c>
-      <c r="O195" s="81"/>
+      <c r="O195" s="78"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
@@ -13610,7 +13254,7 @@
       <c r="AN195" s="1"/>
     </row>
     <row r="196" spans="1:40" ht="15.75">
-      <c r="A196" s="83" t="s">
+      <c r="A196" s="80" t="s">
         <v>170</v>
       </c>
       <c r="B196" s="41">
@@ -13633,23 +13277,23 @@
         <f t="shared" si="28"/>
         <v>3.2083750174947516</v>
       </c>
-      <c r="I196" s="132">
+      <c r="I196" s="129">
         <v>79</v>
       </c>
-      <c r="J196" s="133">
+      <c r="J196" s="130">
         <v>77.2</v>
       </c>
-      <c r="K196" s="134"/>
+      <c r="K196" s="131"/>
       <c r="L196" s="60">
         <v>1.78E-2</v>
       </c>
       <c r="M196" s="60">
         <v>1.26E-2</v>
       </c>
-      <c r="N196" s="117">
+      <c r="N196" s="114">
         <v>30</v>
       </c>
-      <c r="O196" s="81"/>
+      <c r="O196" s="78"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
@@ -13677,20 +13321,20 @@
       <c r="AN196" s="1"/>
     </row>
     <row r="197" spans="1:40" ht="15.75">
-      <c r="A197" s="81"/>
-      <c r="B197" s="81"/>
-      <c r="C197" s="81"/>
-      <c r="D197" s="81"/>
-      <c r="E197" s="81"/>
-      <c r="F197" s="81"/>
-      <c r="G197" s="81"/>
-      <c r="H197" s="81"/>
-      <c r="I197" s="81"/>
-      <c r="J197" s="81"/>
-      <c r="K197" s="81"/>
-      <c r="L197" s="81"/>
+      <c r="A197" s="78"/>
+      <c r="B197" s="78"/>
+      <c r="C197" s="78"/>
+      <c r="D197" s="78"/>
+      <c r="E197" s="78"/>
+      <c r="F197" s="78"/>
+      <c r="G197" s="78"/>
+      <c r="H197" s="78"/>
+      <c r="I197" s="78"/>
+      <c r="J197" s="78"/>
+      <c r="K197" s="78"/>
+      <c r="L197" s="78"/>
       <c r="M197" s="1"/>
-      <c r="N197" s="81"/>
+      <c r="N197" s="78"/>
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
@@ -13719,20 +13363,20 @@
       <c r="AN197" s="1"/>
     </row>
     <row r="198" spans="1:40" ht="15.75">
-      <c r="A198" s="81"/>
-      <c r="B198" s="81"/>
-      <c r="C198" s="81"/>
-      <c r="D198" s="81"/>
-      <c r="E198" s="81"/>
-      <c r="F198" s="81"/>
-      <c r="G198" s="81"/>
-      <c r="H198" s="81"/>
-      <c r="I198" s="81"/>
-      <c r="J198" s="81"/>
-      <c r="K198" s="81"/>
-      <c r="L198" s="81"/>
+      <c r="A198" s="78"/>
+      <c r="B198" s="78"/>
+      <c r="C198" s="78"/>
+      <c r="D198" s="78"/>
+      <c r="E198" s="78"/>
+      <c r="F198" s="78"/>
+      <c r="G198" s="78"/>
+      <c r="H198" s="78"/>
+      <c r="I198" s="78"/>
+      <c r="J198" s="78"/>
+      <c r="K198" s="78"/>
+      <c r="L198" s="78"/>
       <c r="M198" s="1"/>
-      <c r="N198" s="81"/>
+      <c r="N198" s="78"/>
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
@@ -13761,22 +13405,22 @@
       <c r="AN198" s="1"/>
     </row>
     <row r="199" spans="1:40" ht="15.75">
-      <c r="A199" s="75"/>
-      <c r="B199" s="75" t="s">
+      <c r="A199" s="72"/>
+      <c r="B199" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="C199" s="76"/>
-      <c r="D199" s="76"/>
-      <c r="E199" s="76"/>
-      <c r="F199" s="76"/>
-      <c r="G199" s="76"/>
-      <c r="H199" s="76"/>
-      <c r="I199" s="76"/>
-      <c r="J199" s="76"/>
-      <c r="K199" s="76"/>
-      <c r="L199" s="77"/>
+      <c r="C199" s="73"/>
+      <c r="D199" s="73"/>
+      <c r="E199" s="73"/>
+      <c r="F199" s="73"/>
+      <c r="G199" s="73"/>
+      <c r="H199" s="73"/>
+      <c r="I199" s="73"/>
+      <c r="J199" s="73"/>
+      <c r="K199" s="73"/>
+      <c r="L199" s="74"/>
       <c r="M199" s="1"/>
-      <c r="N199" s="81"/>
+      <c r="N199" s="78"/>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
@@ -13805,18 +13449,18 @@
       <c r="AN199" s="1"/>
     </row>
     <row r="200" spans="1:40" ht="15.75">
-      <c r="A200" s="82"/>
-      <c r="B200" s="83"/>
-      <c r="C200" s="84"/>
-      <c r="D200" s="84"/>
-      <c r="E200" s="84"/>
-      <c r="F200" s="84"/>
-      <c r="G200" s="84"/>
-      <c r="H200" s="84"/>
-      <c r="I200" s="84"/>
-      <c r="J200" s="84"/>
-      <c r="K200" s="84"/>
-      <c r="L200" s="85"/>
+      <c r="A200" s="79"/>
+      <c r="B200" s="80"/>
+      <c r="C200" s="81"/>
+      <c r="D200" s="81"/>
+      <c r="E200" s="81"/>
+      <c r="F200" s="81"/>
+      <c r="G200" s="81"/>
+      <c r="H200" s="81"/>
+      <c r="I200" s="81"/>
+      <c r="J200" s="81"/>
+      <c r="K200" s="81"/>
+      <c r="L200" s="82"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
@@ -13847,24 +13491,24 @@
       <c r="AN200" s="1"/>
     </row>
     <row r="201" spans="1:40" ht="15.75">
-      <c r="A201" s="82"/>
-      <c r="B201" s="135" t="s">
+      <c r="A201" s="79"/>
+      <c r="B201" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="C201" s="136"/>
-      <c r="D201" s="136"/>
-      <c r="E201" s="137"/>
-      <c r="F201" s="82" t="s">
+      <c r="C201" s="139"/>
+      <c r="D201" s="139"/>
+      <c r="E201" s="140"/>
+      <c r="F201" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="G201" s="81"/>
-      <c r="H201" s="81"/>
-      <c r="I201" s="91" t="s">
+      <c r="G201" s="78"/>
+      <c r="H201" s="78"/>
+      <c r="I201" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="J201" s="112"/>
-      <c r="K201" s="75"/>
-      <c r="L201" s="77"/>
+      <c r="J201" s="109"/>
+      <c r="K201" s="72"/>
+      <c r="L201" s="74"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
@@ -13895,10 +13539,10 @@
       <c r="AN201" s="1"/>
     </row>
     <row r="202" spans="1:40" ht="15.75">
-      <c r="A202" s="82" t="s">
+      <c r="A202" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="B202" s="91" t="s">
+      <c r="B202" s="88" t="s">
         <v>77</v>
       </c>
       <c r="C202" s="17" t="s">
@@ -13913,22 +13557,22 @@
       <c r="F202" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="G202" s="86" t="s">
+      <c r="G202" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="H202" s="86" t="s">
+      <c r="H202" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="I202" s="91" t="s">
+      <c r="I202" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="J202" s="114" t="s">
+      <c r="J202" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="K202" s="91" t="s">
+      <c r="K202" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="L202" s="87" t="s">
+      <c r="L202" s="84" t="s">
         <v>138</v>
       </c>
       <c r="M202" s="1"/>
@@ -13961,8 +13605,8 @@
       <c r="AN202" s="1"/>
     </row>
     <row r="203" spans="1:40" ht="15.75">
-      <c r="A203" s="83"/>
-      <c r="B203" s="92" t="s">
+      <c r="A203" s="80"/>
+      <c r="B203" s="89" t="s">
         <v>144</v>
       </c>
       <c r="C203" s="18" t="s">
@@ -13983,14 +13627,14 @@
       <c r="H203" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="I203" s="92" t="s">
+      <c r="I203" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="J203" s="115"/>
-      <c r="K203" s="92" t="s">
+      <c r="J203" s="112"/>
+      <c r="K203" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="L203" s="94" t="s">
+      <c r="L203" s="91" t="s">
         <v>183</v>
       </c>
       <c r="M203" s="1"/>
@@ -14023,17 +13667,17 @@
       <c r="AN203" s="1"/>
     </row>
     <row r="204" spans="1:40" ht="15.75">
-      <c r="A204" s="138" t="s">
+      <c r="A204" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="B204" s="107"/>
+      <c r="B204" s="104"/>
       <c r="C204" s="21">
         <v>84210</v>
       </c>
       <c r="D204" s="22">
         <v>9338</v>
       </c>
-      <c r="E204" s="81">
+      <c r="E204" s="78">
         <v>11194</v>
       </c>
       <c r="F204" s="21">
@@ -14050,10 +13694,10 @@
         <f>F204*0.2931/C204</f>
         <v>3.9139030708941935</v>
       </c>
-      <c r="K204" s="81">
+      <c r="K204" s="78">
         <v>62.3</v>
       </c>
-      <c r="L204" s="81">
+      <c r="L204" s="78">
         <v>76.900000000000006</v>
       </c>
       <c r="M204" s="1"/>
@@ -14086,17 +13730,17 @@
       <c r="AN204" s="1"/>
     </row>
     <row r="205" spans="1:40" ht="15.75">
-      <c r="A205" s="139" t="s">
+      <c r="A205" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="B205" s="140"/>
+      <c r="B205" s="134"/>
       <c r="C205" s="41">
         <v>112554</v>
       </c>
       <c r="D205" s="39">
         <v>10232</v>
       </c>
-      <c r="E205" s="84">
+      <c r="E205" s="81">
         <v>12344</v>
       </c>
       <c r="F205" s="41">
@@ -14116,7 +13760,7 @@
       <c r="K205" s="22">
         <v>85.1</v>
       </c>
-      <c r="L205" s="98">
+      <c r="L205" s="95">
         <v>77</v>
       </c>
       <c r="M205" s="1"/>
@@ -14149,7 +13793,7 @@
       <c r="AN205" s="1"/>
     </row>
     <row r="206" spans="1:40" ht="15.75">
-      <c r="A206" s="81"/>
+      <c r="A206" s="78"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -14191,7 +13835,7 @@
       <c r="AN206" s="1"/>
     </row>
     <row r="207" spans="1:40" ht="15.75">
-      <c r="A207" s="81"/>
+      <c r="A207" s="78"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -14233,20 +13877,20 @@
       <c r="AN207" s="1"/>
     </row>
     <row r="208" spans="1:40" ht="15.75">
-      <c r="A208" s="75"/>
-      <c r="B208" s="75" t="s">
+      <c r="A208" s="72"/>
+      <c r="B208" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="C208" s="76"/>
-      <c r="D208" s="76"/>
-      <c r="E208" s="76"/>
-      <c r="F208" s="76"/>
-      <c r="G208" s="76"/>
-      <c r="H208" s="76"/>
-      <c r="I208" s="76"/>
-      <c r="J208" s="76"/>
-      <c r="K208" s="76"/>
-      <c r="L208" s="77"/>
+      <c r="C208" s="73"/>
+      <c r="D208" s="73"/>
+      <c r="E208" s="73"/>
+      <c r="F208" s="73"/>
+      <c r="G208" s="73"/>
+      <c r="H208" s="73"/>
+      <c r="I208" s="73"/>
+      <c r="J208" s="73"/>
+      <c r="K208" s="73"/>
+      <c r="L208" s="74"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
@@ -14277,18 +13921,18 @@
       <c r="AN208" s="1"/>
     </row>
     <row r="209" spans="1:40" ht="15.75">
-      <c r="A209" s="82"/>
-      <c r="B209" s="83"/>
-      <c r="C209" s="84"/>
-      <c r="D209" s="84"/>
-      <c r="E209" s="84"/>
-      <c r="F209" s="84"/>
-      <c r="G209" s="84"/>
-      <c r="H209" s="84"/>
-      <c r="I209" s="84"/>
-      <c r="J209" s="84"/>
-      <c r="K209" s="84"/>
-      <c r="L209" s="85"/>
+      <c r="A209" s="79"/>
+      <c r="B209" s="80"/>
+      <c r="C209" s="81"/>
+      <c r="D209" s="81"/>
+      <c r="E209" s="81"/>
+      <c r="F209" s="81"/>
+      <c r="G209" s="81"/>
+      <c r="H209" s="81"/>
+      <c r="I209" s="81"/>
+      <c r="J209" s="81"/>
+      <c r="K209" s="81"/>
+      <c r="L209" s="82"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
@@ -14319,24 +13963,24 @@
       <c r="AN209" s="1"/>
     </row>
     <row r="210" spans="1:40" ht="15.75">
-      <c r="A210" s="82"/>
-      <c r="B210" s="135" t="s">
+      <c r="A210" s="79"/>
+      <c r="B210" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="C210" s="136"/>
-      <c r="D210" s="136"/>
-      <c r="E210" s="137"/>
-      <c r="F210" s="82" t="s">
+      <c r="C210" s="139"/>
+      <c r="D210" s="139"/>
+      <c r="E210" s="140"/>
+      <c r="F210" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="G210" s="81"/>
-      <c r="H210" s="81"/>
-      <c r="I210" s="91" t="s">
+      <c r="G210" s="78"/>
+      <c r="H210" s="78"/>
+      <c r="I210" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="J210" s="112"/>
-      <c r="K210" s="75"/>
-      <c r="L210" s="77"/>
+      <c r="J210" s="109"/>
+      <c r="K210" s="72"/>
+      <c r="L210" s="74"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
@@ -14367,40 +14011,40 @@
       <c r="AN210" s="1"/>
     </row>
     <row r="211" spans="1:40" ht="15.75">
-      <c r="A211" s="82" t="s">
+      <c r="A211" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="B211" s="91" t="s">
+      <c r="B211" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C211" s="91" t="s">
+      <c r="C211" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="D211" s="86" t="s">
+      <c r="D211" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="E211" s="86" t="s">
+      <c r="E211" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="F211" s="91" t="s">
+      <c r="F211" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="G211" s="86" t="s">
+      <c r="G211" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="H211" s="86" t="s">
+      <c r="H211" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="I211" s="91" t="s">
+      <c r="I211" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="J211" s="114" t="s">
+      <c r="J211" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="K211" s="91" t="s">
+      <c r="K211" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="L211" s="87" t="s">
+      <c r="L211" s="84" t="s">
         <v>138</v>
       </c>
       <c r="M211" s="1"/>
@@ -14433,36 +14077,36 @@
       <c r="AN211" s="1"/>
     </row>
     <row r="212" spans="1:40" ht="15.75">
-      <c r="A212" s="83"/>
-      <c r="B212" s="92" t="s">
+      <c r="A212" s="80"/>
+      <c r="B212" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="C212" s="92" t="s">
+      <c r="C212" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="D212" s="93" t="s">
+      <c r="D212" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="E212" s="93" t="s">
+      <c r="E212" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="F212" s="92" t="s">
+      <c r="F212" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="G212" s="92" t="s">
+      <c r="G212" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="H212" s="92" t="s">
+      <c r="H212" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="I212" s="92" t="s">
+      <c r="I212" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="J212" s="115"/>
-      <c r="K212" s="92" t="s">
+      <c r="J212" s="112"/>
+      <c r="K212" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="L212" s="94" t="s">
+      <c r="L212" s="91" t="s">
         <v>183</v>
       </c>
       <c r="M212" s="1"/>
@@ -14495,17 +14139,17 @@
       <c r="AN212" s="1"/>
     </row>
     <row r="213" spans="1:40" ht="15.75">
-      <c r="A213" s="138" t="s">
+      <c r="A213" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="B213" s="107"/>
+      <c r="B213" s="104"/>
       <c r="C213" s="21">
         <v>64825</v>
       </c>
       <c r="D213" s="22">
         <v>7467</v>
       </c>
-      <c r="E213" s="81">
+      <c r="E213" s="78">
         <v>8658</v>
       </c>
       <c r="F213" s="21">
@@ -14522,11 +14166,11 @@
         <f>F213*0.2931/C213</f>
         <v>3.5991278364828387</v>
       </c>
-      <c r="K213" s="81">
+      <c r="K213" s="78">
         <f>K204</f>
         <v>62.3</v>
       </c>
-      <c r="L213" s="81">
+      <c r="L213" s="78">
         <v>76.400000000000006</v>
       </c>
       <c r="M213" s="1"/>
@@ -14559,17 +14203,17 @@
       <c r="AN213" s="1"/>
     </row>
     <row r="214" spans="1:40" ht="15.75">
-      <c r="A214" s="139" t="s">
+      <c r="A214" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="B214" s="140"/>
+      <c r="B214" s="134"/>
       <c r="C214" s="41">
         <v>85982</v>
       </c>
       <c r="D214" s="39">
         <v>8151</v>
       </c>
-      <c r="E214" s="84">
+      <c r="E214" s="81">
         <v>9492</v>
       </c>
       <c r="F214" s="41">
@@ -14590,7 +14234,7 @@
         <f>K205</f>
         <v>85.1</v>
       </c>
-      <c r="L214" s="98">
+      <c r="L214" s="95">
         <v>76.900000000000006</v>
       </c>
       <c r="M214" s="1"/>

--- a/input/DOE21E/120/Std140_CE_b_Output.xlsx
+++ b/input/DOE21E/120/Std140_CE_b_Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\JasonGlazer--ashrae-140-automation\input\DOE21E\120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931CD997-107E-4371-8B52-71CB1B0AFBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED4ADC1-4C1F-4D16-868B-1FDF0C219F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="3870" windowWidth="40575" windowHeight="15465" xr2:uid="{6C5182BB-48B8-4F6B-8426-D0FB240A2181}"/>
+    <workbookView xWindow="2100" yWindow="780" windowWidth="33600" windowHeight="20790" xr2:uid="{6C5182BB-48B8-4F6B-8426-D0FB240A2181}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="221">
   <si>
     <t>E300OUT2.XLS, Mar 20, 2002</t>
   </si>
@@ -618,6 +618,90 @@
   </si>
   <si>
     <t>Sens+Lat</t>
+  </si>
+  <si>
+    <t>CE300</t>
+  </si>
+  <si>
+    <t>CE310</t>
+  </si>
+  <si>
+    <t>CE320</t>
+  </si>
+  <si>
+    <t>CE330</t>
+  </si>
+  <si>
+    <t>CE340</t>
+  </si>
+  <si>
+    <t>CE350</t>
+  </si>
+  <si>
+    <t>CE360</t>
+  </si>
+  <si>
+    <t>CE400</t>
+  </si>
+  <si>
+    <t>CE410</t>
+  </si>
+  <si>
+    <t>CE420</t>
+  </si>
+  <si>
+    <t>CE430</t>
+  </si>
+  <si>
+    <t>CE440</t>
+  </si>
+  <si>
+    <t>CE500</t>
+  </si>
+  <si>
+    <t>CE500 May-SCEp</t>
+  </si>
+  <si>
+    <t>CE510 May-SCEp</t>
+  </si>
+  <si>
+    <t>CE520</t>
+  </si>
+  <si>
+    <t>CE522</t>
+  </si>
+  <si>
+    <t>CE525</t>
+  </si>
+  <si>
+    <t>CE530</t>
+  </si>
+  <si>
+    <t>CE540</t>
+  </si>
+  <si>
+    <t>CE545</t>
+  </si>
+  <si>
+    <t>C E 3 0 0   O n l y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE500 </t>
+  </si>
+  <si>
+    <t>CE510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         CE300 Only, Maxima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J u n e   2 8   H o u r l y   O u t p u t   -   C a s e   C E 3 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      C a s e   C E 5 0 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      C a s e   C E 5 3 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
   </si>
 </sst>
 </file>
@@ -1533,8 +1617,8 @@
   </sheetPr>
   <dimension ref="A1:AO214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W79" sqref="W79:Y81"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1861,7 +1945,7 @@
       <c r="AB56" s="7"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="6" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
@@ -1882,7 +1966,7 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="11" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="N57" s="13"/>
       <c r="P57" s="10"/>
@@ -2131,7 +2215,7 @@
     </row>
     <row r="62" spans="1:34" ht="15.75">
       <c r="A62" s="10" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="B62" s="21">
         <f>C62+D62+E62</f>
@@ -2187,7 +2271,7 @@
       </c>
       <c r="O62" s="22"/>
       <c r="P62" s="10" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="Q62" s="23">
         <f t="shared" ref="Q62:AB77" si="2">Q146</f>
@@ -2264,7 +2348,7 @@
     </row>
     <row r="63" spans="1:34" ht="15.75">
       <c r="A63" s="10" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="B63" s="21">
         <f t="shared" ref="B63:B82" si="3">C63+D63+E63</f>
@@ -2316,7 +2400,7 @@
       <c r="N63" s="36"/>
       <c r="O63" s="22"/>
       <c r="P63" s="10" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="Q63" s="23">
         <f t="shared" si="2"/>
@@ -2375,7 +2459,7 @@
     </row>
     <row r="64" spans="1:34" ht="15.75">
       <c r="A64" s="10" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="B64" s="21">
         <f t="shared" si="3"/>
@@ -2427,7 +2511,7 @@
       <c r="N64" s="36"/>
       <c r="O64" s="22"/>
       <c r="P64" s="10" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="Q64" s="23">
         <f t="shared" si="2"/>
@@ -2480,7 +2564,7 @@
     </row>
     <row r="65" spans="1:28" ht="15.75">
       <c r="A65" s="10" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="B65" s="21">
         <f t="shared" si="3"/>
@@ -2530,7 +2614,7 @@
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
       <c r="P65" s="10" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="Q65" s="23">
         <f t="shared" si="2"/>
@@ -2583,7 +2667,7 @@
     </row>
     <row r="66" spans="1:28" ht="15.75">
       <c r="A66" s="10" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="B66" s="21">
         <f t="shared" si="3"/>
@@ -2633,7 +2717,7 @@
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
       <c r="P66" s="10" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="Q66" s="23">
         <f t="shared" si="2"/>
@@ -2686,7 +2770,7 @@
     </row>
     <row r="67" spans="1:28" ht="15.75">
       <c r="A67" s="10" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="B67" s="21">
         <f t="shared" si="3"/>
@@ -2736,7 +2820,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
       <c r="P67" s="10" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="Q67" s="23">
         <f t="shared" si="2"/>
@@ -2789,7 +2873,7 @@
     </row>
     <row r="68" spans="1:28" ht="15.75">
       <c r="A68" s="10" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="B68" s="21">
         <f t="shared" si="3"/>
@@ -2839,7 +2923,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
       <c r="P68" s="10" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="Q68" s="23">
         <f t="shared" si="2"/>
@@ -2892,7 +2976,7 @@
     </row>
     <row r="69" spans="1:28" ht="15.75">
       <c r="A69" s="10" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="B69" s="21">
         <f t="shared" si="3"/>
@@ -2942,7 +3026,7 @@
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
       <c r="P69" s="10" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="Q69" s="23">
         <f t="shared" si="2"/>
@@ -2995,7 +3079,7 @@
     </row>
     <row r="70" spans="1:28" ht="15.75">
       <c r="A70" s="10" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="B70" s="21">
         <f t="shared" si="3"/>
@@ -3045,7 +3129,7 @@
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
       <c r="P70" s="10" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="Q70" s="23">
         <f t="shared" si="2"/>
@@ -3098,7 +3182,7 @@
     </row>
     <row r="71" spans="1:28" ht="15.75">
       <c r="A71" s="10" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="B71" s="21">
         <f t="shared" si="3"/>
@@ -3148,7 +3232,7 @@
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
       <c r="P71" s="10" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="Q71" s="23">
         <f t="shared" si="2"/>
@@ -3201,7 +3285,7 @@
     </row>
     <row r="72" spans="1:28" ht="15.75">
       <c r="A72" s="10" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="B72" s="21">
         <f t="shared" si="3"/>
@@ -3251,7 +3335,7 @@
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
       <c r="P72" s="10" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="Q72" s="23">
         <f t="shared" si="2"/>
@@ -3304,7 +3388,7 @@
     </row>
     <row r="73" spans="1:28" ht="15.75">
       <c r="A73" s="10" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B73" s="21">
         <f t="shared" si="3"/>
@@ -3354,7 +3438,7 @@
       <c r="N73" s="22"/>
       <c r="O73" s="22"/>
       <c r="P73" s="10" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="Q73" s="23">
         <f t="shared" si="2"/>
@@ -3407,7 +3491,7 @@
     </row>
     <row r="74" spans="1:28" ht="15.75">
       <c r="A74" s="10" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="B74" s="21">
         <f t="shared" si="3"/>
@@ -3451,7 +3535,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
       <c r="P74" s="10" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="Q74" s="23">
         <f t="shared" si="2"/>
@@ -3504,7 +3588,7 @@
     </row>
     <row r="75" spans="1:28" ht="15.75">
       <c r="A75" s="10" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="B75" s="21">
         <f t="shared" si="3"/>
@@ -3554,7 +3638,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="10" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="Q75" s="23">
         <f t="shared" si="2"/>
@@ -3607,7 +3691,7 @@
     </row>
     <row r="76" spans="1:28" ht="15.75">
       <c r="A76" s="10" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="B76" s="21">
         <f t="shared" si="3"/>
@@ -3657,7 +3741,7 @@
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="10" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="Q76" s="23">
         <f t="shared" si="2"/>
@@ -3710,7 +3794,7 @@
     </row>
     <row r="77" spans="1:28" ht="15.75">
       <c r="A77" s="10" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="B77" s="21">
         <f t="shared" si="3"/>
@@ -3754,7 +3838,7 @@
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
       <c r="P77" s="10" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="Q77" s="23">
         <f t="shared" si="2"/>
@@ -3807,7 +3891,7 @@
     </row>
     <row r="78" spans="1:28" ht="15.75">
       <c r="A78" s="10" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="B78" s="21">
         <f t="shared" si="3"/>
@@ -3851,7 +3935,7 @@
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
       <c r="P78" s="10" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="Q78" s="23">
         <f t="shared" ref="Q78:AB81" si="11">Q162</f>
@@ -3904,7 +3988,7 @@
     </row>
     <row r="79" spans="1:28" ht="15.75">
       <c r="A79" s="10" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="B79" s="21">
         <f t="shared" si="3"/>
@@ -3948,7 +4032,7 @@
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
       <c r="P79" s="10" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="Q79" s="23">
         <f t="shared" si="11"/>
@@ -3992,7 +4076,7 @@
     </row>
     <row r="80" spans="1:28" ht="15.75">
       <c r="A80" s="10" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="B80" s="21">
         <f t="shared" si="3"/>
@@ -4036,7 +4120,7 @@
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
       <c r="P80" s="10" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="Q80" s="23">
         <f t="shared" si="11"/>
@@ -4080,7 +4164,7 @@
     </row>
     <row r="81" spans="1:40" ht="15.75">
       <c r="A81" s="10" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="B81" s="21">
         <f t="shared" si="3"/>
@@ -4124,7 +4208,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
       <c r="P81" s="11" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="Q81" s="23">
         <f t="shared" si="11"/>
@@ -4168,7 +4252,7 @@
     </row>
     <row r="82" spans="1:40" ht="15.75">
       <c r="A82" s="11" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="B82" s="41">
         <f t="shared" si="3"/>
@@ -4218,7 +4302,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -4586,7 +4670,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P89" s="10" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="Q89" s="25">
         <f t="shared" ref="Q89:AN99" si="14">Q173</f>
@@ -4741,7 +4825,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P90" s="10" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="Q90" s="25">
         <f t="shared" si="14"/>
@@ -4896,7 +4980,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P91" s="10" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="Q91" s="25">
         <f t="shared" si="14"/>
@@ -5051,7 +5135,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P92" s="10" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="Q92" s="25">
         <f t="shared" si="14"/>
@@ -5206,7 +5290,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P93" s="10" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="Q93" s="25">
         <f t="shared" si="14"/>
@@ -5361,7 +5445,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P94" s="10" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="Q94" s="25">
         <f t="shared" si="14"/>
@@ -5516,7 +5600,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P95" s="10" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="Q95" s="25">
         <f t="shared" si="14"/>
@@ -5671,7 +5755,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P96" s="10" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="Q96" s="25">
         <f t="shared" si="14"/>
@@ -5826,7 +5910,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P97" s="10" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="Q97" s="25">
         <f t="shared" si="14"/>
@@ -5981,7 +6065,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P98" s="10" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="Q98" s="25">
         <f t="shared" si="14"/>
@@ -6136,7 +6220,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P99" s="10" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="Q99" s="25">
         <f t="shared" si="14"/>
@@ -6291,7 +6375,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P100" s="11" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="Q100" s="25">
         <f t="shared" ref="Q100:AN108" si="24">Q184</f>
@@ -6446,7 +6530,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P101" s="10" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="Q101" s="25">
         <f t="shared" si="24"/>
@@ -6574,7 +6658,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P102" s="10" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="Q102" s="25">
         <f t="shared" si="24"/>
@@ -6702,7 +6786,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P103" s="10" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="Q103" s="25">
         <f t="shared" si="24"/>
@@ -6830,7 +6914,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P104" s="10" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="Q104" s="25">
         <f t="shared" si="24"/>
@@ -6958,7 +7042,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P105" s="10" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="Q105" s="25">
         <f t="shared" si="24"/>
@@ -7086,7 +7170,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P106" s="10" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="Q106" s="25">
         <f t="shared" si="24"/>
@@ -7214,7 +7298,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P107" s="10" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="Q107" s="25">
         <f t="shared" si="24"/>
@@ -7342,7 +7426,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P108" s="11" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="Q108" s="25">
         <f t="shared" si="24"/>
@@ -7641,7 +7725,7 @@
     <row r="115" spans="1:12">
       <c r="A115" s="5"/>
       <c r="B115" s="5" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -7859,7 +7943,7 @@
     <row r="124" spans="1:12">
       <c r="A124" s="5"/>
       <c r="B124" s="5" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>

--- a/input/DOE21E/120/Std140_CE_b_Output.xlsx
+++ b/input/DOE21E/120/Std140_CE_b_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\JasonGlazer--ashrae-140-automation\input\DOE21E\120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED4ADC1-4C1F-4D16-868B-1FDF0C219F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A98DD3-253C-4C5F-A676-AEF6D2575CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="780" windowWidth="33600" windowHeight="20790" xr2:uid="{6C5182BB-48B8-4F6B-8426-D0FB240A2181}"/>
+    <workbookView xWindow="2880" yWindow="810" windowWidth="33600" windowHeight="20790" xr2:uid="{6C5182BB-48B8-4F6B-8426-D0FB240A2181}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -659,12 +659,6 @@
     <t>CE500</t>
   </si>
   <si>
-    <t>CE500 May-SCEp</t>
-  </si>
-  <si>
-    <t>CE510 May-SCEp</t>
-  </si>
-  <si>
     <t>CE520</t>
   </si>
   <si>
@@ -702,6 +696,12 @@
   </si>
   <si>
     <t xml:space="preserve">      C a s e   C E 5 3 0   A v e r a g e   D a i l y   O u t p u t s  -  f(ODB) sensitivity</t>
+  </si>
+  <si>
+    <t>CE500 May-Sep</t>
+  </si>
+  <si>
+    <t>CE510 May-Sep</t>
   </si>
 </sst>
 </file>
@@ -1617,8 +1617,8 @@
   </sheetPr>
   <dimension ref="A1:AO214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1945,7 +1945,7 @@
       <c r="AB56" s="7"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AE56" s="6"/>
       <c r="AF56" s="6"/>
@@ -1966,7 +1966,7 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N57" s="13"/>
       <c r="P57" s="10"/>
@@ -3535,7 +3535,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
       <c r="P74" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q74" s="23">
         <f t="shared" si="2"/>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="75" spans="1:28" ht="15.75">
       <c r="A75" s="10" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B75" s="21">
         <f t="shared" si="3"/>
@@ -3638,7 +3638,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
       <c r="P75" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q75" s="23">
         <f t="shared" si="2"/>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="76" spans="1:28" ht="15.75">
       <c r="A76" s="10" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B76" s="21">
         <f t="shared" si="3"/>
@@ -3741,7 +3741,7 @@
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
       <c r="P76" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q76" s="23">
         <f t="shared" si="2"/>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="77" spans="1:28" ht="15.75">
       <c r="A77" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B77" s="21">
         <f t="shared" si="3"/>
@@ -3838,7 +3838,7 @@
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
       <c r="P77" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q77" s="23">
         <f t="shared" si="2"/>
@@ -3891,7 +3891,7 @@
     </row>
     <row r="78" spans="1:28" ht="15.75">
       <c r="A78" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B78" s="21">
         <f t="shared" si="3"/>
@@ -3935,7 +3935,7 @@
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
       <c r="P78" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q78" s="23">
         <f t="shared" ref="Q78:AB81" si="11">Q162</f>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="79" spans="1:28" ht="15.75">
       <c r="A79" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B79" s="21">
         <f t="shared" si="3"/>
@@ -4032,7 +4032,7 @@
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
       <c r="P79" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q79" s="23">
         <f t="shared" si="11"/>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="80" spans="1:28" ht="15.75">
       <c r="A80" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B80" s="21">
         <f t="shared" si="3"/>
@@ -4120,7 +4120,7 @@
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
       <c r="P80" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q80" s="23">
         <f t="shared" si="11"/>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="81" spans="1:40" ht="15.75">
       <c r="A81" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B81" s="21">
         <f t="shared" si="3"/>
@@ -4208,7 +4208,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
       <c r="P81" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q81" s="23">
         <f t="shared" si="11"/>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="82" spans="1:40" ht="15.75">
       <c r="A82" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B82" s="41">
         <f t="shared" si="3"/>
@@ -4302,7 +4302,7 @@
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
@@ -6530,7 +6530,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P101" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q101" s="25">
         <f t="shared" si="24"/>
@@ -6658,7 +6658,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P102" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q102" s="25">
         <f t="shared" si="24"/>
@@ -6786,7 +6786,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P103" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q103" s="25">
         <f t="shared" si="24"/>
@@ -6914,7 +6914,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P104" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q104" s="25">
         <f t="shared" si="24"/>
@@ -7042,7 +7042,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P105" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q105" s="25">
         <f t="shared" si="24"/>
@@ -7170,7 +7170,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P106" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q106" s="25">
         <f t="shared" si="24"/>
@@ -7298,7 +7298,7 @@
         <v>101254.86534273588</v>
       </c>
       <c r="P107" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q107" s="25">
         <f t="shared" si="24"/>
@@ -7426,7 +7426,7 @@
         <v>101593.51037732697</v>
       </c>
       <c r="P108" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q108" s="25">
         <f t="shared" si="24"/>
@@ -7725,7 +7725,7 @@
     <row r="115" spans="1:12">
       <c r="A115" s="5"/>
       <c r="B115" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -7943,7 +7943,7 @@
     <row r="124" spans="1:12">
       <c r="A124" s="5"/>
       <c r="B124" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>

--- a/input/DOE21E/120/Std140_CE_b_Output.xlsx
+++ b/input/DOE21E/120/Std140_CE_b_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\JasonGlazer--ashrae-140-automation\input\DOE21E\120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A98DD3-253C-4C5F-A676-AEF6D2575CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700F8CCD-00DD-4993-B54E-FC967977F796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="810" windowWidth="33600" windowHeight="20790" xr2:uid="{6C5182BB-48B8-4F6B-8426-D0FB240A2181}"/>
+    <workbookView xWindow="32655" yWindow="165" windowWidth="33600" windowHeight="20790" xr2:uid="{6C5182BB-48B8-4F6B-8426-D0FB240A2181}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -1618,7 +1618,7 @@
   <dimension ref="A1:AO214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:A76"/>
+      <selection activeCell="X80" sqref="X80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4058,9 +4058,18 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="W79" s="23"/>
-      <c r="X79" s="30"/>
-      <c r="Y79" s="22"/>
+      <c r="W79" s="23">
+        <f t="shared" ref="W79:Y79" si="12">W163</f>
+        <v>0</v>
+      </c>
+      <c r="X79" s="30">
+        <f>U79</f>
+        <v>37370</v>
+      </c>
+      <c r="Y79" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Z79" s="23">
         <f t="shared" si="11"/>
         <v>19575</v>
@@ -4146,9 +4155,18 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="W80" s="23"/>
-      <c r="X80" s="30"/>
-      <c r="Y80" s="22"/>
+      <c r="W80" s="23">
+        <f t="shared" ref="W80:Y80" si="13">W164</f>
+        <v>0</v>
+      </c>
+      <c r="X80" s="30">
+        <f t="shared" ref="X80:X81" si="14">U80</f>
+        <v>37370</v>
+      </c>
+      <c r="Y80" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="Z80" s="23">
         <f t="shared" si="11"/>
         <v>19766</v>
@@ -4234,9 +4252,18 @@
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="W81" s="23"/>
-      <c r="X81" s="38"/>
-      <c r="Y81" s="39"/>
+      <c r="W81" s="23">
+        <f t="shared" ref="W81:Y81" si="15">W165</f>
+        <v>0</v>
+      </c>
+      <c r="X81" s="30">
+        <f t="shared" si="14"/>
+        <v>37370</v>
+      </c>
+      <c r="Y81" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="Z81" s="23">
         <f t="shared" si="11"/>
         <v>19474</v>
@@ -4639,19 +4666,19 @@
         <v>1658.0667000000001</v>
       </c>
       <c r="G89" s="53">
-        <f t="shared" ref="G89:H104" si="12">G173</f>
+        <f t="shared" ref="G89:H104" si="16">G173</f>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="H89" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.5405819802909435</v>
       </c>
       <c r="I89" s="55">
-        <f t="shared" ref="I89:J104" si="13">(I173-32)/180*100</f>
+        <f t="shared" ref="I89:J104" si="17">(I173-32)/180*100</f>
         <v>17.777777777777779</v>
       </c>
       <c r="J89" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.833333333333336</v>
       </c>
       <c r="K89" s="55">
@@ -4673,99 +4700,99 @@
         <v>193</v>
       </c>
       <c r="Q89" s="25">
-        <f t="shared" ref="Q89:AN99" si="14">Q173</f>
+        <f t="shared" ref="Q89:AN99" si="18">Q173</f>
         <v>3.8570000000000002</v>
       </c>
       <c r="R89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37376</v>
       </c>
       <c r="S89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="T89" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.8010000000000002</v>
       </c>
       <c r="U89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37956</v>
       </c>
       <c r="V89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="W89" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>25.11</v>
       </c>
       <c r="X89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37368</v>
       </c>
       <c r="Y89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="Z89" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.83</v>
       </c>
       <c r="AA89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36897</v>
       </c>
       <c r="AB89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="AC89" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.37E-2</v>
       </c>
       <c r="AD89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37941</v>
       </c>
       <c r="AE89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="AF89" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36895</v>
       </c>
       <c r="AH89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="AI89" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>68.849999999999994</v>
       </c>
       <c r="AJ89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37941</v>
       </c>
       <c r="AK89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="AL89" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11.97</v>
       </c>
       <c r="AM89" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37566</v>
       </c>
       <c r="AN89" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
@@ -4774,39 +4801,39 @@
         <v>149</v>
       </c>
       <c r="B90" s="21">
-        <f t="shared" ref="B90:B112" si="15">B174-C90</f>
+        <f t="shared" ref="B90:B112" si="19">B174-C90</f>
         <v>1941</v>
       </c>
       <c r="C90" s="22">
-        <f t="shared" ref="C90:C112" si="16">C174</f>
+        <f t="shared" ref="C90:C112" si="20">C174</f>
         <v>241</v>
       </c>
       <c r="D90" s="23">
-        <f t="shared" ref="D90:D112" si="17">D174*0.2931</f>
+        <f t="shared" ref="D90:D112" si="21">D174*0.2931</f>
         <v>7627.0482000000011</v>
       </c>
       <c r="E90" s="24">
-        <f t="shared" ref="E90:E112" si="18">D90-F90</f>
+        <f t="shared" ref="E90:E112" si="22">D90-F90</f>
         <v>6067.170000000001</v>
       </c>
       <c r="F90" s="24">
-        <f t="shared" ref="F90:F112" si="19">F174*0.2931</f>
+        <f t="shared" ref="F90:F112" si="23">F174*0.2931</f>
         <v>1559.8782000000001</v>
       </c>
       <c r="G90" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="H90" s="54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3.4954391384051333</v>
       </c>
       <c r="I90" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>18.333333333333332</v>
       </c>
       <c r="J90" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.944444444444439</v>
       </c>
       <c r="K90" s="55">
@@ -4817,110 +4844,110 @@
         <v>1.12E-2</v>
       </c>
       <c r="M90" s="57">
-        <f t="shared" ref="M90:M112" si="20">M174</f>
+        <f t="shared" ref="M90:M112" si="24">M174</f>
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="N90" s="58">
-        <f t="shared" ref="N90:N112" si="21">N174*(14.696/29.921)*(6894.8/1)</f>
+        <f t="shared" ref="N90:N112" si="25">N174*(14.696/29.921)*(6894.8/1)</f>
         <v>101254.86534273588</v>
       </c>
       <c r="P90" s="10" t="s">
         <v>194</v>
       </c>
       <c r="Q90" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.1280000000000001</v>
       </c>
       <c r="R90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37376</v>
       </c>
       <c r="S90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="T90" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.851</v>
       </c>
       <c r="U90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37591</v>
       </c>
       <c r="V90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="W90" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>26.72</v>
       </c>
       <c r="X90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37457</v>
       </c>
       <c r="Y90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="Z90" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.83</v>
       </c>
       <c r="AA90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36897</v>
       </c>
       <c r="AB90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="AC90" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.89E-2</v>
       </c>
       <c r="AD90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37544</v>
       </c>
       <c r="AE90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="AF90" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36895</v>
       </c>
       <c r="AH90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="AI90" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100.7</v>
       </c>
       <c r="AJ90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37544</v>
       </c>
       <c r="AK90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="AL90" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11.97</v>
       </c>
       <c r="AM90" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37566</v>
       </c>
       <c r="AN90" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
@@ -4929,153 +4956,153 @@
         <v>150</v>
       </c>
       <c r="B91" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1894</v>
       </c>
       <c r="C91" s="22">
+        <f t="shared" si="20"/>
+        <v>237</v>
+      </c>
+      <c r="D91" s="23">
+        <f t="shared" si="21"/>
+        <v>7546.1526000000003</v>
+      </c>
+      <c r="E91" s="24">
+        <f t="shared" si="22"/>
+        <v>5878.1205</v>
+      </c>
+      <c r="F91" s="24">
+        <f t="shared" si="23"/>
+        <v>1668.0321000000001</v>
+      </c>
+      <c r="G91" s="53">
         <f t="shared" si="16"/>
-        <v>237</v>
-      </c>
-      <c r="D91" s="23">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="H91" s="54">
+        <f t="shared" si="16"/>
+        <v>3.541132144533083</v>
+      </c>
+      <c r="I91" s="55">
         <f t="shared" si="17"/>
-        <v>7546.1526000000003</v>
-      </c>
-      <c r="E91" s="24">
-        <f t="shared" si="18"/>
-        <v>5878.1205</v>
-      </c>
-      <c r="F91" s="24">
-        <f t="shared" si="19"/>
-        <v>1668.0321000000001</v>
-      </c>
-      <c r="G91" s="53">
-        <f t="shared" si="12"/>
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="H91" s="54">
-        <f t="shared" si="12"/>
-        <v>3.541132144533083</v>
-      </c>
-      <c r="I91" s="55">
-        <f t="shared" si="13"/>
         <v>17.777777777777779</v>
       </c>
       <c r="J91" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.833333333333336</v>
       </c>
       <c r="K91" s="55">
         <v>17.37</v>
       </c>
       <c r="L91" s="60">
-        <f t="shared" ref="L91:L112" si="22">L175</f>
+        <f t="shared" ref="L91:L112" si="26">L175</f>
         <v>1.14E-2</v>
       </c>
       <c r="M91" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="N91" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P91" s="10" t="s">
         <v>195</v>
       </c>
       <c r="Q91" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.9669999999999996</v>
       </c>
       <c r="R91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37531</v>
       </c>
       <c r="S91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="T91" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.8050000000000002</v>
       </c>
       <c r="U91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37956</v>
       </c>
       <c r="V91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="W91" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>31.5</v>
       </c>
       <c r="X91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37810</v>
       </c>
       <c r="Y91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="Z91" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10.78</v>
       </c>
       <c r="AA91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36897</v>
       </c>
       <c r="AB91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="AC91" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.7600000000000001E-2</v>
       </c>
       <c r="AD91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37447</v>
       </c>
       <c r="AE91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="AF91" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36895</v>
       </c>
       <c r="AH91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="AI91" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>83.67</v>
       </c>
       <c r="AJ91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37733</v>
       </c>
       <c r="AK91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="AL91" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11.97</v>
       </c>
       <c r="AM91" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37566</v>
       </c>
       <c r="AN91" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
@@ -5084,153 +5111,153 @@
         <v>151</v>
       </c>
       <c r="B92" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1890</v>
       </c>
       <c r="C92" s="22">
+        <f t="shared" si="20"/>
+        <v>236</v>
+      </c>
+      <c r="D92" s="23">
+        <f t="shared" si="21"/>
+        <v>7528.2735000000011</v>
+      </c>
+      <c r="E92" s="24">
+        <f t="shared" si="22"/>
+        <v>5873.4309000000012</v>
+      </c>
+      <c r="F92" s="24">
+        <f t="shared" si="23"/>
+        <v>1654.8426000000002</v>
+      </c>
+      <c r="G92" s="53">
         <f t="shared" si="16"/>
-        <v>236</v>
-      </c>
-      <c r="D92" s="23">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="H92" s="54">
+        <f t="shared" si="16"/>
+        <v>3.5410505644402641</v>
+      </c>
+      <c r="I92" s="55">
         <f t="shared" si="17"/>
-        <v>7528.2735000000011</v>
-      </c>
-      <c r="E92" s="24">
-        <f t="shared" si="18"/>
-        <v>5873.4309000000012</v>
-      </c>
-      <c r="F92" s="24">
-        <f t="shared" si="19"/>
-        <v>1654.8426000000002</v>
-      </c>
-      <c r="G92" s="53">
-        <f t="shared" si="12"/>
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="H92" s="54">
-        <f t="shared" si="12"/>
-        <v>3.5410505644402641</v>
-      </c>
-      <c r="I92" s="55">
-        <f t="shared" si="13"/>
         <v>17.777777777777779</v>
       </c>
       <c r="J92" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.833333333333336</v>
       </c>
       <c r="K92" s="55">
         <v>17.37</v>
       </c>
       <c r="L92" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.14E-2</v>
       </c>
       <c r="M92" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>9.7000000000000003E-3</v>
       </c>
       <c r="N92" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P92" s="10" t="s">
         <v>196</v>
       </c>
       <c r="Q92" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>5.5949999999999998</v>
       </c>
       <c r="R92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37531</v>
       </c>
       <c r="S92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="T92" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.8010000000000002</v>
       </c>
       <c r="U92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37956</v>
       </c>
       <c r="V92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="W92" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="X92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37822</v>
       </c>
       <c r="Y92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="Z92" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.83</v>
       </c>
       <c r="AA92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36897</v>
       </c>
       <c r="AB92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="AC92" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.77E-2</v>
       </c>
       <c r="AD92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37447</v>
       </c>
       <c r="AE92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="AF92" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36895</v>
       </c>
       <c r="AH92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="AI92" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>77.94</v>
       </c>
       <c r="AJ92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37882</v>
       </c>
       <c r="AK92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="AL92" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11.97</v>
       </c>
       <c r="AM92" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37566</v>
       </c>
       <c r="AN92" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
@@ -5239,153 +5266,153 @@
         <v>152</v>
       </c>
       <c r="B93" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1694</v>
       </c>
       <c r="C93" s="22">
+        <f t="shared" si="20"/>
+        <v>215</v>
+      </c>
+      <c r="D93" s="23">
+        <f t="shared" si="21"/>
+        <v>6753.0240000000003</v>
+      </c>
+      <c r="E93" s="24">
+        <f t="shared" si="22"/>
+        <v>5671.7781000000004</v>
+      </c>
+      <c r="F93" s="24">
+        <f t="shared" si="23"/>
+        <v>1081.2459000000001</v>
+      </c>
+      <c r="G93" s="53">
         <f t="shared" si="16"/>
-        <v>215</v>
-      </c>
-      <c r="D93" s="23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H93" s="54">
+        <f t="shared" si="16"/>
+        <v>3.5374667365112624</v>
+      </c>
+      <c r="I93" s="55">
         <f t="shared" si="17"/>
-        <v>6753.0240000000003</v>
-      </c>
-      <c r="E93" s="24">
-        <f t="shared" si="18"/>
-        <v>5671.7781000000004</v>
-      </c>
-      <c r="F93" s="24">
-        <f t="shared" si="19"/>
-        <v>1081.2459000000001</v>
-      </c>
-      <c r="G93" s="53">
-        <f t="shared" si="12"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H93" s="54">
-        <f t="shared" si="12"/>
-        <v>3.5374667365112624</v>
-      </c>
-      <c r="I93" s="55">
-        <f t="shared" si="13"/>
         <v>17.222222222222221</v>
       </c>
       <c r="J93" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.777777777777775</v>
       </c>
       <c r="K93" s="55">
         <v>16.940000000000001</v>
       </c>
       <c r="L93" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.03E-2</v>
       </c>
       <c r="M93" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="N93" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P93" s="10" t="s">
         <v>197</v>
       </c>
       <c r="Q93" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>5.3390000000000004</v>
       </c>
       <c r="R93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37531</v>
       </c>
       <c r="S93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="T93" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.8010000000000002</v>
       </c>
       <c r="U93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37956</v>
       </c>
       <c r="V93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="W93" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>31.56</v>
       </c>
       <c r="X93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37810</v>
       </c>
       <c r="Y93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="Z93" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.83</v>
       </c>
       <c r="AA93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36897</v>
       </c>
       <c r="AB93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="AC93" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="AD93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37447</v>
       </c>
       <c r="AE93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="AF93" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36895</v>
       </c>
       <c r="AH93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="AI93" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>81.260000000000005</v>
       </c>
       <c r="AJ93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37733</v>
       </c>
       <c r="AK93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="AL93" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11.97</v>
       </c>
       <c r="AM93" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37566</v>
       </c>
       <c r="AN93" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
@@ -5394,153 +5421,153 @@
         <v>153</v>
       </c>
       <c r="B94" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2133</v>
       </c>
       <c r="C94" s="22">
+        <f t="shared" si="20"/>
+        <v>259</v>
+      </c>
+      <c r="D94" s="23">
+        <f t="shared" si="21"/>
+        <v>8185.1106000000009</v>
+      </c>
+      <c r="E94" s="24">
+        <f t="shared" si="22"/>
+        <v>6438.5277000000006</v>
+      </c>
+      <c r="F94" s="24">
+        <f t="shared" si="23"/>
+        <v>1746.5829000000001</v>
+      </c>
+      <c r="G94" s="53">
         <f t="shared" si="16"/>
-        <v>259</v>
-      </c>
-      <c r="D94" s="23">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="H94" s="54">
+        <f t="shared" si="16"/>
+        <v>3.4218689799331106</v>
+      </c>
+      <c r="I94" s="55">
         <f t="shared" si="17"/>
-        <v>8185.1106000000009</v>
-      </c>
-      <c r="E94" s="24">
-        <f t="shared" si="18"/>
-        <v>6438.5277000000006</v>
-      </c>
-      <c r="F94" s="24">
-        <f t="shared" si="19"/>
-        <v>1746.5829000000001</v>
-      </c>
-      <c r="G94" s="53">
-        <f t="shared" si="12"/>
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="H94" s="54">
-        <f t="shared" si="12"/>
-        <v>3.4218689799331106</v>
-      </c>
-      <c r="I94" s="55">
-        <f t="shared" si="13"/>
         <v>19.444444444444446</v>
       </c>
       <c r="J94" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.111111111111114</v>
       </c>
       <c r="K94" s="55">
         <v>17.3</v>
       </c>
       <c r="L94" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="M94" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="N94" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P94" s="10" t="s">
         <v>198</v>
       </c>
       <c r="Q94" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.863</v>
       </c>
       <c r="R94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>38265</v>
       </c>
       <c r="S94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="T94" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.8010000000000002</v>
       </c>
       <c r="U94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37956</v>
       </c>
       <c r="V94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="W94" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>34.94</v>
       </c>
       <c r="X94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>38162</v>
       </c>
       <c r="Y94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="Z94" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.83</v>
       </c>
       <c r="AA94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36897</v>
       </c>
       <c r="AB94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="AC94" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.9900000000000001E-2</v>
       </c>
       <c r="AD94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37470</v>
       </c>
       <c r="AE94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="AF94" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36895</v>
       </c>
       <c r="AH94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="AI94" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>81.12</v>
       </c>
       <c r="AJ94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37840</v>
       </c>
       <c r="AK94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="AL94" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11.97</v>
       </c>
       <c r="AM94" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37566</v>
       </c>
       <c r="AN94" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
@@ -5549,153 +5576,153 @@
         <v>154</v>
       </c>
       <c r="B95" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3223</v>
       </c>
       <c r="C95" s="22">
+        <f t="shared" si="20"/>
+        <v>353</v>
+      </c>
+      <c r="D95" s="23">
+        <f t="shared" si="21"/>
+        <v>11232.764400000002</v>
+      </c>
+      <c r="E95" s="24">
+        <f t="shared" si="22"/>
+        <v>8347.781100000002</v>
+      </c>
+      <c r="F95" s="24">
+        <f t="shared" si="23"/>
+        <v>2884.9833000000003</v>
+      </c>
+      <c r="G95" s="53">
         <f t="shared" si="16"/>
-        <v>353</v>
-      </c>
-      <c r="D95" s="23">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H95" s="54">
+        <f t="shared" si="16"/>
+        <v>3.1411533557046987</v>
+      </c>
+      <c r="I95" s="55">
         <f t="shared" si="17"/>
-        <v>11232.764400000002</v>
-      </c>
-      <c r="E95" s="24">
-        <f t="shared" si="18"/>
-        <v>8347.781100000002</v>
-      </c>
-      <c r="F95" s="24">
-        <f t="shared" si="19"/>
-        <v>2884.9833000000003</v>
-      </c>
-      <c r="G95" s="53">
-        <f t="shared" si="12"/>
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="H95" s="54">
-        <f t="shared" si="12"/>
-        <v>3.1411533557046987</v>
-      </c>
-      <c r="I95" s="55">
-        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="J95" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.944444444444446</v>
       </c>
       <c r="K95" s="55">
         <v>18.23</v>
       </c>
       <c r="L95" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="M95" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.03E-2</v>
       </c>
       <c r="N95" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P95" s="10" t="s">
         <v>199</v>
       </c>
       <c r="Q95" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.4269999999999996</v>
       </c>
       <c r="R95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37533</v>
       </c>
       <c r="S95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="T95" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.8010000000000002</v>
       </c>
       <c r="U95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37956</v>
       </c>
       <c r="V95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="W95" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>32.56</v>
       </c>
       <c r="X95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>38188</v>
       </c>
       <c r="Y95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="Z95" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.83</v>
       </c>
       <c r="AA95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36897</v>
       </c>
       <c r="AB95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="AC95" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.37E-2</v>
       </c>
       <c r="AD95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37941</v>
       </c>
       <c r="AE95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="AF95" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36895</v>
       </c>
       <c r="AH95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="AI95" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>68.849999999999994</v>
       </c>
       <c r="AJ95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37941</v>
       </c>
       <c r="AK95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="AL95" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11.97</v>
       </c>
       <c r="AM95" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37566</v>
       </c>
       <c r="AN95" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
@@ -5704,153 +5731,153 @@
         <v>155</v>
       </c>
       <c r="B96" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3145</v>
       </c>
       <c r="C96" s="22">
+        <f t="shared" si="20"/>
+        <v>335</v>
+      </c>
+      <c r="D96" s="23">
+        <f t="shared" si="21"/>
+        <v>10271.6895</v>
+      </c>
+      <c r="E96" s="24">
+        <f t="shared" si="22"/>
+        <v>9069.1002000000008</v>
+      </c>
+      <c r="F96" s="24">
+        <f t="shared" si="23"/>
+        <v>1202.5893000000001</v>
+      </c>
+      <c r="G96" s="53">
         <f t="shared" si="16"/>
-        <v>335</v>
-      </c>
-      <c r="D96" s="23">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="H96" s="54">
+        <f t="shared" si="16"/>
+        <v>2.9516349137931037</v>
+      </c>
+      <c r="I96" s="55">
         <f t="shared" si="17"/>
-        <v>10271.6895</v>
-      </c>
-      <c r="E96" s="24">
-        <f t="shared" si="18"/>
-        <v>9069.1002000000008</v>
-      </c>
-      <c r="F96" s="24">
-        <f t="shared" si="19"/>
-        <v>1202.5893000000001</v>
-      </c>
-      <c r="G96" s="53">
-        <f t="shared" si="12"/>
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="H96" s="54">
-        <f t="shared" si="12"/>
-        <v>2.9516349137931037</v>
-      </c>
-      <c r="I96" s="55">
-        <f t="shared" si="13"/>
         <v>27.222222222222221</v>
       </c>
       <c r="J96" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>25.277777777777779</v>
       </c>
       <c r="K96" s="55">
         <v>17.78</v>
       </c>
       <c r="L96" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.09E-2</v>
       </c>
       <c r="M96" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="N96" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P96" s="10" t="s">
         <v>200</v>
       </c>
       <c r="Q96" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4.7759999999999998</v>
       </c>
       <c r="R96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37882</v>
       </c>
       <c r="S96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="T96" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.7349999999999999</v>
       </c>
       <c r="U96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37958</v>
       </c>
       <c r="V96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="W96" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>28.83</v>
       </c>
       <c r="X96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37517</v>
       </c>
       <c r="Y96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="Z96" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.83</v>
       </c>
       <c r="AA96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36897</v>
       </c>
       <c r="AB96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="AC96" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AD96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37716</v>
       </c>
       <c r="AE96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="AF96" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36895</v>
       </c>
       <c r="AH96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="AI96" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>85.57</v>
       </c>
       <c r="AJ96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37716</v>
       </c>
       <c r="AK96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="AL96" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11.97</v>
       </c>
       <c r="AM96" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37566</v>
       </c>
       <c r="AN96" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
@@ -5859,153 +5886,153 @@
         <v>156</v>
       </c>
       <c r="B97" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4526</v>
       </c>
       <c r="C97" s="22">
+        <f t="shared" si="20"/>
+        <v>467</v>
+      </c>
+      <c r="D97" s="23">
+        <f t="shared" si="21"/>
+        <v>14844.049500000001</v>
+      </c>
+      <c r="E97" s="24">
+        <f t="shared" si="22"/>
+        <v>11875.239600000001</v>
+      </c>
+      <c r="F97" s="24">
+        <f t="shared" si="23"/>
+        <v>2968.8099000000002</v>
+      </c>
+      <c r="G97" s="53">
         <f t="shared" si="16"/>
-        <v>467</v>
-      </c>
-      <c r="D97" s="23">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H97" s="54">
+        <f t="shared" si="16"/>
+        <v>2.9729720608852395</v>
+      </c>
+      <c r="I97" s="55">
         <f t="shared" si="17"/>
-        <v>14844.049500000001</v>
-      </c>
-      <c r="E97" s="24">
-        <f t="shared" si="18"/>
-        <v>11875.239600000001</v>
-      </c>
-      <c r="F97" s="24">
-        <f t="shared" si="19"/>
-        <v>2968.8099000000002</v>
-      </c>
-      <c r="G97" s="53">
-        <f t="shared" si="12"/>
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="H97" s="54">
-        <f t="shared" si="12"/>
-        <v>2.9729720608852395</v>
-      </c>
-      <c r="I97" s="55">
-        <f t="shared" si="13"/>
         <v>28.888888888888886</v>
       </c>
       <c r="J97" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>25.555555555555554</v>
       </c>
       <c r="K97" s="55">
         <v>18.28</v>
       </c>
       <c r="L97" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.17E-2</v>
       </c>
       <c r="M97" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.01E-2</v>
       </c>
       <c r="N97" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P97" s="10" t="s">
         <v>201</v>
       </c>
       <c r="Q97" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.855</v>
       </c>
       <c r="R97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37376</v>
       </c>
       <c r="S97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="T97" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.8010000000000002</v>
       </c>
       <c r="U97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37956</v>
       </c>
       <c r="V97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="W97" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>25.11</v>
       </c>
       <c r="X97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37368</v>
       </c>
       <c r="Y97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="Z97" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.83</v>
       </c>
       <c r="AA97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36897</v>
       </c>
       <c r="AB97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="AC97" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="AD97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37348</v>
       </c>
       <c r="AE97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="AF97" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36895</v>
       </c>
       <c r="AH97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="AI97" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>84.79</v>
       </c>
       <c r="AJ97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37348</v>
       </c>
       <c r="AK97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="AL97" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11.97</v>
       </c>
       <c r="AM97" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37566</v>
       </c>
       <c r="AN97" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
@@ -6014,153 +6041,153 @@
         <v>157</v>
       </c>
       <c r="B98" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4655</v>
       </c>
       <c r="C98" s="22">
+        <f t="shared" si="20"/>
+        <v>478</v>
+      </c>
+      <c r="D98" s="23">
+        <f t="shared" si="21"/>
+        <v>15392.732700000002</v>
+      </c>
+      <c r="E98" s="24">
+        <f t="shared" si="22"/>
+        <v>12041.134200000002</v>
+      </c>
+      <c r="F98" s="24">
+        <f t="shared" si="23"/>
+        <v>3351.5985000000005</v>
+      </c>
+      <c r="G98" s="53">
         <f t="shared" si="16"/>
-        <v>478</v>
-      </c>
-      <c r="D98" s="23">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H98" s="54">
+        <f t="shared" si="16"/>
+        <v>2.9987790181180602</v>
+      </c>
+      <c r="I98" s="55">
         <f t="shared" si="17"/>
-        <v>15392.732700000002</v>
-      </c>
-      <c r="E98" s="24">
-        <f t="shared" si="18"/>
-        <v>12041.134200000002</v>
-      </c>
-      <c r="F98" s="24">
-        <f t="shared" si="19"/>
-        <v>3351.5985000000005</v>
-      </c>
-      <c r="G98" s="53">
-        <f t="shared" si="12"/>
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="H98" s="54">
-        <f t="shared" si="12"/>
-        <v>2.9987790181180602</v>
-      </c>
-      <c r="I98" s="55">
-        <f t="shared" si="13"/>
         <v>28.888888888888886</v>
       </c>
       <c r="J98" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>25.555555555555554</v>
       </c>
       <c r="K98" s="55">
         <v>18.600000000000001</v>
       </c>
       <c r="L98" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="M98" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="N98" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P98" s="10" t="s">
         <v>202</v>
       </c>
       <c r="Q98" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.7589999999999999</v>
       </c>
       <c r="R98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37891</v>
       </c>
       <c r="S98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="T98" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.8010000000000002</v>
       </c>
       <c r="U98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37956</v>
       </c>
       <c r="V98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="W98" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>25.11</v>
       </c>
       <c r="X98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37368</v>
       </c>
       <c r="Y98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="Z98" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.83</v>
       </c>
       <c r="AA98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36897</v>
       </c>
       <c r="AB98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="AC98" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.41E-2</v>
       </c>
       <c r="AD98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37363</v>
       </c>
       <c r="AE98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AF98" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36895</v>
       </c>
       <c r="AH98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="AI98" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>71.53</v>
       </c>
       <c r="AJ98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37363</v>
       </c>
       <c r="AK98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AL98" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11.97</v>
       </c>
       <c r="AM98" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37566</v>
       </c>
       <c r="AN98" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
@@ -6169,153 +6196,153 @@
         <v>158</v>
       </c>
       <c r="B99" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5456</v>
       </c>
       <c r="C99" s="22">
+        <f t="shared" si="20"/>
+        <v>536</v>
+      </c>
+      <c r="D99" s="23">
+        <f t="shared" si="21"/>
+        <v>17605.051500000001</v>
+      </c>
+      <c r="E99" s="24">
+        <f t="shared" si="22"/>
+        <v>12817.556100000002</v>
+      </c>
+      <c r="F99" s="24">
+        <f t="shared" si="23"/>
+        <v>4787.4954000000007</v>
+      </c>
+      <c r="G99" s="53">
         <f t="shared" si="16"/>
-        <v>536</v>
-      </c>
-      <c r="D99" s="23">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="H99" s="54">
+        <f t="shared" si="16"/>
+        <v>2.9380927069425904</v>
+      </c>
+      <c r="I99" s="55">
         <f t="shared" si="17"/>
-        <v>17605.051500000001</v>
-      </c>
-      <c r="E99" s="24">
-        <f t="shared" si="18"/>
-        <v>12817.556100000002</v>
-      </c>
-      <c r="F99" s="24">
-        <f t="shared" si="19"/>
-        <v>4787.4954000000007</v>
-      </c>
-      <c r="G99" s="53">
-        <f t="shared" si="12"/>
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="H99" s="54">
-        <f t="shared" si="12"/>
-        <v>2.9380927069425904</v>
-      </c>
-      <c r="I99" s="55">
-        <f t="shared" si="13"/>
         <v>31.111111111111111</v>
       </c>
       <c r="J99" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>25.888888888888882</v>
       </c>
       <c r="K99" s="55">
         <v>19.329999999999998</v>
       </c>
       <c r="L99" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="M99" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="N99" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P99" s="10" t="s">
         <v>203</v>
       </c>
       <c r="Q99" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3.7589999999999999</v>
       </c>
       <c r="R99" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37891</v>
       </c>
       <c r="S99" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="T99" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2.7349999999999999</v>
       </c>
       <c r="U99" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37958</v>
       </c>
       <c r="V99" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="W99" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>25.11</v>
       </c>
       <c r="X99" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37368</v>
       </c>
       <c r="Y99" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="Z99" s="59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.83</v>
       </c>
       <c r="AA99" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>36897</v>
       </c>
       <c r="AB99" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="AC99" s="53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="AD99" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>37713</v>
       </c>
       <c r="AE99" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="AF99" s="53">
-        <f t="shared" ref="AF99:AN99" si="23">AF183</f>
+        <f t="shared" ref="AF99:AN99" si="27">AF183</f>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG99" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>36895</v>
       </c>
       <c r="AH99" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>24</v>
       </c>
       <c r="AI99" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>78.430000000000007</v>
       </c>
       <c r="AJ99" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>37713</v>
       </c>
       <c r="AK99" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="AL99" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>11.97</v>
       </c>
       <c r="AM99" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>37566</v>
       </c>
       <c r="AN99" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -6324,153 +6351,153 @@
         <v>159</v>
       </c>
       <c r="B100" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5015</v>
       </c>
       <c r="C100" s="22">
+        <f t="shared" si="20"/>
+        <v>498</v>
+      </c>
+      <c r="D100" s="23">
+        <f t="shared" si="21"/>
+        <v>16187.619900000002</v>
+      </c>
+      <c r="E100" s="24">
+        <f t="shared" si="22"/>
+        <v>12610.920600000001</v>
+      </c>
+      <c r="F100" s="24">
+        <f t="shared" si="23"/>
+        <v>3576.6993000000002</v>
+      </c>
+      <c r="G100" s="53">
         <f t="shared" si="16"/>
-        <v>498</v>
-      </c>
-      <c r="D100" s="23">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="H100" s="54">
+        <f t="shared" si="16"/>
+        <v>2.9362633593324872</v>
+      </c>
+      <c r="I100" s="55">
         <f t="shared" si="17"/>
-        <v>16187.619900000002</v>
-      </c>
-      <c r="E100" s="24">
-        <f t="shared" si="18"/>
-        <v>12610.920600000001</v>
-      </c>
-      <c r="F100" s="24">
-        <f t="shared" si="19"/>
-        <v>3576.6993000000002</v>
-      </c>
-      <c r="G100" s="53">
-        <f t="shared" si="12"/>
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="H100" s="54">
-        <f t="shared" si="12"/>
-        <v>2.9362633593324872</v>
-      </c>
-      <c r="I100" s="55">
-        <f t="shared" si="13"/>
         <v>30.555555555555557</v>
       </c>
       <c r="J100" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>25.833333333333336</v>
       </c>
       <c r="K100" s="55">
         <v>19.23</v>
       </c>
       <c r="L100" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.34E-2</v>
       </c>
       <c r="M100" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.12E-2</v>
       </c>
       <c r="N100" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P100" s="11" t="s">
         <v>204</v>
       </c>
       <c r="Q100" s="25">
-        <f t="shared" ref="Q100:AN108" si="24">Q184</f>
+        <f t="shared" ref="Q100:AN108" si="28">Q184</f>
         <v>3.7589999999999999</v>
       </c>
       <c r="R100" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37526</v>
       </c>
       <c r="S100" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="T100" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.7349999999999999</v>
       </c>
       <c r="U100" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37958</v>
       </c>
       <c r="V100" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="W100" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>25.11</v>
       </c>
       <c r="X100" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37368</v>
       </c>
       <c r="Y100" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="Z100" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>8.83</v>
       </c>
       <c r="AA100" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>36897</v>
       </c>
       <c r="AB100" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="AC100" s="61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.37E-2</v>
       </c>
       <c r="AD100" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37941</v>
       </c>
       <c r="AE100" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="AF100" s="61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AG100" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>36895</v>
       </c>
       <c r="AH100" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
       <c r="AI100" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>68.849999999999994</v>
       </c>
       <c r="AJ100" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37941</v>
       </c>
       <c r="AK100" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="AL100" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>11.97</v>
       </c>
       <c r="AM100" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37566</v>
       </c>
       <c r="AN100" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
     </row>
@@ -6479,117 +6506,117 @@
         <v>160</v>
       </c>
       <c r="B101" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6036</v>
       </c>
       <c r="C101" s="22">
+        <f t="shared" si="20"/>
+        <v>600</v>
+      </c>
+      <c r="D101" s="23">
+        <f t="shared" si="21"/>
+        <v>19620.993300000002</v>
+      </c>
+      <c r="E101" s="24">
+        <f t="shared" si="22"/>
+        <v>17135.212200000002</v>
+      </c>
+      <c r="F101" s="24">
+        <f t="shared" si="23"/>
+        <v>2485.7811000000002</v>
+      </c>
+      <c r="G101" s="53">
         <f t="shared" si="16"/>
-        <v>600</v>
-      </c>
-      <c r="D101" s="23">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H101" s="54">
+        <f t="shared" si="16"/>
+        <v>2.9567500452079569</v>
+      </c>
+      <c r="I101" s="55">
         <f t="shared" si="17"/>
-        <v>19620.993300000002</v>
-      </c>
-      <c r="E101" s="24">
-        <f t="shared" si="18"/>
-        <v>17135.212200000002</v>
-      </c>
-      <c r="F101" s="24">
-        <f t="shared" si="19"/>
-        <v>2485.7811000000002</v>
-      </c>
-      <c r="G101" s="53">
-        <f t="shared" si="12"/>
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="H101" s="54">
-        <f t="shared" si="12"/>
-        <v>2.9567500452079569</v>
-      </c>
-      <c r="I101" s="55">
-        <f t="shared" si="13"/>
         <v>31.111111111111111</v>
       </c>
       <c r="J101" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>25.944444444444446</v>
       </c>
       <c r="K101" s="55">
         <v>18.64</v>
       </c>
       <c r="L101" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.15E-2</v>
       </c>
       <c r="M101" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.04E-2</v>
       </c>
       <c r="N101" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P101" s="10" t="s">
         <v>213</v>
       </c>
       <c r="Q101" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.3010000000000002</v>
       </c>
       <c r="R101" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38273</v>
       </c>
       <c r="S101" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="T101" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.6520000000000001</v>
       </c>
       <c r="U101" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38076</v>
       </c>
       <c r="V101" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="W101" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>25.11</v>
       </c>
       <c r="X101" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37002</v>
       </c>
       <c r="Y101" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="Z101" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>7.94</v>
       </c>
       <c r="AA101" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37975</v>
       </c>
       <c r="AB101" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="AC101" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.18E-2</v>
       </c>
       <c r="AD101" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38083</v>
       </c>
       <c r="AE101" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="AF101" s="53"/>
@@ -6607,117 +6634,117 @@
         <v>161</v>
       </c>
       <c r="B102" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6429</v>
       </c>
       <c r="C102" s="22">
+        <f t="shared" si="20"/>
+        <v>635</v>
+      </c>
+      <c r="D102" s="23">
+        <f t="shared" si="21"/>
+        <v>20819.186100000003</v>
+      </c>
+      <c r="E102" s="24">
+        <f t="shared" si="22"/>
+        <v>17639.051100000004</v>
+      </c>
+      <c r="F102" s="24">
+        <f t="shared" si="23"/>
+        <v>3180.1350000000002</v>
+      </c>
+      <c r="G102" s="53">
         <f t="shared" si="16"/>
-        <v>635</v>
-      </c>
-      <c r="D102" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="H102" s="54">
+        <f t="shared" si="16"/>
+        <v>2.9472234003397513</v>
+      </c>
+      <c r="I102" s="55">
         <f t="shared" si="17"/>
-        <v>20819.186100000003</v>
-      </c>
-      <c r="E102" s="24">
-        <f t="shared" si="18"/>
-        <v>17639.051100000004</v>
-      </c>
-      <c r="F102" s="24">
-        <f t="shared" si="19"/>
-        <v>3180.1350000000002</v>
-      </c>
-      <c r="G102" s="53">
-        <f t="shared" si="12"/>
-        <v>0.01</v>
-      </c>
-      <c r="H102" s="54">
-        <f t="shared" si="12"/>
-        <v>2.9472234003397513</v>
-      </c>
-      <c r="I102" s="55">
-        <f t="shared" si="13"/>
         <v>31.666666666666664</v>
       </c>
       <c r="J102" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>26.055555555555561</v>
       </c>
       <c r="K102" s="55">
         <v>18.600000000000001</v>
       </c>
       <c r="L102" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.21E-2</v>
       </c>
       <c r="M102" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.03E-2</v>
       </c>
       <c r="N102" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P102" s="10" t="s">
         <v>214</v>
       </c>
       <c r="Q102" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.3010000000000002</v>
       </c>
       <c r="R102" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38273</v>
       </c>
       <c r="S102" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="T102" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.6520000000000001</v>
       </c>
       <c r="U102" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38076</v>
       </c>
       <c r="V102" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="W102" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>25.11</v>
       </c>
       <c r="X102" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37002</v>
       </c>
       <c r="Y102" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="Z102" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>7.94</v>
       </c>
       <c r="AA102" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37975</v>
       </c>
       <c r="AB102" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="AC102" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="AD102" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37092</v>
       </c>
       <c r="AE102" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="AF102" s="53"/>
@@ -6735,117 +6762,117 @@
         <v>60</v>
       </c>
       <c r="B103" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>7683</v>
       </c>
       <c r="C103" s="22">
+        <f t="shared" si="20"/>
+        <v>754</v>
+      </c>
+      <c r="D103" s="23">
+        <f t="shared" si="21"/>
+        <v>25392.718500000003</v>
+      </c>
+      <c r="E103" s="24">
+        <f t="shared" si="22"/>
+        <v>22196.756100000002</v>
+      </c>
+      <c r="F103" s="24">
+        <f t="shared" si="23"/>
+        <v>3195.9624000000003</v>
+      </c>
+      <c r="G103" s="53">
         <f t="shared" si="16"/>
-        <v>754</v>
-      </c>
-      <c r="D103" s="23">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H103" s="54">
+        <f t="shared" si="16"/>
+        <v>3.0096857295247128</v>
+      </c>
+      <c r="I103" s="55">
         <f t="shared" si="17"/>
-        <v>25392.718500000003</v>
-      </c>
-      <c r="E103" s="24">
-        <f t="shared" si="18"/>
-        <v>22196.756100000002</v>
-      </c>
-      <c r="F103" s="24">
-        <f t="shared" si="19"/>
-        <v>3195.9624000000003</v>
-      </c>
-      <c r="G103" s="53">
-        <f t="shared" si="12"/>
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="H103" s="54">
-        <f t="shared" si="12"/>
-        <v>3.0096857295247128</v>
-      </c>
-      <c r="I103" s="55">
-        <f t="shared" si="13"/>
         <v>32.222222222222221</v>
       </c>
       <c r="J103" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>26.111111111111114</v>
       </c>
       <c r="K103" s="55">
         <v>18.46</v>
       </c>
       <c r="L103" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="M103" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.01E-2</v>
       </c>
       <c r="N103" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P103" s="10" t="s">
         <v>206</v>
       </c>
       <c r="Q103" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4.6520000000000001</v>
       </c>
       <c r="R103" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37696</v>
       </c>
       <c r="S103" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="T103" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.3940000000000001</v>
       </c>
       <c r="U103" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38082</v>
       </c>
       <c r="V103" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="W103" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>15.94</v>
       </c>
       <c r="X103" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38178</v>
       </c>
       <c r="Y103" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="Z103" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>7.89</v>
       </c>
       <c r="AA103" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37975</v>
       </c>
       <c r="AB103" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="AC103" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="AD103" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38075</v>
       </c>
       <c r="AE103" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="AF103" s="53"/>
@@ -6863,117 +6890,117 @@
         <v>162</v>
       </c>
       <c r="B104" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8222</v>
       </c>
       <c r="C104" s="22">
+        <f t="shared" si="20"/>
+        <v>803</v>
+      </c>
+      <c r="D104" s="23">
+        <f t="shared" si="21"/>
+        <v>27721.104900000002</v>
+      </c>
+      <c r="E104" s="24">
+        <f t="shared" si="22"/>
+        <v>22533.234900000003</v>
+      </c>
+      <c r="F104" s="24">
+        <f t="shared" si="23"/>
+        <v>5187.8700000000008</v>
+      </c>
+      <c r="G104" s="53">
         <f t="shared" si="16"/>
-        <v>803</v>
-      </c>
-      <c r="D104" s="23">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H104" s="54">
+        <f t="shared" si="16"/>
+        <v>3.0715905706371194</v>
+      </c>
+      <c r="I104" s="55">
         <f t="shared" si="17"/>
-        <v>27721.104900000002</v>
-      </c>
-      <c r="E104" s="24">
-        <f t="shared" si="18"/>
-        <v>22533.234900000003</v>
-      </c>
-      <c r="F104" s="24">
-        <f t="shared" si="19"/>
-        <v>5187.8700000000008</v>
-      </c>
-      <c r="G104" s="53">
-        <f t="shared" si="12"/>
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="H104" s="54">
-        <f t="shared" si="12"/>
-        <v>3.0715905706371194</v>
-      </c>
-      <c r="I104" s="55">
-        <f t="shared" si="13"/>
         <v>32.222222222222221</v>
       </c>
       <c r="J104" s="55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>26.166666666666664</v>
       </c>
       <c r="K104" s="55">
         <v>18.760000000000002</v>
       </c>
       <c r="L104" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.44E-2</v>
       </c>
       <c r="M104" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="N104" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101254.86534273588</v>
       </c>
       <c r="P104" s="10" t="s">
         <v>207</v>
       </c>
       <c r="Q104" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>5.6779999999999999</v>
       </c>
       <c r="R104" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38057</v>
       </c>
       <c r="S104" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="T104" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.5619999999999998</v>
       </c>
       <c r="U104" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38077</v>
       </c>
       <c r="V104" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="W104" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>20.11</v>
       </c>
       <c r="X104" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37732</v>
       </c>
       <c r="Y104" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="Z104" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>7.94</v>
       </c>
       <c r="AA104" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37975</v>
       </c>
       <c r="AB104" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="AC104" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.38E-2</v>
       </c>
       <c r="AD104" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38083</v>
       </c>
       <c r="AE104" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="AF104" s="53"/>
@@ -6991,117 +7018,117 @@
         <v>163</v>
       </c>
       <c r="B105" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5696</v>
       </c>
       <c r="C105" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>556</v>
       </c>
       <c r="D105" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>18244.595700000002</v>
       </c>
       <c r="E105" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13600.133100000001</v>
       </c>
       <c r="F105" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4644.4626000000007</v>
       </c>
       <c r="G105" s="53">
-        <f t="shared" ref="G105:H112" si="25">G189</f>
+        <f t="shared" ref="G105:H112" si="29">G189</f>
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="H105" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.9182014875239926</v>
       </c>
       <c r="I105" s="55">
-        <f t="shared" ref="I105:J110" si="26">(I189-32)/180*100</f>
+        <f t="shared" ref="I105:J110" si="30">(I189-32)/180*100</f>
         <v>31.666666666666664</v>
       </c>
       <c r="J105" s="55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>26.055555555555561</v>
       </c>
       <c r="K105" s="55">
         <v>19.350000000000001</v>
       </c>
       <c r="L105" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.46E-2</v>
       </c>
       <c r="M105" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="N105" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101254.86534273588</v>
       </c>
       <c r="P105" s="10" t="s">
         <v>208</v>
       </c>
       <c r="Q105" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>6.0309999999999997</v>
       </c>
       <c r="R105" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38062</v>
       </c>
       <c r="S105" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="T105" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.8140000000000001</v>
       </c>
       <c r="U105" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38077</v>
       </c>
       <c r="V105" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="W105" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>35.06</v>
       </c>
       <c r="X105" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37732</v>
       </c>
       <c r="Y105" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="Z105" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>7.94</v>
       </c>
       <c r="AA105" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37975</v>
       </c>
       <c r="AB105" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="AC105" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD105" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37457</v>
       </c>
       <c r="AE105" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="AF105" s="53"/>
@@ -7119,117 +7146,117 @@
         <v>164</v>
       </c>
       <c r="B106" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5531</v>
       </c>
       <c r="C106" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>541</v>
       </c>
       <c r="D106" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>17977.8747</v>
       </c>
       <c r="E106" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12831.624899999999</v>
       </c>
       <c r="F106" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5146.2498000000005</v>
       </c>
       <c r="G106" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.12E-2</v>
       </c>
       <c r="H106" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.9607830533596839</v>
       </c>
       <c r="I106" s="55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>31.111111111111111</v>
       </c>
       <c r="J106" s="55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>25.944444444444446</v>
       </c>
       <c r="K106" s="55">
         <v>19.68</v>
       </c>
       <c r="L106" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="M106" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.18E-2</v>
       </c>
       <c r="N106" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101254.86534273588</v>
       </c>
       <c r="P106" s="10" t="s">
         <v>209</v>
       </c>
       <c r="Q106" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>3.85</v>
       </c>
       <c r="R106" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38273</v>
       </c>
       <c r="S106" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="T106" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.4980000000000002</v>
       </c>
       <c r="U106" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37466</v>
       </c>
       <c r="V106" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="W106" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>25.06</v>
       </c>
       <c r="X106" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37002</v>
       </c>
       <c r="Y106" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="Z106" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>7.94</v>
       </c>
       <c r="AA106" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37975</v>
       </c>
       <c r="AB106" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="AC106" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="AD106" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38188</v>
       </c>
       <c r="AE106" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="AF106" s="53"/>
@@ -7247,117 +7274,117 @@
         <v>165</v>
       </c>
       <c r="B107" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4689</v>
       </c>
       <c r="C107" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>479</v>
       </c>
       <c r="D107" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>15914.450700000001</v>
       </c>
       <c r="E107" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11871.136200000001</v>
       </c>
       <c r="F107" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4043.3145000000004</v>
       </c>
       <c r="G107" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.11E-2</v>
       </c>
       <c r="H107" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.0794215750773994</v>
       </c>
       <c r="I107" s="55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>28.333333333333332</v>
       </c>
       <c r="J107" s="55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>25.5</v>
       </c>
       <c r="K107" s="55">
         <v>19.399999999999999</v>
       </c>
       <c r="L107" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.43E-2</v>
       </c>
       <c r="M107" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.1599999999999999E-2</v>
       </c>
       <c r="N107" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101254.86534273588</v>
       </c>
       <c r="P107" s="10" t="s">
         <v>210</v>
       </c>
       <c r="Q107" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>3.4550000000000001</v>
       </c>
       <c r="R107" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38107</v>
       </c>
       <c r="S107" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="T107" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.262</v>
       </c>
       <c r="U107" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>41120</v>
       </c>
       <c r="V107" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="W107" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>15.11</v>
       </c>
       <c r="X107" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38138</v>
       </c>
       <c r="Y107" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="Z107" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>7.89</v>
       </c>
       <c r="AA107" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37975</v>
       </c>
       <c r="AB107" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="AC107" s="53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>6.3E-3</v>
       </c>
       <c r="AD107" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38085</v>
       </c>
       <c r="AE107" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="AF107" s="53"/>
@@ -7375,117 +7402,117 @@
         <v>166</v>
       </c>
       <c r="B108" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4855</v>
       </c>
       <c r="C108" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>503</v>
       </c>
       <c r="D108" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>17120.2641</v>
       </c>
       <c r="E108" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11534.071199999998</v>
       </c>
       <c r="F108" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5586.1929000000009</v>
       </c>
       <c r="G108" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="H108" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.1952713885778277</v>
       </c>
       <c r="I108" s="55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>27.222222222222221</v>
       </c>
       <c r="J108" s="55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>25.333333333333329</v>
       </c>
       <c r="K108" s="55">
         <v>19.760000000000002</v>
       </c>
       <c r="L108" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="M108" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.21E-2</v>
       </c>
       <c r="N108" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
       <c r="P108" s="11" t="s">
         <v>211</v>
       </c>
       <c r="Q108" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4.4279999999999999</v>
       </c>
       <c r="R108" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38062</v>
       </c>
       <c r="S108" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="T108" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>2.722</v>
       </c>
       <c r="U108" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37467</v>
       </c>
       <c r="V108" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="W108" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>35</v>
       </c>
       <c r="X108" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38098</v>
       </c>
       <c r="Y108" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="Z108" s="59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>7.94</v>
       </c>
       <c r="AA108" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>37975</v>
       </c>
       <c r="AB108" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="AC108" s="61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="AD108" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>38188</v>
       </c>
       <c r="AE108" s="43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="AF108" s="61"/>
@@ -7503,54 +7530,54 @@
         <v>167</v>
       </c>
       <c r="B109" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3918</v>
       </c>
       <c r="C109" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>406</v>
       </c>
       <c r="D109" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>13445.083200000001</v>
       </c>
       <c r="E109" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9302.7008999999998</v>
       </c>
       <c r="F109" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4142.3823000000002</v>
       </c>
       <c r="G109" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="H109" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.1094086956521743</v>
       </c>
       <c r="I109" s="55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>27.222222222222221</v>
       </c>
       <c r="J109" s="55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>25.333333333333329</v>
       </c>
       <c r="K109" s="55">
         <v>19.760000000000002</v>
       </c>
       <c r="L109" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="M109" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.21E-2</v>
       </c>
       <c r="N109" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
     </row>
@@ -7559,54 +7586,54 @@
         <v>168</v>
       </c>
       <c r="B110" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3823</v>
       </c>
       <c r="C110" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>399</v>
       </c>
       <c r="D110" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>13285.0506</v>
       </c>
       <c r="E110" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8973.8427000000011</v>
       </c>
       <c r="F110" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4311.2079000000003</v>
       </c>
       <c r="G110" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.14E-2</v>
       </c>
       <c r="H110" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.1466249644718145</v>
       </c>
       <c r="I110" s="55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>26.666666666666668</v>
       </c>
       <c r="J110" s="55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>25.222222222222225</v>
       </c>
       <c r="K110" s="55">
         <v>19.8</v>
       </c>
       <c r="L110" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.67E-2</v>
       </c>
       <c r="M110" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="N110" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
     </row>
@@ -7615,31 +7642,31 @@
         <v>169</v>
       </c>
       <c r="B111" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3748</v>
       </c>
       <c r="C111" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>394</v>
       </c>
       <c r="D111" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>13192.137900000002</v>
       </c>
       <c r="E111" s="24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8787.4311000000016</v>
       </c>
       <c r="F111" s="24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4404.7068000000008</v>
       </c>
       <c r="G111" s="53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.15E-2</v>
       </c>
       <c r="H111" s="54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.1849681071945923</v>
       </c>
       <c r="I111" s="55">
@@ -7654,15 +7681,15 @@
         <v>19.84</v>
       </c>
       <c r="L111" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="M111" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.23E-2</v>
       </c>
       <c r="N111" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
     </row>
@@ -7671,31 +7698,31 @@
         <v>170</v>
       </c>
       <c r="B112" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3880</v>
       </c>
       <c r="C112" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>407</v>
       </c>
       <c r="D112" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>13754.3037</v>
       </c>
       <c r="E112" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8799.7412999999997</v>
       </c>
       <c r="F112" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4954.5624000000007</v>
       </c>
       <c r="G112" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.17E-2</v>
       </c>
       <c r="H112" s="62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.2083750174947516</v>
       </c>
       <c r="I112" s="63">
@@ -7710,15 +7737,15 @@
         <v>20.059999999999999</v>
       </c>
       <c r="L112" s="60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1.78E-2</v>
       </c>
       <c r="M112" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.26E-2</v>
       </c>
       <c r="N112" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>101593.51037732697</v>
       </c>
     </row>
@@ -8688,7 +8715,7 @@
         <v>140223</v>
       </c>
       <c r="I147" s="25">
-        <f t="shared" ref="I147:I166" si="27">(F147)*0.2931/(C147)</f>
+        <f t="shared" ref="I147:I166" si="31">(F147)*0.2931/(C147)</f>
         <v>3.4174880051922543</v>
       </c>
       <c r="J147" s="95">
@@ -8778,7 +8805,7 @@
         <v>115136</v>
       </c>
       <c r="I148" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.4570510748065351</v>
       </c>
       <c r="J148" s="95">
@@ -8867,7 +8894,7 @@
         <v>128508</v>
       </c>
       <c r="I149" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.5364334687303032</v>
       </c>
       <c r="J149" s="95">
@@ -9045,7 +9072,7 @@
         <v>54446</v>
       </c>
       <c r="I151" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.235440710799268</v>
       </c>
       <c r="J151" s="95">
@@ -9134,7 +9161,7 @@
         <v>85002</v>
       </c>
       <c r="I152" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.705809741283383</v>
       </c>
       <c r="J152" s="95">
@@ -9223,7 +9250,7 @@
         <v>80478</v>
       </c>
       <c r="I153" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.2519060962192441</v>
       </c>
       <c r="J153" s="95">
@@ -9401,7 +9428,7 @@
         <v>69157</v>
       </c>
       <c r="I155" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.2175275351793013</v>
       </c>
       <c r="J155" s="95">
@@ -9490,7 +9517,7 @@
         <v>67435</v>
       </c>
       <c r="I156" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.2114691557976212</v>
       </c>
       <c r="J156" s="95">
@@ -9668,7 +9695,7 @@
         <v>62594</v>
       </c>
       <c r="I158" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.2265361707329006</v>
       </c>
       <c r="J158" s="95">
@@ -9842,7 +9869,7 @@
         <v>108196</v>
       </c>
       <c r="I160" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.5773999497976217</v>
       </c>
       <c r="J160" s="95">
@@ -10016,7 +10043,7 @@
         <v>62813</v>
       </c>
       <c r="I162" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.072773555555556</v>
       </c>
       <c r="J162" s="95">
@@ -10101,7 +10128,7 @@
         <v>62032</v>
       </c>
       <c r="I163" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.5279999190763922</v>
       </c>
       <c r="J163" s="95">
@@ -10182,7 +10209,7 @@
         <v>207</v>
       </c>
       <c r="I164" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2.969354591186959</v>
       </c>
       <c r="J164" s="95">
@@ -10263,7 +10290,7 @@
         <v>365</v>
       </c>
       <c r="I165" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2.6751863930517716</v>
       </c>
       <c r="J165" s="95">
@@ -10344,7 +10371,7 @@
         <v>87</v>
       </c>
       <c r="I166" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>3.2355450524842548</v>
       </c>
       <c r="J166" s="106">
@@ -10919,7 +10946,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="H174" s="54">
-        <f t="shared" ref="H174:H196" si="28">D174*0.2931/B174</f>
+        <f t="shared" ref="H174:H196" si="32">D174*0.2931/B174</f>
         <v>3.4954391384051333</v>
       </c>
       <c r="I174" s="95">
@@ -11041,7 +11068,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="H175" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.541132144533083</v>
       </c>
       <c r="I175" s="95">
@@ -11163,7 +11190,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="H176" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.5410505644402641</v>
       </c>
       <c r="I176" s="95">
@@ -11283,7 +11310,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="H177" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.5374667365112624</v>
       </c>
       <c r="I177" s="95">
@@ -11403,7 +11430,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="H178" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.4218689799331106</v>
       </c>
       <c r="I178" s="95">
@@ -11523,7 +11550,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="H179" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.1411533557046987</v>
       </c>
       <c r="I179" s="95">
@@ -11643,7 +11670,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="H180" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2.9516349137931037</v>
       </c>
       <c r="I180" s="95">
@@ -11763,7 +11790,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="H181" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2.9729720608852395</v>
       </c>
       <c r="I181" s="95">
@@ -11883,7 +11910,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H182" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2.9987790181180602</v>
       </c>
       <c r="I182" s="95">
@@ -12003,7 +12030,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="H183" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2.9380927069425904</v>
       </c>
       <c r="I183" s="95">
@@ -12123,7 +12150,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="H184" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2.9362633593324872</v>
       </c>
       <c r="I184" s="95">
@@ -12243,7 +12270,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="H185" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2.9567500452079569</v>
       </c>
       <c r="I185" s="95">
@@ -12325,11 +12352,11 @@
         <v>190</v>
       </c>
       <c r="AM185" s="30">
-        <f t="shared" ref="AM185:AN192" si="29">AM269</f>
+        <f t="shared" ref="AM185:AN192" si="33">AM269</f>
         <v>0</v>
       </c>
       <c r="AN185" s="115">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AO185" s="79" t="s">
@@ -12357,7 +12384,7 @@
         <v>0.01</v>
       </c>
       <c r="H186" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2.9472234003397513</v>
       </c>
       <c r="I186" s="95">
@@ -12439,11 +12466,11 @@
         <v>190</v>
       </c>
       <c r="AM186" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AN186" s="115">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AO186" s="79" t="s">
@@ -12471,7 +12498,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="H187" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.0096857295247128</v>
       </c>
       <c r="I187" s="95">
@@ -12553,11 +12580,11 @@
         <v>190</v>
       </c>
       <c r="AM187" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AN187" s="115">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AO187" s="79" t="s">
@@ -12585,7 +12612,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="H188" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.0715905706371194</v>
       </c>
       <c r="I188" s="95">
@@ -12667,11 +12694,11 @@
         <v>190</v>
       </c>
       <c r="AM188" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AN188" s="115">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AO188" s="79" t="s">
@@ -12699,7 +12726,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="H189" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2.9182014875239926</v>
       </c>
       <c r="I189" s="95">
@@ -12781,11 +12808,11 @@
         <v>190</v>
       </c>
       <c r="AM189" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AN189" s="115">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AO189" s="79" t="s">
@@ -12813,7 +12840,7 @@
         <v>1.12E-2</v>
       </c>
       <c r="H190" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>2.9607830533596839</v>
       </c>
       <c r="I190" s="95">
@@ -12895,11 +12922,11 @@
         <v>190</v>
       </c>
       <c r="AM190" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AN190" s="115">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AO190" s="79" t="s">
@@ -12927,7 +12954,7 @@
         <v>1.11E-2</v>
       </c>
       <c r="H191" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.0794215750773994</v>
       </c>
       <c r="I191" s="95">
@@ -13009,11 +13036,11 @@
         <v>190</v>
       </c>
       <c r="AM191" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AN191" s="115">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AO191" s="79" t="s">
@@ -13041,7 +13068,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="H192" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.1952713885778277</v>
       </c>
       <c r="I192" s="95">
@@ -13123,11 +13150,11 @@
         <v>190</v>
       </c>
       <c r="AM192" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AN192" s="119">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AO192" s="80" t="s">
@@ -13155,7 +13182,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="H193" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.1094086956521743</v>
       </c>
       <c r="I193" s="95">
@@ -13224,7 +13251,7 @@
         <v>1.14E-2</v>
       </c>
       <c r="H194" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.1466249644718145</v>
       </c>
       <c r="I194" s="95">
@@ -13291,7 +13318,7 @@
         <v>1.15E-2</v>
       </c>
       <c r="H195" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.1849681071945923</v>
       </c>
       <c r="I195" s="95">
@@ -13358,7 +13385,7 @@
         <v>1.17E-2</v>
       </c>
       <c r="H196" s="54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3.2083750174947516</v>
       </c>
       <c r="I196" s="129">
